--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>페이지</t>
   </si>
@@ -36,18 +36,12 @@
     <t>마이페이지</t>
   </si>
   <si>
-    <t>메인페이지</t>
-  </si>
-  <si>
     <t>아이디찾기</t>
   </si>
   <si>
     <t>로그인</t>
   </si>
   <si>
-    <t>아이디확인</t>
-  </si>
-  <si>
     <t>비밀번호찾기</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>박민수</t>
   </si>
   <si>
-    <t>고재찬</t>
-  </si>
-  <si>
     <t>민병욱</t>
   </si>
   <si>
@@ -67,10 +58,6 @@
   </si>
   <si>
     <t>신지원</t>
-  </si>
-  <si>
-    <t>회원가입
-로그인</t>
   </si>
   <si>
     <t>주차 업로드</t>
@@ -84,98 +71,92 @@
   </si>
   <si>
     <t>개인정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예약내역 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결제수단 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>차량관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이용내역 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업로드한 주차장 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>쿠폰함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>인증페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소셜 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주차업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주변 주차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주차장 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로드뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주차장 정보 공유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>길 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>즐겨찾기 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예약하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유의사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결제 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이벤트 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상세보기/쿠폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김홍준</t>
+  </si>
+  <si>
+    <t>카카오맵 지도 연동</t>
+  </si>
+  <si>
+    <t>마이페이지 메인</t>
+  </si>
+  <si>
+    <t>모바일 사이즈로 다시 작업 시작</t>
+  </si>
+  <si>
+    <t>메인페이지
+회원가입
+로그인</t>
+  </si>
+  <si>
+    <t>아이디확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -183,15 +164,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카카오맵 지도 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 후 메인페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 메인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,16 +385,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,7 +397,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,7 +440,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -494,7 +470,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -808,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O51"/>
+  <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -823,8 +799,8 @@
     <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
     <col min="7" max="14" width="10.625" style="4" customWidth="1"/>
     <col min="15" max="15" width="11.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="16" max="17" width="9" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
@@ -865,24 +841,24 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:O3" si="0">AVERAGE(F9,F18,F27,F29,F41,F44)</f>
-        <v>7.1527777777777787E-2</v>
+        <f t="shared" ref="F3:O3" si="0">AVERAGE(F17,F26,F28,F40,F43)</f>
+        <v>4.7045454545454543E-2</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>0.12207070707070707</v>
+        <v>8.3454545454545462E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>0.15313131313131315</v>
+        <v>9.6931818181818188E-2</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9204545454545435E-2</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
@@ -903,6 +879,11 @@
       <c r="O3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -947,13 +928,13 @@
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -966,10 +947,10 @@
         <v>0.6</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
@@ -988,10 +969,10 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="19"/>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1004,10 +985,10 @@
         <v>0.6</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
@@ -1026,7 +1007,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="19"/>
       <c r="D8" s="10" t="s">
         <v>46</v>
@@ -1065,75 +1046,63 @@
     </row>
     <row r="9" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="6">
-        <f>AVERAGE(F6:F8)</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" ref="G9:O9" si="1">AVERAGE(G6:G8)</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="1"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
+      <c r="B10" s="13"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -1152,26 +1121,26 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
@@ -1190,10 +1159,10 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -1209,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
@@ -1228,10 +1197,10 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
+      <c r="B13" s="13"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
@@ -1266,10 +1235,10 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
@@ -1304,10 +1273,10 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="10" t="s">
-        <v>24</v>
+      <c r="B15" s="13"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -1342,10 +1311,10 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
+      <c r="B16" s="13"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -1380,550 +1349,550 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
+      <c r="F17" s="6">
+        <f t="shared" ref="F17:O17" si="1">AVERAGE(F6:F16)</f>
+        <v>7.2727272727272738E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.11818181818181818</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.14545454545454548</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32727272727272722</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="6">
-        <f>AVERAGE(F10:F17)</f>
+      <c r="F18" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6">
+        <f t="shared" ref="F26:O26" si="2">AVERAGE(F18:F25)</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:O18" si="2">AVERAGE(G10:G17)</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G26" s="6">
         <f t="shared" si="2"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I18" s="6">
+      <c r="H26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="I26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="6">
+      <c r="K26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="6">
+      <c r="L26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="6">
+      <c r="M26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="6">
+      <c r="N26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="7" t="s">
+      <c r="O26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="7" t="s">
+      <c r="C27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6">
+        <f t="shared" ref="F28:O28" si="3">AVERAGE(F27:F27)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9">
-        <v>0</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6">
-        <f>AVERAGE(F19:F26)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" ref="G27:O27" si="3">AVERAGE(G19:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6">
-        <f t="shared" ref="F29:O29" si="4">AVERAGE(F28:F28)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
@@ -1948,10 +1917,10 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -1986,10 +1955,10 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -2024,10 +1993,10 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -2062,10 +2031,10 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -2100,10 +2069,10 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9">
@@ -2138,10 +2107,10 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -2176,10 +2145,10 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9">
@@ -2214,10 +2183,10 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9">
@@ -2252,10 +2221,10 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
@@ -2290,108 +2259,108 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
+      <c r="F40" s="6">
+        <f t="shared" ref="F40:O40" si="4">AVERAGE(F29:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="6">
-        <f>AVERAGE(F30:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" ref="G41:O41" si="5">AVERAGE(G30:G40)</f>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" si="5"/>
+      <c r="F41" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G42" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H42" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I42" s="9">
         <v>0</v>
@@ -2416,87 +2385,53 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9">
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43:O43" si="5">AVERAGE(F41:F42)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H43" s="6">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="7"/>
-      <c r="F44" s="6">
-        <f>AVERAGE(F42:F43)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" ref="G44:O44" si="6">AVERAGE(G42:G43)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E45" s="8"/>
@@ -2522,68 +2457,52 @@
       <c r="E50" s="8"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E51" s="8"/>
-      <c r="F51" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
+  <mergeCells count="10">
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B42:B43 B10:C10 E10 B11:E17">
-    <cfRule type="cellIs" dxfId="7" priority="146" operator="equal">
+  <conditionalFormatting sqref="B18:C18 E18 B19:E25 B41:B42">
+    <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C20 E19:E20">
-    <cfRule type="cellIs" dxfId="6" priority="159" operator="equal">
+  <conditionalFormatting sqref="B29:D35">
+    <cfRule type="cellIs" dxfId="6" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D36">
-    <cfRule type="cellIs" dxfId="5" priority="79" operator="equal">
+  <conditionalFormatting sqref="B27:E27">
+    <cfRule type="cellIs" dxfId="5" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
-    <cfRule type="cellIs" dxfId="4" priority="84" operator="equal">
+  <conditionalFormatting sqref="C41:E42">
+    <cfRule type="cellIs" dxfId="4" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:E43">
-    <cfRule type="cellIs" dxfId="3" priority="113" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D22">
-    <cfRule type="cellIs" dxfId="2" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+  <conditionalFormatting sqref="D36:D39">
+    <cfRule type="cellIs" dxfId="3" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="cellIs" dxfId="0" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F26">
-    <cfRule type="dataBar" priority="381">
+  <conditionalFormatting sqref="F29:F39">
+    <cfRule type="dataBar" priority="430">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2591,13 +2510,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+          <x14:id>{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G26">
-    <cfRule type="dataBar" priority="382">
+  <conditionalFormatting sqref="G30:G39">
+    <cfRule type="dataBar" priority="431">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2605,138 +2524,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}</x14:id>
+          <x14:id>{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:G17 G10:G11 F11">
-    <cfRule type="dataBar" priority="415">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F4B4E4AD-8182-9383-F4B4-E4AD81829383}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F40">
-    <cfRule type="dataBar" priority="418">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D494C48D-A182-B3A3-D494-C48DA182B3A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
-    <cfRule type="dataBar" priority="419">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
-    <cfRule type="dataBar" priority="424">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521B-3716-3524-4262-521B37163524}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G43">
-    <cfRule type="dataBar" priority="425">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DE9ECE87-AB8B-A9B8-DE9E-CE87AB8BA9B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:O26">
-    <cfRule type="dataBar" priority="432">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:O17">
-    <cfRule type="dataBar" priority="433">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7E3E6E29-5506-17E7-7E3E-6E29550617E7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:O40 I30:O30">
-    <cfRule type="dataBar" priority="434">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C484D49D-B182-A3B3-C484-D49DB182A3B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:O43">
-    <cfRule type="dataBar" priority="435">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A1A4A53-2F8F-2D3C-5A1A-4A532F8F2D3C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:O28">
+  <conditionalFormatting sqref="F41:F42">
     <cfRule type="dataBar" priority="436">
       <dataBar>
         <cfvo type="min"/>
@@ -2745,13 +2538,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C686D69F-B392-B1A7-C686-D69FB392B1A7}</x14:id>
+          <x14:id>{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="G41:G42">
+    <cfRule type="dataBar" priority="437">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2759,13 +2552,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08F7E289-4BBD-4EBD-8759-0F1839107954}</x14:id>
+          <x14:id>{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="I29:O29 H30:O39">
+    <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2773,13 +2566,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C849782-8585-48CA-AB40-76DBA25DB37A}</x14:id>
+          <x14:id>{B747175E-7253-7761-B747-175E72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="H41:O42">
+    <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2787,13 +2580,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F595BF7A-DF28-4352-B4E2-0958C99E3751}</x14:id>
+          <x14:id>{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="I27:O27">
+    <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2801,13 +2594,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF61B3A7-CCA8-430A-B30B-8616BDE66B52}</x14:id>
+          <x14:id>{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G8">
-    <cfRule type="dataBar" priority="439">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2815,13 +2608,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848D9-2506-3727-5818-48D925063727}</x14:id>
+          <x14:id>{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:O8">
-    <cfRule type="dataBar" priority="440">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2829,12 +2622,54 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2D1E-3F2F-5818-48412D1E3F2F}</x14:id>
+          <x14:id>{1757174E-6242-6671-1757-174E62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G8 F9:O16">
+    <cfRule type="dataBar" priority="443">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:O8">
+    <cfRule type="dataBar" priority="444">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4727571E-3213-3B21-4727-571E32133B21}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2843,12 +2678,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2371D068-4F44-492D-B625-1ECC2996FA93}</x14:id>
+          <x14:id>{C383D39A-B697-B4A5-C383-D39AB697B4A5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H29">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2857,7 +2692,87 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5EE225B1-977F-43CF-B13C-EDD5560A536D}</x14:id>
+          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C11 E10:E11">
+    <cfRule type="cellIs" dxfId="1" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G16">
+    <cfRule type="dataBar" priority="394">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:O16">
+    <cfRule type="dataBar" priority="446">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19 F19 F20:G25">
+    <cfRule type="dataBar" priority="427">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:O25">
+    <cfRule type="dataBar" priority="447">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2868,7 +2783,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2876,10 +2791,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F19:F26</xm:sqref>
+          <xm:sqref>F29:F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}">
+          <x14:cfRule type="dataBar" id="{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2887,10 +2802,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G19:G26</xm:sqref>
+          <xm:sqref>G30:G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F4B4E4AD-8182-9383-F4B4-E4AD81829383}">
+          <x14:cfRule type="dataBar" id="{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2898,10 +2813,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F12:G17 G10:G11 F11</xm:sqref>
+          <xm:sqref>F41:F42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D494C48D-A182-B3A3-D494-C48DA182B3A3}">
+          <x14:cfRule type="dataBar" id="{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2909,10 +2824,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30:F40</xm:sqref>
+          <xm:sqref>G41:G42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}">
+          <x14:cfRule type="dataBar" id="{B747175E-7253-7761-B747-175E72537761}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2920,10 +2835,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G31:G40</xm:sqref>
+          <xm:sqref>I29:O29 H30:O39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4262521B-3716-3524-4262-521B37163524}">
+          <x14:cfRule type="dataBar" id="{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2931,10 +2846,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F42:F43</xm:sqref>
+          <xm:sqref>H41:O42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE9ECE87-AB8B-A9B8-DE9E-CE87AB8BA9B8}">
+          <x14:cfRule type="dataBar" id="{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2942,10 +2857,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G42:G43</xm:sqref>
+          <xm:sqref>I27:O27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}">
+          <x14:cfRule type="dataBar" id="{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2953,10 +2868,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19:O26</xm:sqref>
+          <xm:sqref>F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7E3E6E29-5506-17E7-7E3E-6E29550617E7}">
+          <x14:cfRule type="dataBar" id="{1757174E-6242-6671-1757-174E62426671}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2964,10 +2879,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10:O17</xm:sqref>
+          <xm:sqref>G27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C484D49D-B182-A3B3-C484-D49DB182A3B3}">
+          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2975,10 +2890,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H31:O40 I30:O30</xm:sqref>
+          <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A1A4A53-2F8F-2D3C-5A1A-4A532F8F2D3C}">
+          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2986,76 +2901,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42:O43</xm:sqref>
+          <xm:sqref>F6:G8 F9:O16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C686D69F-B392-B1A7-C686-D69FB392B1A7}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I28:O28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{08F7E289-4BBD-4EBD-8759-0F1839107954}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7C849782-8585-48CA-AB40-76DBA25DB37A}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F595BF7A-DF28-4352-B4E2-0958C99E3751}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF61B3A7-CCA8-430A-B30B-8616BDE66B52}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848D9-2506-3727-5818-48D925063727}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F6:G8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2D1E-3F2F-5818-48412D1E3F2F}">
+          <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3066,7 +2915,7 @@
           <xm:sqref>H6:O8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2371D068-4F44-492D-B625-1ECC2996FA93}">
+          <x14:cfRule type="dataBar" id="{C383D39A-B697-B4A5-C383-D39AB697B4A5}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3074,10 +2923,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30</xm:sqref>
+          <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5EE225B1-977F-43CF-B13C-EDD5560A536D}">
+          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
             <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3085,7 +2934,62 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H30</xm:sqref>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G10:G16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H10:O16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G18:G19 F19 F20:G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H18:O25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>페이지</t>
   </si>
@@ -84,187 +87,256 @@
   </si>
   <si>
     <t>개인정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예약내역 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결제수단 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>차량관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이용내역 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업로드한 주차장 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>쿠폰함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>인증페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소셜 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주차업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주변 주차장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주차장 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상세보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로드뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주차장 정보 공유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>길 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>즐겨찾기 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예약하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유의사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결제 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이벤트 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상세보기/쿠폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>김홍준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>메인 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카카오맵 지도 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인 후 메인페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지 메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 사이즈로 다시 작업 시작</t>
+  </si>
+  <si>
+    <t>메인페이지
+회원가입
+로그인</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,14 +362,187 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -312,7 +557,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -325,7 +569,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -336,7 +579,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -349,105 +591,404 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="10" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="9" builtinId="10"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="입력" xfId="16" builtinId="20"/>
+    <cellStyle name="제목" xfId="11" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -533,15 +1074,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -807,27 +1339,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
-    <col min="7" max="14" width="10.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="1" max="1" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="12.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="4" style="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="9.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="14" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" style="4" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -860,52 +1392,57 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:O3" si="0">AVERAGE(F9,F18,F27,F29,F41,F44)</f>
-        <v>7.1527777777777787E-2</v>
+        <f>AVERAGE(F17,F26,F28,F40,F43)</f>
+        <v>0.0470454545454545</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.12207070707070707</v>
+        <f>AVERAGE(G17,G26,G28,G40,G43)</f>
+        <v>0.0834545454545455</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15313131313131315</v>
+        <f>AVERAGE(H17,H26,H28,H40,H43)</f>
+        <v>0.0969318181818182</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(I17,I26,I28,I40,I43)</f>
+        <v>0.0546590909090909</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J17,J26,J28,J40,J43)</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K17,K26,K28,K40,K43)</f>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L17,L26,L28,L40,L43)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(M17,M26,M28,M40,M43)</f>
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(N17,N26,N28,N40,N43)</f>
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <f>AVERAGE(O17,O26,O28,O40,O43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -945,12 +1482,12 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="16.500000" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>44</v>
@@ -966,7 +1503,7 @@
         <v>0.6</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J6" s="9">
         <v>0</v>
@@ -987,9 +1524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="16.500000" customHeight="1">
       <c r="B7" s="16"/>
-      <c r="C7" s="19"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1004,7 +1541,7 @@
         <v>0.6</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
@@ -1025,9 +1562,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="16.500000" customHeight="1">
       <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
@@ -1063,74 +1600,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="7"/>
+    <row r="9" spans="2:15" ht="16.150000" customHeight="1">
+      <c r="B9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="6">
-        <f>AVERAGE(F6:F8)</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" ref="G9:O9" si="1">AVERAGE(G6:G8)</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="16"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
@@ -1151,21 +1676,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
+    <row r="11" spans="2:15">
+      <c r="B11" s="16"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="9">
         <v>0</v>
@@ -1189,11 +1714,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
+    <row r="12" spans="2:15">
+      <c r="B12" s="16"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -1227,11 +1752,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
+    <row r="13" spans="2:15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
@@ -1265,11 +1790,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="2:15">
+      <c r="B14" s="16"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
@@ -1303,11 +1828,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="10" t="s">
-        <v>24</v>
+    <row r="15" spans="2:15">
+      <c r="B15" s="16"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -1341,11 +1866,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
+    <row r="16" spans="2:15">
+      <c r="B16" s="16"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -1379,106 +1904,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="10" t="s">
-        <v>26</v>
-      </c>
+    <row r="17" spans="2:15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="7"/>
+      <c r="F17" s="6">
+        <f>AVERAGE(F6:F16)</f>
+        <v>0.0727272727272727</v>
+      </c>
+      <c r="G17" s="6">
+        <f>AVERAGE(G6:G16)</f>
+        <v>0.118181818181818</v>
+      </c>
+      <c r="H17" s="6">
+        <f>AVERAGE(H6:H16)</f>
+        <v>0.145454545454545</v>
+      </c>
+      <c r="I17" s="6">
+        <f>AVERAGE(I6:I16)</f>
+        <v>0.254545454545455</v>
+      </c>
+      <c r="J17" s="6">
+        <f>AVERAGE(J6:J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <f>AVERAGE(K6:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <f>AVERAGE(L6:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <f>AVERAGE(M6:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <f>AVERAGE(N6:N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <f>AVERAGE(O6:O16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="6">
-        <f>AVERAGE(F10:F17)</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" ref="G18:O18" si="2">AVERAGE(G10:G17)</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="F18" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
         <v>0</v>
       </c>
       <c r="G19" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -1505,11 +2030,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
+    <row r="20" spans="2:15">
+      <c r="B20" s="20"/>
       <c r="C20" s="18"/>
       <c r="D20" s="7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -1543,11 +2068,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
+    <row r="21" spans="2:15">
+      <c r="B21" s="20"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
+      <c r="D21" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
@@ -1581,11 +2106,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
+    <row r="22" spans="2:15">
+      <c r="B22" s="20"/>
       <c r="C22" s="18"/>
       <c r="D22" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
@@ -1619,11 +2144,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
+    <row r="23" spans="2:15">
+      <c r="B23" s="20"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="7" t="s">
-        <v>9</v>
+      <c r="D23" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -1657,11 +2182,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
+    <row r="24" spans="2:15">
+      <c r="B24" s="20"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="7" t="s">
-        <v>10</v>
+      <c r="D24" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
@@ -1695,11 +2220,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
+    <row r="25" spans="2:15">
+      <c r="B25" s="20"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="7" t="s">
-        <v>27</v>
+      <c r="D25" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -1733,197 +2258,197 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="26" spans="2:15">
+      <c r="B26" s="21"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="9">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="7"/>
+      <c r="F26" s="6">
+        <f>AVERAGE(F18:F25)</f>
+        <v>0.0375</v>
+      </c>
+      <c r="G26" s="6">
+        <f>AVERAGE(G18:G25)</f>
+        <v>0.065</v>
+      </c>
+      <c r="H26" s="6">
+        <f>AVERAGE(H18:H25)</f>
+        <v>0.01875</v>
+      </c>
+      <c r="I26" s="6">
+        <f>AVERAGE(I18:I25)</f>
+        <v>0.01875</v>
+      </c>
+      <c r="J26" s="6">
+        <f>AVERAGE(J18:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f>AVERAGE(K18:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f>AVERAGE(L18:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <f>AVERAGE(M18:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <f>AVERAGE(N18:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <f>AVERAGE(O18:O25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="6">
-        <f>AVERAGE(F19:F26)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" ref="G27:O27" si="3">AVERAGE(G19:G26)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F27" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
+        <f>AVERAGE(F27:F27)</f>
         <v>0.1</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
+        <f>AVERAGE(G27:G27)</f>
         <v>0.2</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="6">
+        <f>AVERAGE(H27:H27)</f>
         <v>0.25</v>
       </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="7"/>
+      <c r="I28" s="6">
+        <f>AVERAGE(I27:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <f>AVERAGE(J27:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f>AVERAGE(K27:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <f>AVERAGE(L27:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <f>AVERAGE(M27:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <f>AVERAGE(N27:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <f>AVERAGE(O27:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="6">
-        <f t="shared" ref="F29:O29" si="4">AVERAGE(F28:F28)</f>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
         <v>0.1</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="H29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
         <v>0</v>
       </c>
       <c r="G30" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
@@ -1947,11 +2472,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15">
       <c r="B31" s="16"/>
       <c r="C31" s="18"/>
       <c r="D31" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -1985,11 +2510,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15">
       <c r="B32" s="16"/>
       <c r="C32" s="18"/>
       <c r="D32" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -2023,11 +2548,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15">
       <c r="B33" s="16"/>
       <c r="C33" s="18"/>
       <c r="D33" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -2061,11 +2586,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15">
       <c r="B34" s="16"/>
       <c r="C34" s="18"/>
       <c r="D34" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -2099,11 +2624,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15">
       <c r="B35" s="16"/>
       <c r="C35" s="18"/>
       <c r="D35" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9">
@@ -2137,11 +2662,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15">
       <c r="B36" s="16"/>
       <c r="C36" s="18"/>
       <c r="D36" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -2175,11 +2700,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15">
       <c r="B37" s="16"/>
       <c r="C37" s="18"/>
       <c r="D37" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9">
@@ -2213,11 +2738,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15">
       <c r="B38" s="16"/>
       <c r="C38" s="18"/>
       <c r="D38" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9">
@@ -2251,11 +2776,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15">
       <c r="B39" s="16"/>
       <c r="C39" s="18"/>
       <c r="D39" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="9">
@@ -2289,109 +2814,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="7" t="s">
-        <v>40</v>
-      </c>
+    <row r="40" spans="2:15">
+      <c r="B40" s="13"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="7"/>
+      <c r="F40" s="6">
+        <f>AVERAGE(F29:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <f>AVERAGE(G29:G39)</f>
+        <v>0.00909090909090909</v>
+      </c>
+      <c r="H40" s="6">
+        <f>AVERAGE(H29:H39)</f>
+        <v>0.0454545454545455</v>
+      </c>
+      <c r="I40" s="6">
+        <f>AVERAGE(I29:I39)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <f>AVERAGE(J29:J39)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <f>AVERAGE(K29:K39)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <f>AVERAGE(L29:L39)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <f>AVERAGE(M29:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <f>AVERAGE(N29:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <f>AVERAGE(O29:O39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="6">
-        <f>AVERAGE(F30:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" ref="G41:O41" si="5">AVERAGE(G30:G40)</f>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="F41" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="16"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G42" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H42" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I42" s="9">
         <v>0</v>
@@ -2415,175 +2940,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0</v>
-      </c>
-      <c r="N43" s="9">
-        <v>0</v>
-      </c>
-      <c r="O43" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="7"/>
-      <c r="F44" s="6">
-        <f>AVERAGE(F42:F43)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" ref="G44:O44" si="6">AVERAGE(G42:G43)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" si="6"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15">
+      <c r="B43" s="13"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="7"/>
+      <c r="F43" s="6">
+        <f>AVERAGE(F41:F42)</f>
+        <v>0.025</v>
+      </c>
+      <c r="G43" s="6">
+        <f>AVERAGE(G41:G42)</f>
+        <v>0.025</v>
+      </c>
+      <c r="H43" s="6">
+        <f>AVERAGE(H41:H42)</f>
+        <v>0.025</v>
+      </c>
+      <c r="I43" s="6">
+        <f>AVERAGE(I41:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <f>AVERAGE(J41:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f>AVERAGE(K41:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <f>AVERAGE(L41:L42)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <f>AVERAGE(M41:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <f>AVERAGE(N41:N42)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <f>AVERAGE(O41:O42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="2:15">
       <c r="E45" s="8"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15">
       <c r="E46" s="8"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15">
       <c r="E47" s="8"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15">
       <c r="E48" s="8"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:6">
       <c r="E49" s="8"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:6">
       <c r="E50" s="8"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E51" s="8"/>
-      <c r="F51" s="4"/>
+    <row r="51" spans="5:6">
+      <c r="E51" s="1"/>
+      <c r="F51" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
+  <mergeCells count="10">
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C18:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B40"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B42:B43 B10:C10 E10 B11:E17">
-    <cfRule type="cellIs" dxfId="7" priority="146" operator="equal">
+  <conditionalFormatting sqref="B18:C18 E18 B19:E25 B41:B42">
+    <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C20 E19:E20">
-    <cfRule type="cellIs" dxfId="6" priority="159" operator="equal">
+  <conditionalFormatting sqref="B29:D35">
+    <cfRule type="cellIs" dxfId="5" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:D36">
-    <cfRule type="cellIs" dxfId="5" priority="79" operator="equal">
+  <conditionalFormatting sqref="B27:E27">
+    <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:E28">
-    <cfRule type="cellIs" dxfId="4" priority="84" operator="equal">
+  <conditionalFormatting sqref="C41:E42">
+    <cfRule type="cellIs" dxfId="3" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:E43">
-    <cfRule type="cellIs" dxfId="3" priority="113" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D22">
-    <cfRule type="cellIs" dxfId="2" priority="85" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+  <conditionalFormatting sqref="D36:D39">
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E8">
-    <cfRule type="cellIs" dxfId="0" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F26">
-    <cfRule type="dataBar" priority="381">
+  <conditionalFormatting sqref="F29:F39">
+    <cfRule type="dataBar" priority="430">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2591,13 +3082,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G26">
-    <cfRule type="dataBar" priority="382">
+  <conditionalFormatting sqref="G30:G39">
+    <cfRule type="dataBar" priority="431">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2605,138 +3096,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}</x14:id>
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:G17 G10:G11 F11">
-    <cfRule type="dataBar" priority="415">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F4B4E4AD-8182-9383-F4B4-E4AD81829383}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F40">
-    <cfRule type="dataBar" priority="418">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D494C48D-A182-B3A3-D494-C48DA182B3A3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
-    <cfRule type="dataBar" priority="419">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
-    <cfRule type="dataBar" priority="424">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521B-3716-3524-4262-521B37163524}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G43">
-    <cfRule type="dataBar" priority="425">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DE9ECE87-AB8B-A9B8-DE9E-CE87AB8BA9B8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:O26">
-    <cfRule type="dataBar" priority="432">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:O17">
-    <cfRule type="dataBar" priority="433">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7E3E6E29-5506-17E7-7E3E-6E29550617E7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:O40 I30:O30">
-    <cfRule type="dataBar" priority="434">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C484D49D-B182-A3B3-C484-D49DB182A3B3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:O43">
-    <cfRule type="dataBar" priority="435">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5A1A4A53-2F8F-2D3C-5A1A-4A532F8F2D3C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:O28">
+  <conditionalFormatting sqref="F41:F42">
     <cfRule type="dataBar" priority="436">
       <dataBar>
         <cfvo type="min"/>
@@ -2745,13 +3110,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C686D69F-B392-B1A7-C686-D69FB392B1A7}</x14:id>
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="G41:G42">
+    <cfRule type="dataBar" priority="437">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2759,13 +3124,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08F7E289-4BBD-4EBD-8759-0F1839107954}</x14:id>
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="I29:O29 H30:O39">
+    <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2773,13 +3138,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7C849782-8585-48CA-AB40-76DBA25DB37A}</x14:id>
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="H41:O42">
+    <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2787,13 +3152,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F595BF7A-DF28-4352-B4E2-0958C99E3751}</x14:id>
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="I27:O27">
+    <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2801,13 +3166,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF61B3A7-CCA8-430A-B30B-8616BDE66B52}</x14:id>
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G8">
-    <cfRule type="dataBar" priority="439">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2815,13 +3180,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848D9-2506-3727-5818-48D925063727}</x14:id>
+          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:O8">
-    <cfRule type="dataBar" priority="440">
+  <conditionalFormatting sqref="G27">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2829,12 +3194,54 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2D1E-3F2F-5818-48412D1E3F2F}</x14:id>
+          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G8 F9:O16">
+    <cfRule type="dataBar" priority="443">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:O8">
+    <cfRule type="dataBar" priority="444">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2843,12 +3250,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2371D068-4F44-492D-B625-1ECC2996FA93}</x14:id>
+          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H29">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2857,235 +3264,286 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5EE225B1-977F-43CF-B13C-EDD5560A536D}</x14:id>
+          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <conditionalFormatting sqref="B10:C11 E10:E11">
+    <cfRule type="cellIs" dxfId="6" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D12">
+    <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G16">
+    <cfRule type="dataBar" priority="394">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:O16">
+    <cfRule type="dataBar" priority="446">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19 F19 F20:G25">
+    <cfRule type="dataBar" priority="427">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:O25">
+    <cfRule type="dataBar" priority="447">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F19:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CC8CDC95-B98A-ABBB-CC8C-DC95B98AABBB}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G19:G26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F4B4E4AD-8182-9383-F4B4-E4AD81829383}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F12:G17 G10:G11 F11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D494C48D-A182-B3A3-D494-C48DA182B3A3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30:F40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC9CCC85-A98A-BBAB-DC9C-CC85A98ABBAB}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G31:G40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4262521B-3716-3524-4262-521B37163524}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F42:F43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE9ECE87-AB8B-A9B8-DE9E-CE87AB8BA9B8}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G42:G43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48E85811-3D3E-2F3F-48E8-58113D3E2F3F}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19:O26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7E3E6E29-5506-17E7-7E3E-6E29550617E7}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10:O17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C484D49D-B182-A3B3-C484-D49DB182A3B3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H31:O40 I30:O30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5A1A4A53-2F8F-2D3C-5A1A-4A532F8F2D3C}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H42:O43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C686D69F-B392-B1A7-C686-D69FB392B1A7}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I28:O28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{08F7E289-4BBD-4EBD-8759-0F1839107954}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7C849782-8585-48CA-AB40-76DBA25DB37A}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F595BF7A-DF28-4352-B4E2-0958C99E3751}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF61B3A7-CCA8-430A-B30B-8616BDE66B52}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848D9-2506-3727-5818-48D925063727}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2D1E-3F2F-5818-48412D1E3F2F}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:O8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2371D068-4F44-492D-B625-1ECC2996FA93}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5EE225B1-977F-43CF-B13C-EDD5560A536D}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1330,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -1384,43 +1384,43 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F17,F26,F28,F40,F43)</f>
-        <v>0.0470454545454545</v>
+        <f>AVERAGE(F17,F26,F28,F40,F42)</f>
+        <v>0.0520454545454546</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G17,G26,G28,G40,G43)</f>
-        <v>0.0759545454545454</v>
+        <f>AVERAGE(G17,G26,G28,G40,G42)</f>
+        <v>0.0809545454545455</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H17,H26,H28,H40,H43)</f>
-        <v>0.0969318181818182</v>
+        <f>AVERAGE(H17,H26,H28,H40,H42)</f>
+        <v>0.101931818181818</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I17,I26,I28,I40,I43)</f>
-        <v>0.126931818181818</v>
+        <f>AVERAGE(I17,I26,I28,I40,I42)</f>
+        <v>0.131931818181818</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J17,J26,J28,J40,J43)</f>
-        <v>0.190613636363636</v>
+        <f>AVERAGE(J17,J26,J28,J40,J42)</f>
+        <v>0.198613636363636</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K17,K26,K28,K40,K43)</f>
+        <f>AVERAGE(K17,K26,K28,K40,K42)</f>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L17,L26,L28,L40,L43)</f>
+        <f>AVERAGE(L17,L26,L28,L40,L42)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M17,M26,M28,M40,M43)</f>
+        <f>AVERAGE(M17,M26,M28,M40,M42)</f>
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N17,N26,N28,N40,N43)</f>
+        <f>AVERAGE(N17,N26,N28,N40,N42)</f>
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O17,O26,O28,O40,O43)</f>
+        <f>AVERAGE(O17,O26,O28,O40,O42)</f>
         <v>0</v>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="11"/>
       <c r="D12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -1743,7 +1743,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
@@ -2890,87 +2890,65 @@
       </c>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="16"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
-      <c r="O42" s="9">
+      <c r="B42" s="13"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="7"/>
+      <c r="F42" s="6">
+        <f>AVERAGE(F41:F41)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G42" s="6">
+        <f>AVERAGE(G41:G41)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="6">
+        <f>AVERAGE(H41:H41)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I42" s="6">
+        <f>AVERAGE(I41:I41)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J42" s="6">
+        <f>AVERAGE(J41:J41)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K42" s="6">
+        <f>AVERAGE(K41:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <f>AVERAGE(L41:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <f>AVERAGE(M41:M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <f>AVERAGE(N41:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <f>AVERAGE(O41:O41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="7"/>
-      <c r="F43" s="6">
-        <f>AVERAGE(F41:F42)</f>
-        <v>0.025</v>
-      </c>
-      <c r="G43" s="6">
-        <f>AVERAGE(G41:G42)</f>
-        <v>0.025</v>
-      </c>
-      <c r="H43" s="6">
-        <f>AVERAGE(H41:H42)</f>
-        <v>0.025</v>
-      </c>
-      <c r="I43" s="6">
-        <f>AVERAGE(I41:I42)</f>
-        <v>0.025</v>
-      </c>
-      <c r="J43" s="6">
-        <f>AVERAGE(J41:J42)</f>
-        <v>0.04</v>
-      </c>
-      <c r="K43" s="6">
-        <f>AVERAGE(K41:K42)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <f>AVERAGE(L41:L42)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <f>AVERAGE(M41:M42)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <f>AVERAGE(N41:N42)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <f>AVERAGE(O41:O42)</f>
-        <v>0</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15">
       <c r="E44" s="8"/>
@@ -2997,8 +2975,8 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="5:6">
-      <c r="E50" s="8"/>
-      <c r="F50" s="4"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3010,11 +2988,11 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="B29:B40"/>
     <mergeCell ref="C29:C40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B18:C18 E18 B19:E25 B41:B42">
+  <conditionalFormatting sqref="B18:C18 E18 B19:E25 B41">
     <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -3029,7 +3007,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:E42">
+  <conditionalFormatting sqref="C41:E41">
     <cfRule type="cellIs" dxfId="3" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -3053,7 +3031,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+          <x14:id>{41715118-3424-3627-4171-511834243627}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3067,12 +3045,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+          <x14:id>{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F42">
+  <conditionalFormatting sqref="F41">
     <cfRule type="dataBar" priority="436">
       <dataBar>
         <cfvo type="min"/>
@@ -3081,12 +3059,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+          <x14:id>{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G42">
+  <conditionalFormatting sqref="G41">
     <cfRule type="dataBar" priority="437">
       <dataBar>
         <cfvo type="min"/>
@@ -3095,7 +3073,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+          <x14:id>{98d888c1-eddc-effe-98d8-88c1eddceffe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3109,12 +3087,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+          <x14:id>{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:O42">
+  <conditionalFormatting sqref="H41:O41">
     <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
@@ -3123,7 +3101,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+          <x14:id>{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3137,7 +3115,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+          <x14:id>{1454044d-6157-6372-1454-044d61576372}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3151,7 +3129,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3165,7 +3143,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3179,7 +3157,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3193,7 +3171,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{a444145d-7141-7362-a444-145d71417362}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3207,7 +3185,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+          <x14:id>{b8f8a8e1-cdfe-cfde-b8f8-a8e1cdfecfde}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3221,7 +3199,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
+          <x14:id>{3c7c2c65-497a-4b5a-3c7c-2c65497a4b5a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3235,7 +3213,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
+          <x14:id>{5414449d-2117-2332-5414-449d21172332}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3259,7 +3237,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+          <x14:id>{d292c289-a594-a7b6-d292-c289a594a7b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3273,7 +3251,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+          <x14:id>{5c1c4c05-2918-2b3a-5c1c-4c0529182b3a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3287,7 +3265,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+          <x14:id>{d898c881-ad9c-afbe-d898-c881ad9cafbe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3301,7 +3279,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+          <x14:id>{4434541d-31e1-3322-4434-541d31e13322}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3315,7 +3293,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{c383d399-b585-b7a6-c383-d399b585b7a6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3327,7 +3305,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+          <x14:cfRule type="dataBar" id="{41715118-3424-3627-4171-511834243627}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3337,7 +3315,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3347,7 +3325,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+          <x14:cfRule type="dataBar" id="{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3357,7 +3335,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+          <x14:cfRule type="dataBar" id="{98d888c1-eddc-effe-98d8-88c1eddceffe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3367,7 +3345,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+          <x14:cfRule type="dataBar" id="{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3377,7 +3355,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+          <x14:cfRule type="dataBar" id="{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3387,7 +3365,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{1454044d-6157-6372-1454-044d61576372}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3397,7 +3375,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
+          <x14:cfRule type="dataBar" id="{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3407,7 +3385,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
+          <x14:cfRule type="dataBar" id="{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3417,7 +3395,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+          <x14:cfRule type="dataBar" id="{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3427,7 +3405,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+          <x14:cfRule type="dataBar" id="{a444145d-7141-7362-a444-145d71417362}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3437,7 +3415,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
+          <x14:cfRule type="dataBar" id="{b8f8a8e1-cdfe-cfde-b8f8-a8e1cdfecfde}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3447,7 +3425,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
+          <x14:cfRule type="dataBar" id="{3c7c2c65-497a-4b5a-3c7c-2c65497a4b5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3457,7 +3435,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
+          <x14:cfRule type="dataBar" id="{5414449d-2117-2332-5414-449d21172332}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3467,7 +3445,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
+          <x14:cfRule type="dataBar" id="{d292c289-a594-a7b6-d292-c289a594a7b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3477,7 +3455,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
+          <x14:cfRule type="dataBar" id="{5c1c4c05-2918-2b3a-5c1c-4c0529182b3a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3487,7 +3465,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+          <x14:cfRule type="dataBar" id="{d898c881-ad9c-afbe-d898-c881ad9cafbe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3497,7 +3475,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+          <x14:cfRule type="dataBar" id="{4434541d-31e1-3322-4434-541d31e13322}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3507,7 +3485,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+          <x14:cfRule type="dataBar" id="{c383d399-b585-b7a6-c383-d399b585b7a6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>페이지</t>
   </si>
@@ -39,13 +39,7 @@
     <t>아이디찾기</t>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
     <t>비밀번호찾기</t>
-  </si>
-  <si>
-    <t>비밀번호재설정</t>
   </si>
   <si>
     <t>박민수</t>
@@ -89,12 +83,6 @@
   </si>
   <si>
     <t>쿠폰함</t>
-  </si>
-  <si>
-    <t>인증페이지</t>
-  </si>
-  <si>
-    <t>소셜 로그인</t>
   </si>
   <si>
     <t>주차업로드</t>
@@ -156,15 +144,15 @@
 로그인</t>
   </si>
   <si>
-    <t>아이디확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인 후 메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 / 소셜 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O50"/>
+  <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -841,24 +829,24 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:O3" si="0">AVERAGE(F17,F26,F28,F40,F43)</f>
-        <v>4.7045454545454543E-2</v>
+        <f t="shared" ref="F3:O3" si="0">AVERAGE(F13,F22,F24,F36,F39)</f>
+        <v>5.5357142857142862E-2</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
-        <v>8.3454545454545462E-2</v>
+        <v>8.9461038961038977E-2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="0"/>
-        <v>9.6931818181818188E-2</v>
+        <v>0.1135551948051948</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" si="0"/>
-        <v>6.9204545454545435E-2</v>
+        <v>0.11160714285714286</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="0"/>
-        <v>7.9999999999999988E-2</v>
+        <v>0.13996428571428571</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
@@ -883,7 +871,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H4" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -928,13 +916,13 @@
     </row>
     <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -972,7 +960,7 @@
       <c r="B7" s="13"/>
       <c r="C7" s="19"/>
       <c r="D7" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1010,7 +998,7 @@
       <c r="B8" s="13"/>
       <c r="C8" s="19"/>
       <c r="D8" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
@@ -1048,7 +1036,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -1162,7 +1150,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="19"/>
       <c r="D12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9">
@@ -1197,64 +1185,76 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
+      <c r="F13" s="6">
+        <f>AVERAGE(F6:F12)</f>
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="G13" s="6">
+        <f>AVERAGE(G6:G12)</f>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="H13" s="6">
+        <f>AVERAGE(H6:H12)</f>
+        <v>0.22857142857142859</v>
+      </c>
+      <c r="I13" s="6">
+        <f>AVERAGE(I6:I12)</f>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="J13" s="6">
+        <f>AVERAGE(J6:J12)</f>
+        <v>0.62857142857142845</v>
+      </c>
+      <c r="K13" s="6">
+        <f>AVERAGE(K6:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <f>AVERAGE(L6:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <f>AVERAGE(M6:M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f>AVERAGE(N6:N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <f>AVERAGE(O6:O12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
+      <c r="B14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -1273,17 +1273,17 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
@@ -1311,10 +1311,10 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -1349,73 +1349,61 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="6">
-        <f t="shared" ref="F17:O17" si="1">AVERAGE(F6:F16)</f>
-        <v>7.2727272727272738E-2</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="1"/>
-        <v>0.11818181818181818</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14545454545454548</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="1"/>
-        <v>0.32727272727272722</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="1"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="1"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>41</v>
+      <c r="B18" s="22"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="9">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I18" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
@@ -1439,15 +1427,15 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="7" t="s">
-        <v>16</v>
+      <c r="D19" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
         <v>0</v>
       </c>
       <c r="G19" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -1477,8 +1465,8 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="7" t="s">
-        <v>17</v>
+      <c r="D20" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -1516,7 +1504,7 @@
       <c r="B21" s="22"/>
       <c r="C21" s="16"/>
       <c r="D21" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
@@ -1551,58 +1539,70 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="22"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:O22" si="1">AVERAGE(F14:F21)</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>2.75E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="10" t="s">
-        <v>20</v>
+      <c r="B23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H23" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
@@ -1627,47 +1627,59 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:O24" si="2">AVERAGE(F23:F23)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="10" t="s">
+      <c r="B25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="7"/>
@@ -1675,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
@@ -1703,70 +1715,58 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="6">
-        <f t="shared" ref="F26:O26" si="2">AVERAGE(F18:F25)</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="2"/>
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="2"/>
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="2"/>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>13</v>
-      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I27" s="9">
         <v>0</v>
@@ -1791,58 +1791,46 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="6">
-        <f t="shared" ref="F28:O28" si="3">AVERAGE(F27:F27)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" si="3"/>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="7" t="s">
         <v>26</v>
       </c>
@@ -1851,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
@@ -2107,64 +2095,76 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="7" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:O36" si="3">AVERAGE(F25:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9">
-        <v>0</v>
-      </c>
-      <c r="N36" s="9">
-        <v>0</v>
-      </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G37" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I37" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J37" s="9">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K37" s="9">
         <v>0</v>
@@ -2186,7 +2186,7 @@
       <c r="B38" s="13"/>
       <c r="C38" s="16"/>
       <c r="D38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="9">
@@ -2221,213 +2221,65 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="7"/>
+      <c r="F39" s="6">
+        <f t="shared" ref="F39:O39" si="4">AVERAGE(F37:F38)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6">
-        <f t="shared" ref="F40:O40" si="4">AVERAGE(F29:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" si="4"/>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="I40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="I41" s="9">
-        <v>0</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
-      <c r="O42" s="9">
-        <v>0</v>
-      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="7"/>
-      <c r="F43" s="6">
-        <f t="shared" ref="F43:O43" si="5">AVERAGE(F41:F42)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" si="5"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="5"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E44" s="8"/>
@@ -2441,57 +2293,41 @@
       <c r="E46" s="8"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E47" s="8"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E48" s="8"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="8"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="8"/>
-      <c r="F50" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C17"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="C18:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="C25:C36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B18:C18 E18 B19:E25 B41:B42">
+  <conditionalFormatting sqref="B14:C14 E14 B15:E21 B37:B38">
     <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:D35">
+  <conditionalFormatting sqref="B25:D31">
     <cfRule type="cellIs" dxfId="6" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:E27">
+  <conditionalFormatting sqref="B23:E23">
     <cfRule type="cellIs" dxfId="5" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:E42">
+  <conditionalFormatting sqref="C37:E38">
     <cfRule type="cellIs" dxfId="4" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D39">
+  <conditionalFormatting sqref="D32:D35">
     <cfRule type="cellIs" dxfId="3" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2501,7 +2337,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F39">
+  <conditionalFormatting sqref="F25:F35">
     <cfRule type="dataBar" priority="430">
       <dataBar>
         <cfvo type="min"/>
@@ -2515,7 +2351,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G39">
+  <conditionalFormatting sqref="G26:G35">
     <cfRule type="dataBar" priority="431">
       <dataBar>
         <cfvo type="min"/>
@@ -2529,7 +2365,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F42">
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="dataBar" priority="436">
       <dataBar>
         <cfvo type="min"/>
@@ -2543,7 +2379,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G42">
+  <conditionalFormatting sqref="G37:G38">
     <cfRule type="dataBar" priority="437">
       <dataBar>
         <cfvo type="min"/>
@@ -2557,7 +2393,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:O29 H30:O39">
+  <conditionalFormatting sqref="I25:O25 H26:O35">
     <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="min"/>
@@ -2571,7 +2407,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:O42">
+  <conditionalFormatting sqref="H37:O38">
     <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
@@ -2585,7 +2421,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:O27">
+  <conditionalFormatting sqref="I23:O23">
     <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
@@ -2599,7 +2435,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F23">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -2613,7 +2449,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G23">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -2627,7 +2463,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H23">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -2637,20 +2473,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G8 F9:O16">
-    <cfRule type="dataBar" priority="443">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2669,7 +2491,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G25">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2683,7 +2505,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H25">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -2707,35 +2529,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G16">
-    <cfRule type="dataBar" priority="394">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:O16">
-    <cfRule type="dataBar" priority="446">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19 F19 F20:G25">
+  <conditionalFormatting sqref="G14:G15 F15 F16:G21">
     <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="min"/>
@@ -2749,7 +2543,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:O25">
+  <conditionalFormatting sqref="H14:O21">
     <cfRule type="dataBar" priority="447">
       <dataBar>
         <cfvo type="min"/>
@@ -2763,7 +2557,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F14">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -2773,6 +2567,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G8 F9:O12">
+    <cfRule type="dataBar" priority="475">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G12">
+    <cfRule type="dataBar" priority="477">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:O12">
+    <cfRule type="dataBar" priority="478">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2791,7 +2627,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F29:F39</xm:sqref>
+          <xm:sqref>F25:F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}">
@@ -2802,7 +2638,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G30:G39</xm:sqref>
+          <xm:sqref>G26:G35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}">
@@ -2813,7 +2649,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F41:F42</xm:sqref>
+          <xm:sqref>F37:F38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}">
@@ -2824,7 +2660,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G41:G42</xm:sqref>
+          <xm:sqref>G37:G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B747175E-7253-7761-B747-175E72537761}">
@@ -2835,7 +2671,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I29:O29 H30:O39</xm:sqref>
+          <xm:sqref>I25:O25 H26:O35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}">
@@ -2846,7 +2682,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41:O42</xm:sqref>
+          <xm:sqref>H37:O38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}">
@@ -2857,7 +2693,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I27:O27</xm:sqref>
+          <xm:sqref>I23:O23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}">
@@ -2868,7 +2704,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F27</xm:sqref>
+          <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1757174E-6242-6671-1757-174E62426671}">
@@ -2879,7 +2715,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G27</xm:sqref>
+          <xm:sqref>G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
@@ -2890,18 +2726,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F6:G8 F9:O16</xm:sqref>
+          <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
@@ -2923,7 +2748,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G29</xm:sqref>
+          <xm:sqref>G25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
@@ -2934,7 +2759,51 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>H25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G14:G15 F15 F16:G21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H14:O21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F6:G8 F9:O12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
@@ -2945,7 +2814,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G10:G16</xm:sqref>
+          <xm:sqref>G10:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
@@ -2956,40 +2825,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10:O16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G18:G19 F19 F20:G25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H18:O25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F18</xm:sqref>
+          <xm:sqref>H10:O12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -850,11 +850,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16942857142857143</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10285714285714287</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
@@ -941,7 +941,7 @@
         <v>0.6</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>0.8</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0.8</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M10" s="9">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>0.8</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M11" s="9">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0.8</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
@@ -1190,43 +1190,43 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f>AVERAGE(F6:F12)</f>
+        <f t="shared" ref="F13:O13" si="1">AVERAGE(F6:F12)</f>
         <v>0.1142857142857143</v>
       </c>
       <c r="G13" s="6">
-        <f>AVERAGE(G6:G12)</f>
+        <f t="shared" si="1"/>
         <v>0.18571428571428572</v>
       </c>
       <c r="H13" s="6">
-        <f>AVERAGE(H6:H12)</f>
+        <f t="shared" si="1"/>
         <v>0.22857142857142859</v>
       </c>
       <c r="I13" s="6">
-        <f>AVERAGE(I6:I12)</f>
+        <f t="shared" si="1"/>
         <v>0.51428571428571423</v>
       </c>
       <c r="J13" s="6">
-        <f>AVERAGE(J6:J12)</f>
+        <f t="shared" si="1"/>
         <v>0.62857142857142845</v>
       </c>
       <c r="K13" s="6">
-        <f>AVERAGE(K6:K12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.65714285714285714</v>
       </c>
       <c r="L13" s="6">
-        <f>AVERAGE(L6:L12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.51428571428571435</v>
       </c>
       <c r="M13" s="6">
-        <f>AVERAGE(M6:M12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <f>AVERAGE(N6:N12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O13" s="6">
-        <f>AVERAGE(O6:O12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
         <v>0.2</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0.05</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -1544,43 +1544,43 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6">
-        <f t="shared" ref="F22:O22" si="1">AVERAGE(F14:F21)</f>
+        <f t="shared" ref="F22:O22" si="2">AVERAGE(F14:F21)</f>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.75E-2</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1632,43 +1632,43 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6">
-        <f t="shared" ref="F24:O24" si="2">AVERAGE(F23:F23)</f>
+        <f t="shared" ref="F24:O24" si="3">AVERAGE(F23:F23)</f>
         <v>0.1</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2100,43 +2100,43 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="6">
-        <f t="shared" ref="F36:O36" si="3">AVERAGE(F25:F35)</f>
+        <f t="shared" ref="F36:O36" si="4">AVERAGE(F25:F35)</f>
         <v>0</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         <v>0.08</v>
       </c>
       <c r="K37" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
@@ -2225,43 +2225,43 @@
       <c r="C39" s="17"/>
       <c r="D39" s="7"/>
       <c r="F39" s="6">
-        <f t="shared" ref="F39:O39" si="4">AVERAGE(F37:F38)</f>
+        <f t="shared" ref="F39:O39" si="5">AVERAGE(F37:F38)</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.09</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,7 +854,7 @@
       </c>
       <c r="L3" s="6">
         <f t="shared" si="0"/>
-        <v>0.10285714285714287</v>
+        <v>0.1</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" si="0"/>
@@ -1058,7 +1058,7 @@
         <v>0.8</v>
       </c>
       <c r="L9" s="9">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="1"/>
-        <v>0.51428571428571435</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="1"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>페이지</t>
   </si>
@@ -176,6 +176,9 @@
     <t>메인페이지
 회원가입
 로그인</t>
+  </si>
+  <si>
+    <t>로그인 / 소셜 로그인</t>
   </si>
 </sst>
 </file>
@@ -1328,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O50"/>
+  <dimension ref="B1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -1384,43 +1387,43 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F17,F26,F28,F40,F42)</f>
-        <v>0.0520454545454546</v>
+        <f>AVERAGE(F12,F21,F23,F35,F37)</f>
+        <v>0.0641666666666667</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G17,G26,G28,G40,G42)</f>
-        <v>0.0809545454545455</v>
+        <f>AVERAGE(G12,G21,G23,G35,G37)</f>
+        <v>0.0873181818181818</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H17,H26,H28,H40,H42)</f>
-        <v>0.101931818181818</v>
+        <f>AVERAGE(H12,H21,H23,H35,H37)</f>
+        <v>0.112840909090909</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I17,I26,I28,I40,I42)</f>
-        <v>0.131931818181818</v>
+        <f>AVERAGE(I12,I21,I23,I35,I37)</f>
+        <v>0.174356060606061</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J17,J26,J28,J40,J42)</f>
-        <v>0.198613636363636</v>
+        <f>AVERAGE(J12,J21,J23,J35,J37)</f>
+        <v>0.265280303030303</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K17,K26,K28,K40,K42)</f>
-        <v>0</v>
+        <f>AVERAGE(K12,K21,K23,K35,K37)</f>
+        <v>0.293636363636364</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L17,L26,L28,L40,L42)</f>
-        <v>0</v>
+        <f>AVERAGE(L12,L21,L23,L35,L37)</f>
+        <v>0.357083333333333</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M17,M26,M28,M40,M42)</f>
-        <v>0</v>
+        <f>AVERAGE(M12,M21,M23,M35,M37)</f>
+        <v>0.02625</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N17,N26,N28,N40,N42)</f>
+        <f>AVERAGE(N12,N21,N23,N35,N37)</f>
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O17,O26,O28,O40,O42)</f>
+        <f>AVERAGE(O12,O21,O23,O35,O37)</f>
         <v>0</v>
       </c>
     </row>
@@ -1496,10 +1499,10 @@
         <v>0.6</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M6" s="9">
         <v>0</v>
@@ -1534,10 +1537,10 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="9">
         <v>0</v>
@@ -1549,33 +1552,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="16.500000" customHeight="1">
+    <row r="8" spans="2:15" ht="16.150000" customHeight="1">
       <c r="B8" s="16"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
         <v>0</v>
       </c>
       <c r="G8" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M8" s="9">
         <v>0</v>
@@ -1587,11 +1590,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="16.150000" customHeight="1">
+    <row r="9" spans="2:15">
       <c r="B9" s="16"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9">
@@ -1610,10 +1613,10 @@
         <v>0.8</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -1629,7 +1632,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -1642,16 +1645,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9">
         <v>0.8</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M10" s="9">
         <v>0</v>
@@ -1667,7 +1670,7 @@
       <c r="B11" s="16"/>
       <c r="C11" s="11"/>
       <c r="D11" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
@@ -1686,10 +1689,10 @@
         <v>0.8</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M11" s="9">
         <v>0</v>
@@ -1702,73 +1705,85 @@
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="16"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="F12" s="6">
+        <f>AVERAGE(F6:F11)</f>
+        <v>0.133333333333333</v>
+      </c>
+      <c r="G12" s="6">
+        <f>AVERAGE(G6:G11)</f>
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="6">
+        <f>AVERAGE(H6:H11)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="6">
+        <f>AVERAGE(I6:I11)</f>
+        <v>0.466666666666667</v>
+      </c>
+      <c r="J12" s="6">
+        <f>AVERAGE(J6:J11)</f>
+        <v>0.733333333333333</v>
+      </c>
+      <c r="K12" s="6">
+        <f>AVERAGE(K6:K11)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L12" s="6">
+        <f>AVERAGE(L6:L11)</f>
+        <v>0.766666666666667</v>
+      </c>
+      <c r="M12" s="6">
+        <f>AVERAGE(M6:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f>AVERAGE(N6:N11)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <f>AVERAGE(O6:O11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="16"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
+      <c r="B13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M13" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N13" s="9">
         <v>0</v>
@@ -1778,17 +1793,17 @@
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="16"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
         <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -1797,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
@@ -1816,10 +1831,10 @@
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="16"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -1854,10 +1869,10 @@
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="16"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7" t="s">
-        <v>28</v>
+      <c r="B16" s="20"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -1876,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M16" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
@@ -1892,76 +1907,64 @@
       </c>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="6">
-        <f>AVERAGE(F6:F16)</f>
-        <v>0.0727272727272727</v>
-      </c>
-      <c r="G17" s="6">
-        <f>AVERAGE(G6:G16)</f>
-        <v>0.118181818181818</v>
-      </c>
-      <c r="H17" s="6">
-        <f>AVERAGE(H6:H16)</f>
-        <v>0.145454545454545</v>
-      </c>
-      <c r="I17" s="6">
-        <f>AVERAGE(I6:I16)</f>
-        <v>0.254545454545455</v>
-      </c>
-      <c r="J17" s="6">
-        <f>AVERAGE(J6:J16)</f>
-        <v>0.4</v>
-      </c>
-      <c r="K17" s="6">
-        <f>AVERAGE(K6:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <f>AVERAGE(L6:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <f>AVERAGE(M6:M16)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <f>AVERAGE(N6:N16)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <f>AVERAGE(O6:O16)</f>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>47</v>
+      <c r="B18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="9">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I18" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J18" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -1970,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="9">
         <v>0</v>
@@ -1982,15 +1985,15 @@
     <row r="19" spans="2:15">
       <c r="B19" s="20"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="7" t="s">
-        <v>20</v>
+      <c r="D19" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
         <v>0</v>
       </c>
       <c r="G19" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -1999,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
@@ -2020,8 +2023,8 @@
     <row r="20" spans="2:15">
       <c r="B20" s="20"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
+      <c r="D20" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -2056,70 +2059,82 @@
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
+      <c r="F21" s="6">
+        <f>AVERAGE(F13:F20)</f>
+        <v>0.0375</v>
+      </c>
+      <c r="G21" s="6">
+        <f>AVERAGE(G13:G20)</f>
+        <v>0.0275</v>
+      </c>
+      <c r="H21" s="6">
+        <f>AVERAGE(H13:H20)</f>
+        <v>0.01875</v>
+      </c>
+      <c r="I21" s="6">
+        <f>AVERAGE(I13:I20)</f>
+        <v>0.01875</v>
+      </c>
+      <c r="J21" s="6">
+        <f>AVERAGE(J13:J20)</f>
+        <v>0.03125</v>
+      </c>
+      <c r="K21" s="6">
+        <f>AVERAGE(K13:K20)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="6">
+        <f>AVERAGE(L13:L20)</f>
+        <v>0.11875</v>
+      </c>
+      <c r="M21" s="6">
+        <f>AVERAGE(M13:M20)</f>
+        <v>0.13125</v>
+      </c>
+      <c r="N21" s="6">
+        <f>AVERAGE(N13:N20)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <f>AVERAGE(O13:O20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="20"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I22" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J22" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M22" s="9">
         <v>0</v>
@@ -2132,70 +2147,82 @@
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="20"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="9">
-        <v>0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
+      <c r="F23" s="6">
+        <f>AVERAGE(F22:F22)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="6">
+        <f>AVERAGE(G22:G22)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="6">
+        <f>AVERAGE(H22:H22)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="6">
+        <f>AVERAGE(I22:I22)</f>
+        <v>0.3</v>
+      </c>
+      <c r="J23" s="6">
+        <f>AVERAGE(J22:J22)</f>
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="6">
+        <f>AVERAGE(K22:K22)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="6">
+        <f>AVERAGE(L22:L22)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M23" s="6">
+        <f>AVERAGE(M22:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <f>AVERAGE(N22:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <f>AVERAGE(O22:O22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="20"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="10" t="s">
-        <v>25</v>
+      <c r="B24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
         <v>0</v>
       </c>
       <c r="G24" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H24" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J24" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K24" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M24" s="9">
         <v>0</v>
@@ -2208,10 +2235,10 @@
       </c>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="20"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="10" t="s">
-        <v>26</v>
+      <c r="D25" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -2224,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J25" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K25" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L25" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M25" s="9">
         <v>0</v>
@@ -2246,83 +2273,71 @@
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="21"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="6">
-        <f>AVERAGE(F18:F25)</f>
-        <v>0.0375</v>
-      </c>
-      <c r="G26" s="6">
-        <f>AVERAGE(G18:G25)</f>
-        <v>0.0275</v>
-      </c>
-      <c r="H26" s="6">
-        <f>AVERAGE(H18:H25)</f>
-        <v>0.01875</v>
-      </c>
-      <c r="I26" s="6">
-        <f>AVERAGE(I18:I25)</f>
-        <v>0.01875</v>
-      </c>
-      <c r="J26" s="6">
-        <f>AVERAGE(J18:J25)</f>
-        <v>0.03125</v>
-      </c>
-      <c r="K26" s="6">
-        <f>AVERAGE(K18:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <f>AVERAGE(L18:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <f>AVERAGE(M18:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <f>AVERAGE(N18:N25)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <f>AVERAGE(O18:O25)</f>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
         <v>0.1</v>
       </c>
-      <c r="G27" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
       <c r="M27" s="9">
         <v>0</v>
       </c>
@@ -2334,82 +2349,70 @@
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="13"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="6">
-        <f>AVERAGE(F27:F27)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="6">
-        <f>AVERAGE(G27:G27)</f>
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="6">
-        <f>AVERAGE(H27:H27)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I28" s="6">
-        <f>AVERAGE(I27:I27)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J28" s="6">
-        <f>AVERAGE(J27:J27)</f>
-        <v>0.4</v>
-      </c>
-      <c r="K28" s="6">
-        <f>AVERAGE(K27:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
-        <f>AVERAGE(L27:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <f>AVERAGE(M27:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <f>AVERAGE(N27:N27)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <f>AVERAGE(O27:O27)</f>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
         <v>0</v>
       </c>
       <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
         <v>0.1</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
       </c>
       <c r="M29" s="9">
         <v>0</v>
@@ -2425,7 +2428,7 @@
       <c r="B30" s="16"/>
       <c r="C30" s="18"/>
       <c r="D30" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -2438,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K30" s="9">
         <v>0</v>
@@ -2463,7 +2466,7 @@
       <c r="B31" s="16"/>
       <c r="C31" s="18"/>
       <c r="D31" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -2501,7 +2504,7 @@
       <c r="B32" s="16"/>
       <c r="C32" s="18"/>
       <c r="D32" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -2523,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M32" s="9">
         <v>0</v>
@@ -2539,7 +2542,7 @@
       <c r="B33" s="16"/>
       <c r="C33" s="18"/>
       <c r="D33" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -2577,7 +2580,7 @@
       <c r="B34" s="16"/>
       <c r="C34" s="18"/>
       <c r="D34" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -2612,64 +2615,76 @@
       </c>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="16"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
+      <c r="F35" s="6">
+        <f>AVERAGE(F24:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <f>AVERAGE(G24:G34)</f>
+        <v>0.00909090909090909</v>
+      </c>
+      <c r="H35" s="6">
+        <f>AVERAGE(H24:H34)</f>
+        <v>0.0454545454545455</v>
+      </c>
+      <c r="I35" s="6">
+        <f>AVERAGE(I24:I34)</f>
+        <v>0.0363636363636364</v>
+      </c>
+      <c r="J35" s="6">
+        <f>AVERAGE(J24:J34)</f>
+        <v>0.0818181818181818</v>
+      </c>
+      <c r="K35" s="6">
+        <f>AVERAGE(K24:K34)</f>
+        <v>0.118181818181818</v>
+      </c>
+      <c r="L35" s="6">
+        <f>AVERAGE(L24:L34)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M35" s="6">
+        <f>AVERAGE(M24:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <f>AVERAGE(N24:N34)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <f>AVERAGE(O24:O34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="16"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="D36" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G36" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H36" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I36" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J36" s="9">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K36" s="9">
         <v>0</v>
@@ -2688,341 +2703,187 @@
       </c>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="16"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9">
-        <v>0</v>
-      </c>
-      <c r="O37" s="9">
+      <c r="B37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7"/>
+      <c r="F37" s="6">
+        <f>AVERAGE(F36:F36)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G37" s="6">
+        <f>AVERAGE(G36:G36)</f>
+        <v>0.05</v>
+      </c>
+      <c r="H37" s="6">
+        <f>AVERAGE(H36:H36)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I37" s="6">
+        <f>AVERAGE(I36:I36)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J37" s="6">
+        <f>AVERAGE(J36:J36)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K37" s="6">
+        <f>AVERAGE(K36:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <f>AVERAGE(L36:L36)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <f>AVERAGE(M36:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <f>AVERAGE(N36:N36)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <f>AVERAGE(O36:O36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="16"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="16"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="13"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6">
-        <f>AVERAGE(F29:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <f>AVERAGE(G29:G39)</f>
-        <v>0.00909090909090909</v>
-      </c>
-      <c r="H40" s="6">
-        <f>AVERAGE(H29:H39)</f>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="I40" s="6">
-        <f>AVERAGE(I29:I39)</f>
-        <v>0.0363636363636364</v>
-      </c>
-      <c r="J40" s="6">
-        <f>AVERAGE(J29:J39)</f>
-        <v>0.0818181818181818</v>
-      </c>
-      <c r="K40" s="6">
-        <f>AVERAGE(K29:K39)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <f>AVERAGE(L29:L39)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <f>AVERAGE(M29:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <f>AVERAGE(N29:N39)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <f>AVERAGE(O29:O39)</f>
-        <v>0</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="I41" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.08</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="7"/>
-      <c r="F42" s="6">
-        <f>AVERAGE(F41:F41)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G42" s="6">
-        <f>AVERAGE(G41:G41)</f>
-        <v>0.05</v>
-      </c>
-      <c r="H42" s="6">
-        <f>AVERAGE(H41:H41)</f>
-        <v>0.05</v>
-      </c>
-      <c r="I42" s="6">
-        <f>AVERAGE(I41:I41)</f>
-        <v>0.05</v>
-      </c>
-      <c r="J42" s="6">
-        <f>AVERAGE(J41:J41)</f>
-        <v>0.08</v>
-      </c>
-      <c r="K42" s="6">
-        <f>AVERAGE(K41:K41)</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <f>AVERAGE(L41:L41)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <f>AVERAGE(M41:M41)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <f>AVERAGE(N41:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <f>AVERAGE(O41:O41)</f>
-        <v>0</v>
-      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
     </row>
     <row r="44" spans="2:15">
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="E45" s="8"/>
-      <c r="F45" s="4"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="E46" s="8"/>
-      <c r="F46" s="4"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="E47" s="8"/>
-      <c r="F47" s="4"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:15">
-      <c r="E48" s="8"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="8"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="1"/>
-      <c r="F50" s="8"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C6:C17"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="C18:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B40"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B18:C18 E18 B19:E25 B41">
+  <conditionalFormatting sqref="B13:C13 E13 B14:E20 B36">
     <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:D35">
+  <conditionalFormatting sqref="B24:D30">
     <cfRule type="cellIs" dxfId="5" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:E27">
+  <conditionalFormatting sqref="B22:E22">
     <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:E41">
+  <conditionalFormatting sqref="C36:E36">
     <cfRule type="cellIs" dxfId="3" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D39">
+  <conditionalFormatting sqref="D31:D34">
     <cfRule type="cellIs" dxfId="1" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E8">
+  <conditionalFormatting sqref="E6:E7">
     <cfRule type="cellIs" dxfId="0" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F39">
+  <conditionalFormatting sqref="F24:F34">
     <cfRule type="dataBar" priority="430">
       <dataBar>
         <cfvo type="min"/>
@@ -3031,12 +2892,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41715118-3424-3627-4171-511834243627}</x14:id>
+          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G39">
+  <conditionalFormatting sqref="G25:G34">
     <cfRule type="dataBar" priority="431">
       <dataBar>
         <cfvo type="min"/>
@@ -3045,12 +2906,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}</x14:id>
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F36">
     <cfRule type="dataBar" priority="436">
       <dataBar>
         <cfvo type="min"/>
@@ -3059,12 +2920,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}</x14:id>
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G36">
     <cfRule type="dataBar" priority="437">
       <dataBar>
         <cfvo type="min"/>
@@ -3073,12 +2934,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98d888c1-eddc-effe-98d8-88c1eddceffe}</x14:id>
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:O29 H30:O39">
+  <conditionalFormatting sqref="I24:O24 H25:O34">
     <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="min"/>
@@ -3087,12 +2948,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}</x14:id>
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:O41">
+  <conditionalFormatting sqref="H36:O36">
     <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
@@ -3101,12 +2962,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}</x14:id>
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:O27">
+  <conditionalFormatting sqref="I22:O22">
     <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
@@ -3115,12 +2976,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1454044d-6157-6372-1454-044d61576372}</x14:id>
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F22">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -3129,12 +2990,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}</x14:id>
+          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G22">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -3143,12 +3004,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}</x14:id>
+          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H22">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3157,12 +3018,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}</x14:id>
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G8 F9:O16">
+  <conditionalFormatting sqref="F6:G7 F8:O11">
     <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="min"/>
@@ -3171,12 +3032,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a444145d-7141-7362-a444-145d71417362}</x14:id>
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:O8">
+  <conditionalFormatting sqref="H6:O7">
     <cfRule type="dataBar" priority="444">
       <dataBar>
         <cfvo type="min"/>
@@ -3185,12 +3046,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8f8a8e1-cdfe-cfde-b8f8-a8e1cdfecfde}</x14:id>
+          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G24">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3199,12 +3060,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c7c2c65-497a-4b5a-3c7c-2c65497a4b5a}</x14:id>
+          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="H24">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3213,22 +3074,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5414449d-2117-2332-5414-449d21172332}</x14:id>
+          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:C11 E10:E11">
+  <conditionalFormatting sqref="B9:C10 E9:E10">
     <cfRule type="cellIs" dxfId="6" priority="181" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D12">
+  <conditionalFormatting sqref="D8:D11">
     <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G16">
+  <conditionalFormatting sqref="G9:G11">
     <cfRule type="dataBar" priority="394">
       <dataBar>
         <cfvo type="min"/>
@@ -3237,12 +3098,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d292c289-a594-a7b6-d292-c289a594a7b6}</x14:id>
+          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:O16">
+  <conditionalFormatting sqref="H9:O11">
     <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
@@ -3251,12 +3112,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c1c4c05-2918-2b3a-5c1c-4c0529182b3a}</x14:id>
+          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19 F19 F20:G25">
+  <conditionalFormatting sqref="G13:G14 F14 F15:G20">
     <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="min"/>
@@ -3265,12 +3126,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d898c881-ad9c-afbe-d898-c881ad9cafbe}</x14:id>
+          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:O25">
+  <conditionalFormatting sqref="H13:O20">
     <cfRule type="dataBar" priority="447">
       <dataBar>
         <cfvo type="min"/>
@@ -3279,12 +3140,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4434541d-31e1-3322-4434-541d31e13322}</x14:id>
+          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F13">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -3293,7 +3154,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c383d399-b585-b7a6-c383-d399b585b7a6}</x14:id>
+          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3305,7 +3166,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{41715118-3424-3627-4171-511834243627}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3315,7 +3176,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3325,7 +3186,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3335,7 +3196,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98d888c1-eddc-effe-98d8-88c1eddceffe}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3345,7 +3206,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3355,7 +3216,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3365,7 +3226,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1454044d-6157-6372-1454-044d61576372}">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3375,7 +3236,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}">
+          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3385,7 +3246,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}">
+          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3395,7 +3256,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3405,7 +3266,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a444145d-7141-7362-a444-145d71417362}">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3415,7 +3276,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b8f8a8e1-cdfe-cfde-b8f8-a8e1cdfecfde}">
+          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3425,7 +3286,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c7c2c65-497a-4b5a-3c7c-2c65497a4b5a}">
+          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3435,7 +3296,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5414449d-2117-2332-5414-449d21172332}">
+          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3445,7 +3306,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d292c289-a594-a7b6-d292-c289a594a7b6}">
+          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3455,7 +3316,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5c1c4c05-2918-2b3a-5c1c-4c0529182b3a}">
+          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3465,7 +3326,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d898c881-ad9c-afbe-d898-c881ad9cafbe}">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3475,7 +3336,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4434541d-31e1-3322-4434-541d31e13322}">
+          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3485,7 +3346,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c383d399-b585-b7a6-c383-d399b585b7a6}">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\parkingmate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>페이지</t>
   </si>
@@ -39,30 +36,15 @@
     <t>마이페이지</t>
   </si>
   <si>
-    <t>메인페이지</t>
-  </si>
-  <si>
     <t>아이디찾기</t>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>아이디확인</t>
-  </si>
-  <si>
     <t>비밀번호찾기</t>
   </si>
   <si>
-    <t>비밀번호재설정</t>
-  </si>
-  <si>
     <t>박민수</t>
   </si>
   <si>
-    <t>고재찬</t>
-  </si>
-  <si>
     <t>민병욱</t>
   </si>
   <si>
@@ -70,10 +52,6 @@
   </si>
   <si>
     <t>신지원</t>
-  </si>
-  <si>
-    <t>회원가입
-로그인</t>
   </si>
   <si>
     <t>주차 업로드</t>
@@ -104,15 +82,6 @@
     <t>업로드한 주차장 확인</t>
   </si>
   <si>
-    <t>쿠폰함</t>
-  </si>
-  <si>
-    <t>인증페이지</t>
-  </si>
-  <si>
-    <t>소셜 로그인</t>
-  </si>
-  <si>
     <t>주차업로드</t>
   </si>
   <si>
@@ -152,9 +121,6 @@
     <t>이벤트 페이지</t>
   </si>
   <si>
-    <t>상세보기/쿠폰</t>
-  </si>
-  <si>
     <t>김홍준</t>
   </si>
   <si>
@@ -162,9 +128,6 @@
   </si>
   <si>
     <t>카카오맵 지도 연동</t>
-  </si>
-  <si>
-    <t>로그인 후 메인페이지</t>
   </si>
   <si>
     <t>마이페이지 메인</t>
@@ -179,167 +142,86 @@
   </si>
   <si>
     <t>로그인 / 소셜 로그인</t>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -365,187 +247,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -560,6 +269,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -572,6 +282,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -582,6 +293,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -594,392 +306,111 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="10" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="9" builtinId="10"/>
+  <cellStyles count="6">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
-    <cellStyle name="입력" xfId="16" builtinId="20"/>
-    <cellStyle name="제목" xfId="11" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="7" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -996,7 +427,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
@@ -1007,6 +438,16 @@
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
       </font>
       <fill>
         <patternFill>
@@ -1054,17 +495,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1330,26 +770,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="12.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="4" style="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="9.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="14" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" style="4" width="11.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
+    <col min="7" max="14" width="10.625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -1382,57 +823,57 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F12,F21,F23,F35,F37)</f>
-        <v>0.0641666666666667</v>
+        <f>AVERAGE(F13,F21,F23,F35,F37)</f>
+        <v>6.1428571428571423E-2</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G12,G21,G23,G35,G37)</f>
-        <v>0.0873181818181818</v>
+        <f>AVERAGE(G13,G21,G23,G35,G37)</f>
+        <v>8.3818181818181819E-2</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H12,H21,H23,H35,H37)</f>
-        <v>0.112840909090909</v>
+        <f>AVERAGE(H13,H21,H23,H35,H37)</f>
+        <v>0.10766233766233765</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I12,I21,I23,I35,I37)</f>
-        <v>0.174356060606061</v>
+        <f>AVERAGE(I13,I21,I23,I35,I37)</f>
+        <v>0.16155844155844154</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J12,J21,J23,J35,J37)</f>
-        <v>0.265280303030303</v>
+        <f>AVERAGE(J13,J21,J23,J35,J37)</f>
+        <v>0.24522077922077917</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K12,K21,K23,K35,K37)</f>
-        <v>0.293636363636364</v>
+        <f>AVERAGE(K13,K21,K23,K35,K37)</f>
+        <v>0.27506493506493507</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L12,L21,L23,L35,L37)</f>
-        <v>0.357083333333333</v>
+        <f>AVERAGE(L13,L21,L23,L35,L37)</f>
+        <v>0.33857142857142858</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M12,M21,M23,M35,M37)</f>
-        <v>0.02625</v>
+        <f>AVERAGE(M13,M21,M23,M35,M37)</f>
+        <v>0.17571428571428571</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N12,N21,N23,N35,N37)</f>
-        <v>0</v>
+        <f>AVERAGE(N13,N21,N23,N35,N37)</f>
+        <v>0.15142857142857141</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O12,O21,O23,O35,O37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <f>AVERAGE(O13,O21,O23,O35,O37)</f>
+        <v>0.1657142857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H4" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="20.100000" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1472,15 +913,15 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="16.500000" customHeight="1">
-      <c r="B6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>49</v>
+    <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9">
@@ -1505,20 +946,20 @@
         <v>0.8</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="16.500000" customHeight="1">
-      <c r="B7" s="16"/>
-      <c r="C7" s="11"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="9">
@@ -1543,20 +984,20 @@
         <v>0.6</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="16.150000" customHeight="1">
-      <c r="B8" s="16"/>
-      <c r="C8" s="11"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9">
@@ -1581,18 +1022,18 @@
         <v>0.8</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="16"/>
-      <c r="C9" s="11"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1619,20 +1060,20 @@
         <v>0.8</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N9" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="16"/>
-      <c r="C10" s="11"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -1657,20 +1098,20 @@
         <v>0.8</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="16"/>
-      <c r="C11" s="11"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
@@ -1695,133 +1136,135 @@
         <v>0.8</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N11" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="13"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="7"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="6">
-        <f>AVERAGE(F6:F11)</f>
-        <v>0.133333333333333</v>
-      </c>
-      <c r="G12" s="6">
-        <f>AVERAGE(G6:G11)</f>
-        <v>0.15</v>
-      </c>
-      <c r="H12" s="6">
-        <f>AVERAGE(H6:H11)</f>
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="6">
-        <f>AVERAGE(I6:I11)</f>
-        <v>0.466666666666667</v>
-      </c>
-      <c r="J12" s="6">
-        <f>AVERAGE(J6:J11)</f>
-        <v>0.733333333333333</v>
-      </c>
-      <c r="K12" s="6">
-        <f>AVERAGE(K6:K11)</f>
-        <v>0.75</v>
-      </c>
-      <c r="L12" s="6">
-        <f>AVERAGE(L6:L11)</f>
-        <v>0.766666666666667</v>
-      </c>
-      <c r="M12" s="6">
-        <f>AVERAGE(M6:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <f>AVERAGE(N6:N11)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <f>AVERAGE(O6:O11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6">
+        <f>AVERAGE(F6:F12)</f>
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13:O13" si="0">AVERAGE(G6:G12)</f>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.62857142857142845</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64285714285714268</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72857142857142854</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75714285714285712</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.82857142857142851</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G14" s="9">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J14" s="9">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L14" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M14" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
@@ -1830,18 +1273,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
         <v>0</v>
       </c>
       <c r="G15" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
@@ -1850,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L15" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M15" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N15" s="9">
         <v>0</v>
@@ -1868,11 +1311,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
+      <c r="C16" s="23"/>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9">
@@ -1891,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L16" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N16" s="9">
         <v>0</v>
@@ -1906,11 +1349,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="7" t="s">
-        <v>23</v>
+      <c r="C17" s="23"/>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
@@ -1929,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L17" s="9">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M17" s="9">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N17" s="9">
         <v>0</v>
@@ -1944,11 +1387,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="20"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="10" t="s">
-        <v>24</v>
+      <c r="C18" s="23"/>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -1970,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="M18" s="9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N18" s="9">
         <v>0</v>
@@ -1982,11 +1425,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -2011,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N19" s="9">
         <v>0</v>
@@ -2020,11 +1463,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -2058,61 +1501,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f>AVERAGE(F13:F20)</f>
-        <v>0.0375</v>
+        <f>AVERAGE(F14:F20)</f>
+        <v>4.2857142857142858E-2</v>
       </c>
       <c r="G21" s="6">
-        <f>AVERAGE(G13:G20)</f>
-        <v>0.0275</v>
+        <f>AVERAGE(G14:G20)</f>
+        <v>3.1428571428571431E-2</v>
       </c>
       <c r="H21" s="6">
-        <f>AVERAGE(H13:H20)</f>
-        <v>0.01875</v>
+        <f>AVERAGE(H14:H20)</f>
+        <v>2.1428571428571429E-2</v>
       </c>
       <c r="I21" s="6">
-        <f>AVERAGE(I13:I20)</f>
-        <v>0.01875</v>
+        <f>AVERAGE(I14:I20)</f>
+        <v>2.1428571428571429E-2</v>
       </c>
       <c r="J21" s="6">
-        <f>AVERAGE(J13:J20)</f>
-        <v>0.03125</v>
+        <f>AVERAGE(J14:J20)</f>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="K21" s="6">
-        <f>AVERAGE(K13:K20)</f>
-        <v>0.1</v>
+        <f>AVERAGE(K14:K20)</f>
+        <v>0.1142857142857143</v>
       </c>
       <c r="L21" s="6">
-        <f>AVERAGE(L13:L20)</f>
-        <v>0.11875</v>
+        <f>AVERAGE(L14:L20)</f>
+        <v>0.13571428571428573</v>
       </c>
       <c r="M21" s="6">
-        <f>AVERAGE(M13:M20)</f>
-        <v>0.13125</v>
+        <f>AVERAGE(M14:M20)</f>
+        <v>0.15</v>
       </c>
       <c r="N21" s="6">
-        <f>AVERAGE(N13:N20)</f>
+        <f>AVERAGE(N14:N20)</f>
         <v>0</v>
       </c>
       <c r="O21" s="6">
-        <f>AVERAGE(O13:O20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>17</v>
+        <f>AVERAGE(O14:O20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
@@ -2146,61 +1589,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="15"/>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f>AVERAGE(F22:F22)</f>
+        <f t="shared" ref="F23:O23" si="1">AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f>AVERAGE(G22:G22)</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f>AVERAGE(H22:H22)</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f>AVERAGE(I22:I22)</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f>AVERAGE(J22:J22)</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f>AVERAGE(K22:K22)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f>AVERAGE(L22:L22)</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f>AVERAGE(M22:M22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <f>AVERAGE(N22:N22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O23" s="6">
-        <f>AVERAGE(O22:O22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9">
@@ -2234,11 +1677,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
@@ -2272,11 +1715,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -2310,11 +1753,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="16"/>
-      <c r="C27" s="18"/>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
@@ -2348,11 +1791,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9">
@@ -2386,11 +1829,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="16"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
@@ -2424,11 +1867,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -2462,11 +1905,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="16"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -2500,11 +1943,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -2538,11 +1981,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="16"/>
-      <c r="C33" s="18"/>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -2576,11 +2019,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="16"/>
-      <c r="C34" s="18"/>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9">
@@ -2614,61 +2057,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6">
-        <f>AVERAGE(F24:F34)</f>
+        <f t="shared" ref="F35:O35" si="2">AVERAGE(F24:F34)</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f>AVERAGE(G24:G34)</f>
-        <v>0.00909090909090909</v>
+        <f t="shared" si="2"/>
+        <v>9.0909090909090922E-3</v>
       </c>
       <c r="H35" s="6">
-        <f>AVERAGE(H24:H34)</f>
-        <v>0.0454545454545455</v>
+        <f t="shared" si="2"/>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="I35" s="6">
-        <f>AVERAGE(I24:I34)</f>
-        <v>0.0363636363636364</v>
+        <f t="shared" si="2"/>
+        <v>3.6363636363636369E-2</v>
       </c>
       <c r="J35" s="6">
-        <f>AVERAGE(J24:J34)</f>
-        <v>0.0818181818181818</v>
+        <f t="shared" si="2"/>
+        <v>8.1818181818181804E-2</v>
       </c>
       <c r="K35" s="6">
-        <f>AVERAGE(K24:K34)</f>
-        <v>0.118181818181818</v>
+        <f t="shared" si="2"/>
+        <v>0.11818181818181818</v>
       </c>
       <c r="L35" s="6">
-        <f>AVERAGE(L24:L34)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="M35" s="6">
-        <f>AVERAGE(M24:M34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N35" s="6">
-        <f>AVERAGE(N24:N34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O35" s="6">
-        <f>AVERAGE(O24:O34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9">
@@ -2702,184 +2145,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="13"/>
-      <c r="C37" s="15"/>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="7"/>
       <c r="F37" s="6">
-        <f>AVERAGE(F36:F36)</f>
+        <f t="shared" ref="F37:O37" si="3">AVERAGE(F36:F36)</f>
         <v>0.05</v>
       </c>
       <c r="G37" s="6">
-        <f>AVERAGE(G36:G36)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="H37" s="6">
-        <f>AVERAGE(H36:H36)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="I37" s="6">
-        <f>AVERAGE(I36:I36)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="J37" s="6">
-        <f>AVERAGE(J36:J36)</f>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
       <c r="K37" s="6">
-        <f>AVERAGE(K36:K36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L37" s="6">
-        <f>AVERAGE(L36:L36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M37" s="6">
-        <f>AVERAGE(M36:M36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N37" s="6">
-        <f>AVERAGE(N36:N36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O37" s="6">
-        <f>AVERAGE(O36:O36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="2:15">
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="2:15">
-      <c r="E45" s="1"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="E46" s="1"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="E47" s="1"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="E48" s="1"/>
-      <c r="F48" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B35"/>
     <mergeCell ref="C24:C35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B13:C13 E13 B14:E20 B36">
+  <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
     <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D30">
-    <cfRule type="cellIs" dxfId="5" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:E22">
-    <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="3" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="129" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D34">
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="0" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2892,7 +2271,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+          <x14:id>{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2906,7 +2285,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+          <x14:id>{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2920,7 +2299,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+          <x14:id>{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2934,7 +2313,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+          <x14:id>{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2948,7 +2327,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+          <x14:id>{B747175E-7253-7761-B747-175E72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2962,7 +2341,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+          <x14:id>{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2976,7 +2355,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+          <x14:id>{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2990,7 +2369,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3004,7 +2383,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{1757174E-6242-6671-1757-174E62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3018,12 +2397,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 F8:O11">
+  <conditionalFormatting sqref="F6:G7 F8:O12">
     <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="min"/>
@@ -3032,7 +2411,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3046,7 +2425,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+          <x14:id>{4727571E-3213-3B21-4727-571E32133B21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3060,7 +2439,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
+          <x14:id>{C383D39A-B697-B4A5-C383-D39AB697B4A5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3074,22 +2453,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
+          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C10 E9:E10">
-    <cfRule type="cellIs" dxfId="6" priority="181" operator="equal">
+  <conditionalFormatting sqref="B9:B10 E9:E10">
+    <cfRule type="cellIs" dxfId="1" priority="181" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D11">
-    <cfRule type="cellIs" dxfId="2" priority="99" operator="equal">
+  <conditionalFormatting sqref="D8:D12">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G11">
+  <conditionalFormatting sqref="G9:G12">
     <cfRule type="dataBar" priority="394">
       <dataBar>
         <cfvo type="min"/>
@@ -3098,12 +2477,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:O11">
+  <conditionalFormatting sqref="H9:O12">
     <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
@@ -3112,40 +2491,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G14 F14 F15:G20">
-    <cfRule type="dataBar" priority="427">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:O20">
-    <cfRule type="dataBar" priority="447">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="F14">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -3154,206 +2505,252 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <conditionalFormatting sqref="G14:G15 F15 F16:G20">
+    <cfRule type="dataBar" priority="454">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:O20">
+    <cfRule type="dataBar" priority="457">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F24:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G25:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{B747175E-7253-7761-B747-175E72537761}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>I24:O24 H25:O34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H36:O36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>I22:O22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{1757174E-6242-6671-1757-174E62426671}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F6:G7 F8:O12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H6:O7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{C383D39A-B697-B4A5-C383-D39AB697B4A5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H9:O12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G14:G15 F15 F16:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H14:O20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -382,6 +382,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,15 +403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,7 +774,7 @@
   <dimension ref="B2:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,44 +828,44 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F13,F21,F23,F35,F37)</f>
+        <f t="shared" ref="F3:O3" si="0">AVERAGE(F13,F21,F23,F35,F37)</f>
         <v>6.1428571428571423E-2</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G13,G21,G23,G35,G37)</f>
+        <f t="shared" si="0"/>
         <v>8.3818181818181819E-2</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H13,H21,H23,H35,H37)</f>
+        <f t="shared" si="0"/>
         <v>0.10766233766233765</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I13,I21,I23,I35,I37)</f>
+        <f t="shared" si="0"/>
         <v>0.16155844155844154</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J13,J21,J23,J35,J37)</f>
+        <f t="shared" si="0"/>
         <v>0.24522077922077917</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K13,K21,K23,K35,K37)</f>
-        <v>0.27506493506493507</v>
+        <f t="shared" si="0"/>
+        <v>0.31106493506493504</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L13,L21,L23,L35,L37)</f>
-        <v>0.33857142857142858</v>
+        <f t="shared" si="0"/>
+        <v>0.37275324675324673</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M13,M21,M23,M35,M37)</f>
-        <v>0.17571428571428571</v>
+        <f t="shared" si="0"/>
+        <v>0.26625974025974025</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N13,N21,N23,N35,N37)</f>
-        <v>0.15142857142857141</v>
+        <f t="shared" si="0"/>
+        <v>0.29176623376623378</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O13,O21,O23,O35,O37)</f>
-        <v>0.1657142857142857</v>
+        <f t="shared" si="0"/>
+        <v>0.34436363636363632</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
     </row>
     <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
@@ -995,7 +995,7 @@
     </row>
     <row r="8" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="C11" s="18"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1195,47 +1195,47 @@
         <v>0.1142857142857143</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" ref="G13:O13" si="0">AVERAGE(G6:G12)</f>
+        <f t="shared" ref="G13:O13" si="1">AVERAGE(G6:G12)</f>
         <v>0.12857142857142859</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62857142857142845</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64285714285714268</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72857142857142854</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75714285714285712</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82857142857142851</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1274,8 +1274,8 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1305,15 +1305,15 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O15" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1350,8 +1350,8 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1381,15 +1381,15 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O17" s="9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1419,15 +1419,15 @@
         <v>0.15</v>
       </c>
       <c r="N18" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O18" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1457,15 +1457,15 @@
         <v>0.1</v>
       </c>
       <c r="N19" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O19" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="10" t="s">
         <v>19</v>
       </c>
@@ -1495,63 +1495,63 @@
         <v>0</v>
       </c>
       <c r="N20" s="9">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="O20" s="9">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f>AVERAGE(F14:F20)</f>
+        <f t="shared" ref="F21:O21" si="2">AVERAGE(F14:F20)</f>
         <v>4.2857142857142858E-2</v>
       </c>
       <c r="G21" s="6">
-        <f>AVERAGE(G14:G20)</f>
+        <f t="shared" si="2"/>
         <v>3.1428571428571431E-2</v>
       </c>
       <c r="H21" s="6">
-        <f>AVERAGE(H14:H20)</f>
+        <f t="shared" si="2"/>
         <v>2.1428571428571429E-2</v>
       </c>
       <c r="I21" s="6">
-        <f>AVERAGE(I14:I20)</f>
+        <f t="shared" si="2"/>
         <v>2.1428571428571429E-2</v>
       </c>
       <c r="J21" s="6">
-        <f>AVERAGE(J14:J20)</f>
+        <f t="shared" si="2"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="K21" s="6">
-        <f>AVERAGE(K14:K20)</f>
+        <f t="shared" si="2"/>
         <v>0.1142857142857143</v>
       </c>
       <c r="L21" s="6">
-        <f>AVERAGE(L14:L20)</f>
+        <f t="shared" si="2"/>
         <v>0.13571428571428573</v>
       </c>
       <c r="M21" s="6">
-        <f>AVERAGE(M14:M20)</f>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="N21" s="6">
-        <f>AVERAGE(N14:N20)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.16714285714285712</v>
       </c>
       <c r="O21" s="6">
-        <f>AVERAGE(O14:O20)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.142857142857143E-2</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1591,47 +1591,47 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
-      <c r="C23" s="24"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f t="shared" ref="F23:O23" si="1">AVERAGE(F22:F22)</f>
+        <f t="shared" ref="F23:O23" si="3">AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1668,18 +1668,18 @@
         <v>0.9</v>
       </c>
       <c r="M24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N24" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O24" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1706,18 +1706,18 @@
         <v>0.7</v>
       </c>
       <c r="M25" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N25" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O25" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
@@ -1744,18 +1744,18 @@
         <v>0.3</v>
       </c>
       <c r="M26" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N26" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O26" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
-      <c r="C27" s="23"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7" t="s">
         <v>24</v>
       </c>
@@ -1782,18 +1782,18 @@
         <v>0.1</v>
       </c>
       <c r="M27" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N27" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O27" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
-      <c r="C28" s="23"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
         <v>25</v>
       </c>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
         <v>26</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="9">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="7" t="s">
         <v>27</v>
       </c>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
-      <c r="C31" s="23"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>28</v>
       </c>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
-      <c r="C32" s="23"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
@@ -1972,18 +1972,18 @@
         <v>0.1</v>
       </c>
       <c r="M32" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N32" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O32" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
-      <c r="C33" s="23"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>31</v>
       </c>
@@ -2059,55 +2059,55 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6">
-        <f t="shared" ref="F35:O35" si="2">AVERAGE(F24:F34)</f>
+        <f t="shared" ref="F35:O35" si="4">AVERAGE(F24:F34)</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090922E-3</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6363636363636369E-2</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1818181818181804E-2</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11818181818181818</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>0.19090909090909092</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.35454545454545455</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.43181818181818182</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -2130,64 +2130,64 @@
         <v>0.08</v>
       </c>
       <c r="K36" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M36" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="N36" s="9">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="O36" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="7"/>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:O37" si="3">AVERAGE(F36:F36)</f>
+        <f t="shared" ref="F37:O37" si="5">AVERAGE(F36:F36)</f>
         <v>0.05</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.18</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.18</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.18</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.18</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1,19 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\parkingmate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -145,83 +141,170 @@
   </si>
   <si>
     <t>마이페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>쿠폰함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -247,14 +330,187 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -269,7 +525,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -282,7 +537,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -293,7 +547,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -306,111 +559,386 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="10" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="9" builtinId="10"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="입력" xfId="16" builtinId="20"/>
+    <cellStyle name="제목" xfId="11" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -496,15 +1024,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -770,27 +1289,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="A13" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
-    <col min="7" max="14" width="10.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="1" max="1" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="12.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="4" style="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="9.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="14" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" style="4" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -823,57 +1342,57 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:O3" si="0">AVERAGE(F13,F21,F23,F35,F37)</f>
-        <v>6.1428571428571423E-2</v>
+        <f>AVERAGE(F13,F21,F23,F35,F37)</f>
+        <v>0.0614285714285714</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3818181818181819E-2</v>
+        <f>AVERAGE(G13,G21,G23,G35,G37)</f>
+        <v>0.0838181818181818</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10766233766233765</v>
+        <f>AVERAGE(H13,H21,H23,H35,H37)</f>
+        <v>0.107662337662338</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16155844155844154</v>
+        <f>AVERAGE(I13,I21,I23,I35,I37)</f>
+        <v>0.161558441558442</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.24522077922077917</v>
+        <f>AVERAGE(J13,J21,J23,J35,J37)</f>
+        <v>0.245220779220779</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.31106493506493504</v>
+        <f>AVERAGE(K13,K21,K23,K35,K37)</f>
+        <v>0.311064935064935</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.37275324675324673</v>
+        <f>AVERAGE(L13,L21,L23,L35,L37)</f>
+        <v>0.372753246753247</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.26625974025974025</v>
+        <f>AVERAGE(M13,M21,M23,M35,M37)</f>
+        <v>0.42625974025974</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.29176623376623378</v>
+        <f>AVERAGE(N13,N21,N23,N35,N37)</f>
+        <v>0.471766233766234</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.34436363636363632</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+        <f>AVERAGE(O13,O21,O23,O35,O37)</f>
+        <v>0.534363636363636</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -913,7 +1432,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="16.500000" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
@@ -955,9 +1474,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="16.500000" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
@@ -993,9 +1512,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="16.150000" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1031,9 +1550,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15">
       <c r="B9" s="14"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1069,9 +1588,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15">
       <c r="B10" s="14"/>
-      <c r="C10" s="20"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1107,9 +1626,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15">
       <c r="B11" s="14"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1664,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15">
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
         <v>40</v>
@@ -1185,54 +1704,54 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15">
       <c r="B13" s="15"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
         <f>AVERAGE(F6:F12)</f>
-        <v>0.1142857142857143</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" ref="G13:O13" si="1">AVERAGE(G6:G12)</f>
-        <v>0.12857142857142859</v>
+        <f>AVERAGE(G6:G12)</f>
+        <v>0.128571428571429</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.17142857142857143</v>
+        <f>AVERAGE(H6:H12)</f>
+        <v>0.171428571428571</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.39999999999999997</v>
+        <f>AVERAGE(I6:I12)</f>
+        <v>0.4</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.62857142857142845</v>
+        <f>AVERAGE(J6:J12)</f>
+        <v>0.628571428571429</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.64285714285714268</v>
+        <f>AVERAGE(K6:K12)</f>
+        <v>0.642857142857143</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <f>AVERAGE(L6:L12)</f>
+        <v>0.657142857142857</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.72857142857142854</v>
+        <f>AVERAGE(M6:M12)</f>
+        <v>0.728571428571429</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.75714285714285712</v>
+        <f>AVERAGE(N6:N12)</f>
+        <v>0.757142857142857</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.82857142857142851</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+        <f>AVERAGE(O6:O12)</f>
+        <v>0.828571428571429</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -1273,8 +1792,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
+    <row r="15" spans="2:15">
+      <c r="B15" s="22"/>
       <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1311,8 +1830,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
+    <row r="16" spans="2:15">
+      <c r="B16" s="22"/>
       <c r="C16" s="17"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
@@ -1349,8 +1868,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
+    <row r="17" spans="2:15">
+      <c r="B17" s="22"/>
       <c r="C17" s="17"/>
       <c r="D17" s="10" t="s">
         <v>16</v>
@@ -1387,8 +1906,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
+    <row r="18" spans="2:15">
+      <c r="B18" s="22"/>
       <c r="C18" s="17"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -1425,8 +1944,8 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
+    <row r="19" spans="2:15">
+      <c r="B19" s="22"/>
       <c r="C19" s="17"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
@@ -1463,8 +1982,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
+    <row r="20" spans="2:15">
+      <c r="B20" s="22"/>
       <c r="C20" s="17"/>
       <c r="D20" s="10" t="s">
         <v>19</v>
@@ -1501,53 +2020,53 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
+    <row r="21" spans="2:15">
+      <c r="B21" s="23"/>
       <c r="C21" s="18"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:O21" si="2">AVERAGE(F14:F20)</f>
-        <v>4.2857142857142858E-2</v>
+        <f>AVERAGE(F14:F20)</f>
+        <v>0.0428571428571429</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
-        <v>3.1428571428571431E-2</v>
+        <f>AVERAGE(G14:G20)</f>
+        <v>0.0314285714285714</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
-        <v>2.1428571428571429E-2</v>
+        <f>AVERAGE(H14:H20)</f>
+        <v>0.0214285714285714</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="2"/>
-        <v>2.1428571428571429E-2</v>
+        <f>AVERAGE(I14:I20)</f>
+        <v>0.0214285714285714</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="2"/>
-        <v>3.5714285714285712E-2</v>
+        <f>AVERAGE(J14:J20)</f>
+        <v>0.0357142857142857</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.1142857142857143</v>
+        <f>AVERAGE(K14:K20)</f>
+        <v>0.114285714285714</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.13571428571428573</v>
+        <f>AVERAGE(L14:L20)</f>
+        <v>0.135714285714286</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(M14:M20)</f>
         <v>0.15</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.16714285714285712</v>
+        <f>AVERAGE(N14:N20)</f>
+        <v>0.167142857142857</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="2"/>
-        <v>6.142857142857143E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+        <f>AVERAGE(O14:O20)</f>
+        <v>0.0614285714285714</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
@@ -1580,62 +2099,62 @@
         <v>0.7</v>
       </c>
       <c r="M22" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N22" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="15"/>
       <c r="C23" s="18"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f t="shared" ref="F23:O23" si="3">AVERAGE(F22:F22)</f>
+        <f>AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(G22:G22)</f>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H22:H22)</f>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(I22:I22)</f>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J22:J22)</f>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(K22:K22)</f>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(L22:L22)</f>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>AVERAGE(M22:M22)</f>
+        <v>0.8</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>AVERAGE(N22:N22)</f>
+        <v>0.9</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+        <f>AVERAGE(O22:O22)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
       <c r="B24" s="13" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +2196,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15">
       <c r="B25" s="14"/>
       <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
@@ -1715,7 +2234,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15">
       <c r="B26" s="14"/>
       <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
@@ -1753,7 +2272,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15">
       <c r="B27" s="14"/>
       <c r="C27" s="17"/>
       <c r="D27" s="7" t="s">
@@ -1791,7 +2310,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15">
       <c r="B28" s="14"/>
       <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
@@ -1829,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15">
       <c r="B29" s="14"/>
       <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
@@ -1867,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15">
       <c r="B30" s="14"/>
       <c r="C30" s="17"/>
       <c r="D30" s="7" t="s">
@@ -1905,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15">
       <c r="B31" s="14"/>
       <c r="C31" s="17"/>
       <c r="D31" s="7" t="s">
@@ -1943,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15">
       <c r="B32" s="14"/>
       <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
@@ -1981,7 +2500,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15">
       <c r="B33" s="14"/>
       <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
@@ -2019,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15">
       <c r="B34" s="14"/>
       <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
@@ -2057,53 +2576,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15">
       <c r="B35" s="15"/>
       <c r="C35" s="18"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6">
-        <f t="shared" ref="F35:O35" si="4">AVERAGE(F24:F34)</f>
+        <f>AVERAGE(F24:F34)</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="4"/>
-        <v>9.0909090909090922E-3</v>
+        <f>AVERAGE(G24:G34)</f>
+        <v>0.00909090909090909</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
+        <f>AVERAGE(H24:H34)</f>
+        <v>0.0454545454545455</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="4"/>
-        <v>3.6363636363636369E-2</v>
+        <f>AVERAGE(I24:I34)</f>
+        <v>0.0363636363636364</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="4"/>
-        <v>8.1818181818181804E-2</v>
+        <f>AVERAGE(J24:J34)</f>
+        <v>0.0818181818181818</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11818181818181818</v>
+        <f>AVERAGE(K24:K34)</f>
+        <v>0.118181818181818</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.19090909090909092</v>
+        <f>AVERAGE(L24:L34)</f>
+        <v>0.190909090909091</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.27272727272727271</v>
+        <f>AVERAGE(M24:M34)</f>
+        <v>0.272727272727273</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.35454545454545455</v>
+        <f>AVERAGE(N24:N34)</f>
+        <v>0.354545454545455</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.43181818181818182</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+        <f>AVERAGE(O24:O34)</f>
+        <v>0.431818181818182</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
       <c r="B36" s="13" t="s">
         <v>10</v>
       </c>
@@ -2145,91 +2664,91 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15">
       <c r="B37" s="15"/>
       <c r="C37" s="18"/>
       <c r="D37" s="7"/>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:O37" si="5">AVERAGE(F36:F36)</f>
+        <f>AVERAGE(F36:F36)</f>
         <v>0.05</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(G36:G36)</f>
         <v>0.05</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(H36:H36)</f>
         <v>0.05</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(I36:I36)</f>
         <v>0.05</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(J36:J36)</f>
         <v>0.08</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(K36:K36)</f>
         <v>0.18</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(L36:L36)</f>
         <v>0.18</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(M36:M36)</f>
         <v>0.18</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(N36:N36)</f>
         <v>0.18</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(O36:O36)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15">
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="B24:B35"/>
     <mergeCell ref="C24:C35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
@@ -2271,7 +2790,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2285,7 +2804,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2299,7 +2818,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2313,7 +2832,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}</x14:id>
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2327,7 +2846,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B747175E-7253-7761-B747-175E72537761}</x14:id>
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2341,7 +2860,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}</x14:id>
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2355,7 +2874,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}</x14:id>
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2369,7 +2888,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}</x14:id>
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2383,7 +2902,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174E-6242-6671-1757-174E62426671}</x14:id>
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2397,7 +2916,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2411,7 +2930,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2425,7 +2944,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571E-3213-3B21-4727-571E32133B21}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2439,7 +2958,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C383D39A-B697-B4A5-C383-D39AB697B4A5}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2453,7 +2972,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2477,7 +2996,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2491,7 +3010,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2505,7 +3024,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2519,7 +3038,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2533,224 +3052,205 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G25:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B747175E-7253-7761-B747-175E72537761}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I24:O24 H25:O34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36:O36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:O22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174E-6242-6671-1757-174E62426671}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G7 F8:O12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:O7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C383D39A-B697-B4A5-C383-D39AB697B4A5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H9:O12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G14:G15 F15 F16:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14:O20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -582,7 +581,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -591,7 +589,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -600,7 +597,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -615,7 +611,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -630,7 +625,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -645,7 +639,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -654,7 +647,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -665,7 +657,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1292,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -1305,8 +1296,7 @@
     <col min="6" max="6" style="8" width="9.88000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="14" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
     <col min="15" max="15" style="4" width="11.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="17" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -1356,35 +1346,35 @@
       </c>
       <c r="H3" s="6">
         <f>AVERAGE(H13,H21,H23,H35,H37)</f>
-        <v>0.107662337662338</v>
+        <v>0.115376623376623</v>
       </c>
       <c r="I3" s="6">
         <f>AVERAGE(I13,I21,I23,I35,I37)</f>
-        <v>0.161558441558442</v>
+        <v>0.163558441558442</v>
       </c>
       <c r="J3" s="6">
         <f>AVERAGE(J13,J21,J23,J35,J37)</f>
-        <v>0.245220779220779</v>
+        <v>0.253792207792208</v>
       </c>
       <c r="K3" s="6">
         <f>AVERAGE(K13,K21,K23,K35,K37)</f>
-        <v>0.311064935064935</v>
+        <v>0.321064935064935</v>
       </c>
       <c r="L3" s="6">
         <f>AVERAGE(L13,L21,L23,L35,L37)</f>
-        <v>0.372753246753247</v>
+        <v>0.381324675324675</v>
       </c>
       <c r="M3" s="6">
         <f>AVERAGE(M13,M21,M23,M35,M37)</f>
-        <v>0.42625974025974</v>
+        <v>0.434831168831169</v>
       </c>
       <c r="N3" s="6">
         <f>AVERAGE(N13,N21,N23,N35,N37)</f>
-        <v>0.471766233766234</v>
+        <v>0.514623376623377</v>
       </c>
       <c r="O3" s="6">
         <f>AVERAGE(O13,O21,O23,O35,O37)</f>
-        <v>0.534363636363636</v>
+        <v>0.607792207792208</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -1567,25 +1557,25 @@
         <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J9" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K9" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="L9" s="9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M9" s="9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="N9" s="9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="9">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -1723,31 +1713,31 @@
       </c>
       <c r="I13" s="6">
         <f>AVERAGE(I6:I12)</f>
-        <v>0.4</v>
+        <v>0.371428571428571</v>
       </c>
       <c r="J13" s="6">
         <f>AVERAGE(J6:J12)</f>
-        <v>0.628571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="K13" s="6">
         <f>AVERAGE(K6:K12)</f>
-        <v>0.642857142857143</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="L13" s="6">
         <f>AVERAGE(L6:L12)</f>
-        <v>0.657142857142857</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="M13" s="6">
         <f>AVERAGE(M6:M12)</f>
-        <v>0.728571428571429</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="N13" s="6">
         <f>AVERAGE(N6:N12)</f>
-        <v>0.757142857142857</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="O13" s="6">
         <f>AVERAGE(O6:O12)</f>
-        <v>0.828571428571429</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -1768,28 +1758,28 @@
         <v>0.12</v>
       </c>
       <c r="H14" s="9">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="I14" s="9">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="J14" s="9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K14" s="9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L14" s="9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M14" s="9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N14" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O14" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -1806,16 +1796,16 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
       </c>
       <c r="J15" s="9">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="K15" s="9">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="L15" s="9">
         <v>0.3</v>
@@ -1824,10 +1814,10 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="9">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
       <c r="O15" s="9">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -1900,10 +1890,10 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O17" s="9">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -1938,10 +1928,10 @@
         <v>0.15</v>
       </c>
       <c r="N18" s="9">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O18" s="9">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -1976,10 +1966,10 @@
         <v>0.1</v>
       </c>
       <c r="N19" s="9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O19" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -2017,7 +2007,7 @@
         <v>0.42</v>
       </c>
       <c r="O20" s="9">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -2035,35 +2025,35 @@
       </c>
       <c r="H21" s="6">
         <f>AVERAGE(H14:H20)</f>
-        <v>0.0214285714285714</v>
+        <v>0.06</v>
       </c>
       <c r="I21" s="6">
         <f>AVERAGE(I14:I20)</f>
-        <v>0.0214285714285714</v>
+        <v>0.06</v>
       </c>
       <c r="J21" s="6">
         <f>AVERAGE(J14:J20)</f>
-        <v>0.0357142857142857</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="K21" s="6">
         <f>AVERAGE(K14:K20)</f>
-        <v>0.114285714285714</v>
+        <v>0.192857142857143</v>
       </c>
       <c r="L21" s="6">
         <f>AVERAGE(L14:L20)</f>
-        <v>0.135714285714286</v>
+        <v>0.192857142857143</v>
       </c>
       <c r="M21" s="6">
         <f>AVERAGE(M14:M20)</f>
-        <v>0.15</v>
+        <v>0.207142857142857</v>
       </c>
       <c r="N21" s="6">
         <f>AVERAGE(N14:N20)</f>
-        <v>0.167142857142857</v>
+        <v>0.395714285714286</v>
       </c>
       <c r="O21" s="6">
         <f>AVERAGE(O14:O20)</f>
-        <v>0.0614285714285714</v>
+        <v>0.457142857142857</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -2790,7 +2780,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
+          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2804,7 +2794,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2818,7 +2808,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2832,7 +2822,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2846,7 +2836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2860,7 +2850,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2874,7 +2864,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2888,7 +2878,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
+          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2902,7 +2892,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
+          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2916,7 +2906,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2930,7 +2920,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2944,7 +2934,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2958,7 +2948,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2972,7 +2962,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
+          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2996,7 +2986,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
+          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3010,7 +3000,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3024,7 +3014,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3038,7 +3028,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
+          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3052,7 +3042,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
+          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3063,7 +3053,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3073,7 +3063,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3083,7 +3073,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3093,7 +3083,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3103,7 +3093,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3113,7 +3103,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3123,7 +3113,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3133,7 +3123,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3143,7 +3133,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3153,7 +3143,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3163,7 +3153,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3173,7 +3163,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3183,7 +3173,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3193,7 +3183,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3203,7 +3193,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
+          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3213,7 +3203,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3223,7 +3213,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3233,7 +3223,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3243,7 +3233,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\parkingmate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -149,162 +153,73 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -330,187 +245,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -525,6 +267,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -537,6 +280,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -547,6 +291,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -559,377 +304,111 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="10" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="9" builtinId="10"/>
+  <cellStyles count="6">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
-    <cellStyle name="입력" xfId="16" builtinId="20"/>
-    <cellStyle name="제목" xfId="11" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="7" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -1015,6 +494,15 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1280,26 +768,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="12.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="4" style="1" width="26.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="9.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="14" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" style="4" width="11.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="9" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
+    <col min="7" max="22" width="10.625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -1331,58 +819,107 @@
       <c r="O2" s="3">
         <v>45166</v>
       </c>
-    </row>
-    <row r="3" spans="2:15">
+      <c r="P2" s="3">
+        <v>45167</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45168</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45169</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45170</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45171</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45172</v>
+      </c>
+      <c r="V2" s="3">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F13,F21,F23,F35,F37)</f>
-        <v>0.0614285714285714</v>
+        <f t="shared" ref="F3:O3" si="0">AVERAGE(F13,F21,F23,F35,F37)</f>
+        <v>6.1428571428571423E-2</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G13,G21,G23,G35,G37)</f>
-        <v>0.0838181818181818</v>
+        <f t="shared" si="0"/>
+        <v>8.3818181818181819E-2</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H13,H21,H23,H35,H37)</f>
-        <v>0.115376623376623</v>
+        <f t="shared" si="0"/>
+        <v>0.11537662337662338</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I13,I21,I23,I35,I37)</f>
-        <v>0.163558441558442</v>
+        <f t="shared" si="0"/>
+        <v>0.16355844155844157</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J13,J21,J23,J35,J37)</f>
-        <v>0.253792207792208</v>
+        <f t="shared" si="0"/>
+        <v>0.25379220779220779</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K13,K21,K23,K35,K37)</f>
+        <f t="shared" si="0"/>
         <v>0.321064935064935</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L13,L21,L23,L35,L37)</f>
-        <v>0.381324675324675</v>
+        <f t="shared" si="0"/>
+        <v>0.38132467532467529</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M13,M21,M23,M35,M37)</f>
-        <v>0.434831168831169</v>
+        <f t="shared" si="0"/>
+        <v>0.43483116883116885</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N13,N21,N23,N35,N37)</f>
-        <v>0.514623376623377</v>
+        <f t="shared" si="0"/>
+        <v>0.51462337662337665</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O13,O21,O23,O35,O37)</f>
-        <v>0.607792207792208</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <f t="shared" si="0"/>
+        <v>0.60779220779220777</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:T3" si="1">AVERAGE(P13,P21,P23,P35,P37)</f>
+        <v>0.61636363636363634</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" ref="U3:V3" si="2">AVERAGE(U13,U21,U23,U35,U37)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="20.100000" customHeight="1">
+    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1421,8 +958,29 @@
       <c r="O5" s="3">
         <v>45166</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="16.500000" customHeight="1">
+      <c r="P5" s="3">
+        <v>45167</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45168</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45169</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45170</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45171</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45172</v>
+      </c>
+      <c r="V5" s="3">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1463,10 +1021,31 @@
       <c r="O6" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="16.500000" customHeight="1">
+      <c r="P6" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
@@ -1501,10 +1080,31 @@
       <c r="O7" s="9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="16.150000" customHeight="1">
+      <c r="P7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1539,10 +1139,31 @@
       <c r="O8" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="P8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1577,10 +1198,31 @@
       <c r="O9" s="9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="P9" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1615,10 +1257,31 @@
       <c r="O10" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="2:15">
+      <c r="P10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="C11" s="20"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1653,8 +1316,29 @@
       <c r="O11" s="9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="P11" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
         <v>40</v>
@@ -1693,58 +1377,107 @@
       <c r="O12" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="P12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f>AVERAGE(F6:F12)</f>
-        <v>0.114285714285714</v>
+        <f t="shared" ref="F13:O13" si="3">AVERAGE(F6:F12)</f>
+        <v>0.1142857142857143</v>
       </c>
       <c r="G13" s="6">
-        <f>AVERAGE(G6:G12)</f>
-        <v>0.128571428571429</v>
+        <f t="shared" si="3"/>
+        <v>0.12857142857142859</v>
       </c>
       <c r="H13" s="6">
-        <f>AVERAGE(H6:H12)</f>
-        <v>0.171428571428571</v>
+        <f t="shared" si="3"/>
+        <v>0.17142857142857143</v>
       </c>
       <c r="I13" s="6">
-        <f>AVERAGE(I6:I12)</f>
-        <v>0.371428571428571</v>
+        <f t="shared" si="3"/>
+        <v>0.37142857142857144</v>
       </c>
       <c r="J13" s="6">
-        <f>AVERAGE(J6:J12)</f>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="K13" s="6">
-        <f>AVERAGE(K6:K12)</f>
-        <v>0.614285714285714</v>
+        <f t="shared" si="3"/>
+        <v>0.61428571428571421</v>
       </c>
       <c r="L13" s="6">
-        <f>AVERAGE(L6:L12)</f>
-        <v>0.642857142857143</v>
+        <f t="shared" si="3"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M13" s="6">
-        <f>AVERAGE(M6:M12)</f>
-        <v>0.714285714285714</v>
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N13" s="6">
-        <f>AVERAGE(N6:N12)</f>
-        <v>0.742857142857143</v>
+        <f t="shared" si="3"/>
+        <v>0.74285714285714288</v>
       </c>
       <c r="O13" s="6">
-        <f>AVERAGE(O6:O12)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="21" t="s">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" ref="P13" si="4">AVERAGE(P6:P12)</f>
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" ref="Q13" si="5">AVERAGE(Q6:Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" ref="R13" si="6">AVERAGE(R6:R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" ref="S13" si="7">AVERAGE(S6:S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" ref="T13" si="8">AVERAGE(T6:T12)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" ref="U13" si="9">AVERAGE(U6:U12)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" ref="V13" si="10">AVERAGE(V6:V12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1781,10 +1514,31 @@
       <c r="O14" s="9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="22"/>
-      <c r="C15" s="17"/>
+      <c r="P14" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1814,15 +1568,36 @@
         <v>0.3</v>
       </c>
       <c r="N15" s="9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O15" s="9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="22"/>
-      <c r="C16" s="17"/>
+      <c r="P15" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1857,10 +1632,31 @@
       <c r="O16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="22"/>
-      <c r="C17" s="17"/>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1893,12 +1689,33 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="9">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="22"/>
-      <c r="C18" s="17"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1933,10 +1750,31 @@
       <c r="O18" s="9">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="22"/>
-      <c r="C19" s="17"/>
+      <c r="P18" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1971,10 +1809,31 @@
       <c r="O19" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="22"/>
-      <c r="C20" s="17"/>
+      <c r="P19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="10" t="s">
         <v>19</v>
       </c>
@@ -2009,58 +1868,107 @@
       <c r="O20" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="23"/>
-      <c r="C21" s="18"/>
+      <c r="P20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f>AVERAGE(F14:F20)</f>
-        <v>0.0428571428571429</v>
+        <f t="shared" ref="F21:O21" si="11">AVERAGE(F14:F20)</f>
+        <v>4.2857142857142858E-2</v>
       </c>
       <c r="G21" s="6">
-        <f>AVERAGE(G14:G20)</f>
-        <v>0.0314285714285714</v>
+        <f t="shared" si="11"/>
+        <v>3.1428571428571431E-2</v>
       </c>
       <c r="H21" s="6">
-        <f>AVERAGE(H14:H20)</f>
+        <f t="shared" si="11"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="11"/>
         <v>0.06</v>
       </c>
-      <c r="I21" s="6">
-        <f>AVERAGE(I14:I20)</f>
-        <v>0.06</v>
-      </c>
       <c r="J21" s="6">
-        <f>AVERAGE(J14:J20)</f>
-        <v>0.107142857142857</v>
+        <f t="shared" si="11"/>
+        <v>0.10714285714285714</v>
       </c>
       <c r="K21" s="6">
-        <f>AVERAGE(K14:K20)</f>
-        <v>0.192857142857143</v>
+        <f t="shared" si="11"/>
+        <v>0.19285714285714287</v>
       </c>
       <c r="L21" s="6">
-        <f>AVERAGE(L14:L20)</f>
-        <v>0.192857142857143</v>
+        <f t="shared" si="11"/>
+        <v>0.19285714285714284</v>
       </c>
       <c r="M21" s="6">
-        <f>AVERAGE(M14:M20)</f>
-        <v>0.207142857142857</v>
+        <f t="shared" si="11"/>
+        <v>0.20714285714285713</v>
       </c>
       <c r="N21" s="6">
-        <f>AVERAGE(N14:N20)</f>
-        <v>0.395714285714286</v>
+        <f t="shared" si="11"/>
+        <v>0.39571428571428574</v>
       </c>
       <c r="O21" s="6">
-        <f>AVERAGE(O14:O20)</f>
-        <v>0.457142857142857</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
+        <f t="shared" si="11"/>
+        <v>0.45714285714285718</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" ref="P21" si="12">AVERAGE(P14:P20)</f>
+        <v>0.45714285714285718</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" ref="Q21" si="13">AVERAGE(Q14:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" ref="R21" si="14">AVERAGE(R14:R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <f t="shared" ref="S21" si="15">AVERAGE(S14:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" ref="T21" si="16">AVERAGE(T14:T20)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" ref="U21" si="17">AVERAGE(U14:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" ref="V21" si="18">AVERAGE(V14:V20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2097,54 +2005,103 @@
       <c r="O22" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="P22" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
-      <c r="C23" s="18"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f>AVERAGE(F22:F22)</f>
+        <f t="shared" ref="F23:O23" si="19">AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f>AVERAGE(G22:G22)</f>
+        <f t="shared" si="19"/>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f>AVERAGE(H22:H22)</f>
+        <f t="shared" si="19"/>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f>AVERAGE(I22:I22)</f>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f>AVERAGE(J22:J22)</f>
+        <f t="shared" si="19"/>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f>AVERAGE(K22:K22)</f>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f>AVERAGE(L22:L22)</f>
+        <f t="shared" si="19"/>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f>AVERAGE(M22:M22)</f>
+        <f t="shared" si="19"/>
         <v>0.8</v>
       </c>
       <c r="N23" s="6">
-        <f>AVERAGE(N22:N22)</f>
+        <f t="shared" si="19"/>
         <v>0.9</v>
       </c>
       <c r="O23" s="6">
-        <f>AVERAGE(O22:O22)</f>
+        <f t="shared" si="19"/>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="P23" s="6">
+        <f t="shared" ref="P23" si="20">AVERAGE(P22:P22)</f>
+        <v>0.95</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" ref="Q23" si="21">AVERAGE(Q22:Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" ref="R23" si="22">AVERAGE(R22:R22)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" ref="S23" si="23">AVERAGE(S22:S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" ref="T23" si="24">AVERAGE(T22:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" ref="U23" si="25">AVERAGE(U22:U22)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" ref="V23" si="26">AVERAGE(V22:V22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>9</v>
       </c>
@@ -2185,10 +2142,31 @@
       <c r="O24" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="P24" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2223,10 +2201,31 @@
       <c r="O25" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="P25" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
@@ -2261,10 +2260,31 @@
       <c r="O26" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="P26" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="7" t="s">
         <v>24</v>
       </c>
@@ -2299,10 +2319,31 @@
       <c r="O27" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="P27" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
-      <c r="C28" s="17"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="7" t="s">
         <v>25</v>
       </c>
@@ -2337,10 +2378,31 @@
       <c r="O28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
-      <c r="C29" s="17"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="7" t="s">
         <v>26</v>
       </c>
@@ -2375,10 +2437,31 @@
       <c r="O29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:15">
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
-      <c r="C30" s="17"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="7" t="s">
         <v>27</v>
       </c>
@@ -2413,10 +2496,31 @@
       <c r="O30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:15">
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="7" t="s">
         <v>28</v>
       </c>
@@ -2451,10 +2555,31 @@
       <c r="O31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:15">
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
@@ -2489,10 +2614,31 @@
       <c r="O32" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="33" spans="2:15">
+      <c r="P32" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2527,10 +2673,31 @@
       <c r="O33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
-      <c r="C34" s="17"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="7" t="s">
         <v>31</v>
       </c>
@@ -2565,58 +2732,107 @@
       <c r="O34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15">
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
-      <c r="C35" s="18"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6">
-        <f>AVERAGE(F24:F34)</f>
+        <f t="shared" ref="F35:O35" si="27">AVERAGE(F24:F34)</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f>AVERAGE(G24:G34)</f>
-        <v>0.00909090909090909</v>
+        <f t="shared" si="27"/>
+        <v>9.0909090909090922E-3</v>
       </c>
       <c r="H35" s="6">
-        <f>AVERAGE(H24:H34)</f>
-        <v>0.0454545454545455</v>
+        <f t="shared" si="27"/>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="I35" s="6">
-        <f>AVERAGE(I24:I34)</f>
-        <v>0.0363636363636364</v>
+        <f t="shared" si="27"/>
+        <v>3.6363636363636369E-2</v>
       </c>
       <c r="J35" s="6">
-        <f>AVERAGE(J24:J34)</f>
-        <v>0.0818181818181818</v>
+        <f t="shared" si="27"/>
+        <v>8.1818181818181804E-2</v>
       </c>
       <c r="K35" s="6">
-        <f>AVERAGE(K24:K34)</f>
-        <v>0.118181818181818</v>
+        <f t="shared" si="27"/>
+        <v>0.11818181818181818</v>
       </c>
       <c r="L35" s="6">
-        <f>AVERAGE(L24:L34)</f>
-        <v>0.190909090909091</v>
+        <f t="shared" si="27"/>
+        <v>0.19090909090909092</v>
       </c>
       <c r="M35" s="6">
-        <f>AVERAGE(M24:M34)</f>
-        <v>0.272727272727273</v>
+        <f t="shared" si="27"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N35" s="6">
-        <f>AVERAGE(N24:N34)</f>
-        <v>0.354545454545455</v>
+        <f t="shared" si="27"/>
+        <v>0.35454545454545455</v>
       </c>
       <c r="O35" s="6">
-        <f>AVERAGE(O24:O34)</f>
-        <v>0.431818181818182</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
+        <f t="shared" si="27"/>
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" ref="P35" si="28">AVERAGE(P24:P34)</f>
+        <v>0.43181818181818182</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" ref="Q35" si="29">AVERAGE(Q24:Q34)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" ref="R35" si="30">AVERAGE(R24:R34)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" ref="S35" si="31">AVERAGE(S24:S34)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" ref="T35" si="32">AVERAGE(T24:T34)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" ref="U35" si="33">AVERAGE(U24:U34)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="6">
+        <f t="shared" ref="V35" si="34">AVERAGE(V24:V34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -2653,92 +2869,141 @@
       <c r="O36" s="9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="2:15">
+      <c r="P36" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
-      <c r="C37" s="18"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="7"/>
       <c r="F37" s="6">
-        <f>AVERAGE(F36:F36)</f>
+        <f t="shared" ref="F37:O37" si="35">AVERAGE(F36:F36)</f>
         <v>0.05</v>
       </c>
       <c r="G37" s="6">
-        <f>AVERAGE(G36:G36)</f>
+        <f t="shared" si="35"/>
         <v>0.05</v>
       </c>
       <c r="H37" s="6">
-        <f>AVERAGE(H36:H36)</f>
+        <f t="shared" si="35"/>
         <v>0.05</v>
       </c>
       <c r="I37" s="6">
-        <f>AVERAGE(I36:I36)</f>
+        <f t="shared" si="35"/>
         <v>0.05</v>
       </c>
       <c r="J37" s="6">
-        <f>AVERAGE(J36:J36)</f>
+        <f t="shared" si="35"/>
         <v>0.08</v>
       </c>
       <c r="K37" s="6">
-        <f>AVERAGE(K36:K36)</f>
+        <f t="shared" si="35"/>
         <v>0.18</v>
       </c>
       <c r="L37" s="6">
-        <f>AVERAGE(L36:L36)</f>
+        <f t="shared" si="35"/>
         <v>0.18</v>
       </c>
       <c r="M37" s="6">
-        <f>AVERAGE(M36:M36)</f>
+        <f t="shared" si="35"/>
         <v>0.18</v>
       </c>
       <c r="N37" s="6">
-        <f>AVERAGE(N36:N36)</f>
+        <f t="shared" si="35"/>
         <v>0.18</v>
       </c>
       <c r="O37" s="6">
-        <f>AVERAGE(O36:O36)</f>
+        <f t="shared" si="35"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="38" spans="2:15">
+      <c r="P37" s="6">
+        <f t="shared" ref="P37" si="36">AVERAGE(P36:P36)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" ref="Q37" si="37">AVERAGE(Q36:Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" ref="R37" si="38">AVERAGE(R36:R36)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" ref="S37" si="39">AVERAGE(S36:S36)</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" ref="T37" si="40">AVERAGE(T36:T36)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="6">
+        <f t="shared" ref="U37" si="41">AVERAGE(U36:U36)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="6">
+        <f t="shared" ref="V37" si="42">AVERAGE(V36:V36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
@@ -2780,7 +3045,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+          <x14:id>{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2794,7 +3059,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+          <x14:id>{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2808,7 +3073,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+          <x14:id>{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2822,12 +3087,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+          <x14:id>{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:O24 H25:O34">
+  <conditionalFormatting sqref="I24:V24 H25:V34">
     <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="min"/>
@@ -2836,12 +3101,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+          <x14:id>{B747175E-7253-7761-B747-175E72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:O36">
+  <conditionalFormatting sqref="H36:V36">
     <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
@@ -2850,12 +3115,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+          <x14:id>{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:O22">
+  <conditionalFormatting sqref="I22:V22">
     <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
@@ -2864,7 +3129,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+          <x14:id>{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2878,7 +3143,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2892,7 +3157,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{1757174E-6242-6671-1757-174E62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2906,12 +3171,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 F8:O12">
+  <conditionalFormatting sqref="F6:G7 F8:V12">
     <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="min"/>
@@ -2920,12 +3185,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:O7">
+  <conditionalFormatting sqref="H6:V7">
     <cfRule type="dataBar" priority="444">
       <dataBar>
         <cfvo type="min"/>
@@ -2934,7 +3199,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+          <x14:id>{4727571E-3213-3B21-4727-571E32133B21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2948,7 +3213,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
+          <x14:id>{C383D39A-B697-B4A5-C383-D39AB697B4A5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2962,7 +3227,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
+          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2986,12 +3251,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:O12">
+  <conditionalFormatting sqref="H9:V12">
     <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
@@ -3000,7 +3265,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3014,7 +3279,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3028,12 +3293,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:O20">
+  <conditionalFormatting sqref="H14:V20">
     <cfRule type="dataBar" priority="457">
       <dataBar>
         <cfvo type="min"/>
@@ -3042,205 +3307,224 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F24:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G25:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{B747175E-7253-7761-B747-175E72537761}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>I24:V24 H25:V34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H36:V36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>I22:V22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{1757174E-6242-6671-1757-174E62426671}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F6:G7 F8:V12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H6:V7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{C383D39A-B697-B4A5-C383-D39AB697B4A5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H9:V12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G14:G15 F15 F16:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H14:V20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1,19 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\parkingmate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -153,73 +149,162 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -245,14 +330,187 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -267,7 +525,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -280,7 +537,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -291,7 +547,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -304,111 +559,377 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="10" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="9" builtinId="10"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="입력" xfId="16" builtinId="20"/>
+    <cellStyle name="제목" xfId="11" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -494,15 +1015,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -768,26 +1280,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="C4" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
-    <col min="7" max="22" width="10.625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="4"/>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="22.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="23" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -841,85 +1353,85 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:O3" si="0">AVERAGE(F13,F21,F23,F35,F37)</f>
-        <v>6.1428571428571423E-2</v>
+        <f>AVERAGE(F13,F21,F23,F35,F37)</f>
+        <v>0.0614285714285714</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3818181818181819E-2</v>
+        <f>AVERAGE(G13,G21,G23,G35,G37)</f>
+        <v>0.0923896103896105</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11537662337662338</v>
+        <f>AVERAGE(H13,H21,H23,H35,H37)</f>
+        <v>0.115376623376623</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16355844155844157</v>
+        <f>AVERAGE(I13,I21,I23,I35,I37)</f>
+        <v>0.167844155844156</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25379220779220779</v>
+        <f>AVERAGE(J13,J21,J23,J35,J37)</f>
+        <v>0.253792207792208</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.321064935064935</v>
+        <f>AVERAGE(K13,K21,K23,K35,K37)</f>
+        <v>0.316779220779221</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.38132467532467529</v>
+        <f>AVERAGE(L13,L21,L23,L35,L37)</f>
+        <v>0.38561038961039</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.43483116883116885</v>
+        <f>AVERAGE(M13,M21,M23,M35,M37)</f>
+        <v>0.439116883116883</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.51462337662337665</v>
+        <f>AVERAGE(N13,N21,N23,N35,N37)</f>
+        <v>0.514623376623377</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.60779220779220777</v>
+        <f>AVERAGE(O13,O21,O23,O35,O37)</f>
+        <v>0.617792207792208</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:T3" si="1">AVERAGE(P13,P21,P23,P35,P37)</f>
-        <v>0.61636363636363634</v>
+        <f>AVERAGE(P13,P21,P23,P35,P37)</f>
+        <v>0.630649350649351</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>AVERAGE(Q13,Q21,Q23,Q35,Q37)</f>
+        <v>0.769220779220779</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>AVERAGE(R13,R21,R23,R35,R37)</f>
+        <v>0.18</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>AVERAGE(S13,S21,S23,S35,S37)</f>
+        <v>0.181428571428571</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(T13,T21,T23,T35,T37)</f>
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" ref="U3:V3" si="2">AVERAGE(U13,U21,U23,U35,U37)</f>
+        <f>AVERAGE(U13,U21,U23,U35,U37)</f>
         <v>0</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V13,V21,V23,V35,V37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
       <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -980,7 +1492,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" ht="16.500000" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1022,16 +1534,16 @@
         <v>0.8</v>
       </c>
       <c r="P6" s="9">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
@@ -1043,9 +1555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="16.500000" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
@@ -1084,13 +1596,13 @@
         <v>0.6</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T7" s="9">
         <v>0</v>
@@ -1102,9 +1614,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" ht="16.150000" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1143,13 +1655,13 @@
         <v>0.9</v>
       </c>
       <c r="Q8" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
@@ -1161,9 +1673,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22">
       <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1202,13 +1714,13 @@
         <v>0.9</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S9" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T9" s="9">
         <v>0</v>
@@ -1220,9 +1732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22">
       <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1261,13 +1773,13 @@
         <v>0.9</v>
       </c>
       <c r="Q10" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="S10" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -1279,9 +1791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22">
       <c r="B11" s="14"/>
-      <c r="C11" s="18"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1320,13 +1832,13 @@
         <v>0.9</v>
       </c>
       <c r="Q11" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R11" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="S11" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T11" s="9">
         <v>0</v>
@@ -1338,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22">
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
         <v>40</v>
@@ -1378,16 +1890,16 @@
         <v>0.8</v>
       </c>
       <c r="P12" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q12" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R12" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S12" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T12" s="9">
         <v>0</v>
@@ -1399,85 +1911,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22">
       <c r="B13" s="15"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:O13" si="3">AVERAGE(F6:F12)</f>
-        <v>0.1142857142857143</v>
+        <f>AVERAGE(F6:F12)</f>
+        <v>0.114285714285714</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.12857142857142859</v>
+        <f>AVERAGE(G6:G12)</f>
+        <v>0.128571428571429</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.17142857142857143</v>
+        <f>AVERAGE(H6:H12)</f>
+        <v>0.171428571428571</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.37142857142857144</v>
+        <f>AVERAGE(I6:I12)</f>
+        <v>0.371428571428571</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J6:J12)</f>
         <v>0.6</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.61428571428571421</v>
+        <f>AVERAGE(K6:K12)</f>
+        <v>0.614285714285714</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.6428571428571429</v>
+        <f>AVERAGE(L6:L12)</f>
+        <v>0.642857142857143</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
+        <f>AVERAGE(M6:M12)</f>
+        <v>0.714285714285714</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.74285714285714288</v>
+        <f>AVERAGE(N6:N12)</f>
+        <v>0.742857142857143</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.79999999999999993</v>
+        <f>AVERAGE(O6:O12)</f>
+        <v>0.8</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" ref="P13" si="4">AVERAGE(P6:P12)</f>
-        <v>0.84285714285714286</v>
+        <f>AVERAGE(P6:P12)</f>
+        <v>0.864285714285714</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" ref="Q13" si="5">AVERAGE(Q6:Q12)</f>
-        <v>0</v>
+        <f>AVERAGE(Q6:Q12)</f>
+        <v>0.864285714285714</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" ref="R13" si="6">AVERAGE(R6:R12)</f>
-        <v>0</v>
+        <f>AVERAGE(R6:R12)</f>
+        <v>0.9</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" ref="S13" si="7">AVERAGE(S6:S12)</f>
-        <v>0</v>
+        <f>AVERAGE(S6:S12)</f>
+        <v>0.907142857142857</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" ref="T13" si="8">AVERAGE(T6:T12)</f>
+        <f>AVERAGE(T6:T12)</f>
         <v>0</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" ref="U13" si="9">AVERAGE(U6:U12)</f>
+        <f>AVERAGE(U6:U12)</f>
         <v>0</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" ref="V13" si="10">AVERAGE(V6:V12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+        <f>AVERAGE(V6:V12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1488,7 +2000,7 @@
         <v>0.3</v>
       </c>
       <c r="G14" s="9">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="H14" s="9">
         <v>0.27</v>
@@ -1518,7 +2030,7 @@
         <v>0.6</v>
       </c>
       <c r="Q14" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R14" s="9">
         <v>0</v>
@@ -1536,9 +2048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
+    <row r="15" spans="2:22">
+      <c r="B15" s="19"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1553,22 +2065,22 @@
         <v>0.15</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J15" s="9">
         <v>0.15</v>
       </c>
       <c r="K15" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="9">
         <v>0.45</v>
       </c>
-      <c r="L15" s="9">
-        <v>0.3</v>
-      </c>
       <c r="M15" s="9">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="N15" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="O15" s="9">
         <v>0.6</v>
@@ -1577,7 +2089,7 @@
         <v>0.6</v>
       </c>
       <c r="Q15" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R15" s="9">
         <v>0</v>
@@ -1595,9 +2107,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
+    <row r="16" spans="2:22">
+      <c r="B16" s="19"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1654,9 +2166,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
+    <row r="17" spans="2:22">
+      <c r="B17" s="19"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1689,13 +2201,13 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="P17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="Q17" s="9">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
@@ -1713,9 +2225,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="23"/>
+    <row r="18" spans="2:22">
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +2266,7 @@
         <v>0.45</v>
       </c>
       <c r="Q18" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R18" s="9">
         <v>0</v>
@@ -1772,9 +2284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
+    <row r="19" spans="2:22">
+      <c r="B19" s="19"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1813,7 +2325,7 @@
         <v>0.5</v>
       </c>
       <c r="Q19" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
@@ -1831,9 +2343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="23"/>
+    <row r="20" spans="2:22">
+      <c r="B20" s="19"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="10" t="s">
         <v>19</v>
       </c>
@@ -1872,7 +2384,7 @@
         <v>0.5</v>
       </c>
       <c r="Q20" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
@@ -1890,85 +2402,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="24"/>
+    <row r="21" spans="2:22">
+      <c r="B21" s="20"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:O21" si="11">AVERAGE(F14:F20)</f>
-        <v>4.2857142857142858E-2</v>
+        <f>AVERAGE(F14:F20)</f>
+        <v>0.0428571428571429</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="11"/>
-        <v>3.1428571428571431E-2</v>
+        <f>AVERAGE(G14:G20)</f>
+        <v>0.0742857142857143</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="11"/>
-        <v>6.0000000000000005E-2</v>
+        <f>AVERAGE(H14:H20)</f>
+        <v>0.06</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.06</v>
+        <f>AVERAGE(I14:I20)</f>
+        <v>0.0814285714285714</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.10714285714285714</v>
+        <f>AVERAGE(J14:J20)</f>
+        <v>0.107142857142857</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.19285714285714287</v>
+        <f>AVERAGE(K14:K20)</f>
+        <v>0.171428571428571</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.19285714285714284</v>
+        <f>AVERAGE(L14:L20)</f>
+        <v>0.214285714285714</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.20714285714285713</v>
+        <f>AVERAGE(M14:M20)</f>
+        <v>0.228571428571429</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.39571428571428574</v>
+        <f>AVERAGE(N14:N20)</f>
+        <v>0.395714285714286</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.45714285714285718</v>
+        <f>AVERAGE(O14:O20)</f>
+        <v>0.457142857142857</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" ref="P21" si="12">AVERAGE(P14:P20)</f>
-        <v>0.45714285714285718</v>
+        <f>AVERAGE(P14:P20)</f>
+        <v>0.457142857142857</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" ref="Q21" si="13">AVERAGE(Q14:Q20)</f>
-        <v>0</v>
+        <f>AVERAGE(Q14:Q20)</f>
+        <v>0.55</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21" si="14">AVERAGE(R14:R20)</f>
+        <f>AVERAGE(R14:R20)</f>
         <v>0</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" ref="S21" si="15">AVERAGE(S14:S20)</f>
+        <f>AVERAGE(S14:S20)</f>
         <v>0</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" ref="T21" si="16">AVERAGE(T14:T20)</f>
+        <f>AVERAGE(T14:T20)</f>
         <v>0</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" ref="U21" si="17">AVERAGE(U14:U20)</f>
+        <f>AVERAGE(U14:U20)</f>
         <v>0</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" ref="V21" si="18">AVERAGE(V14:V20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V14:V20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2003,13 +2515,13 @@
         <v>0.9</v>
       </c>
       <c r="O22" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="P22" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="9">
         <v>0</v>
@@ -2027,81 +2539,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22">
       <c r="B23" s="15"/>
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f t="shared" ref="F23:O23" si="19">AVERAGE(F22:F22)</f>
+        <f>AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(G22:G22)</f>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(H22:H22)</f>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(I22:I22)</f>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(J22:J22)</f>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(K22:K22)</f>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(L22:L22)</f>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(M22:M22)</f>
         <v>0.8</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="19"/>
+        <f>AVERAGE(N22:N22)</f>
         <v>0.9</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="19"/>
-        <v>0.95</v>
+        <f>AVERAGE(O22:O22)</f>
+        <v>1</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" ref="P23" si="20">AVERAGE(P22:P22)</f>
-        <v>0.95</v>
+        <f>AVERAGE(P22:P22)</f>
+        <v>1</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" ref="Q23" si="21">AVERAGE(Q22:Q22)</f>
-        <v>0</v>
+        <f>AVERAGE(Q22:Q22)</f>
+        <v>1</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ref="R23" si="22">AVERAGE(R22:R22)</f>
+        <f>AVERAGE(R22:R22)</f>
         <v>0</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" ref="S23" si="23">AVERAGE(S22:S22)</f>
+        <f>AVERAGE(S22:S22)</f>
         <v>0</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" ref="T23" si="24">AVERAGE(T22:T22)</f>
+        <f>AVERAGE(T22:T22)</f>
         <v>0</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" ref="U23" si="25">AVERAGE(U22:U22)</f>
+        <f>AVERAGE(U22:U22)</f>
         <v>0</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" ref="V23" si="26">AVERAGE(V22:V22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V22:V22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" s="13" t="s">
         <v>9</v>
       </c>
@@ -2146,7 +2658,7 @@
         <v>0.95</v>
       </c>
       <c r="Q24" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R24" s="9">
         <v>0</v>
@@ -2164,9 +2676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22">
       <c r="B25" s="14"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2205,7 +2717,7 @@
         <v>0.95</v>
       </c>
       <c r="Q25" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R25" s="9">
         <v>0</v>
@@ -2223,9 +2735,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22">
       <c r="B26" s="14"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2776,7 @@
         <v>0.95</v>
       </c>
       <c r="Q26" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R26" s="9">
         <v>0</v>
@@ -2282,9 +2794,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22">
       <c r="B27" s="14"/>
-      <c r="C27" s="23"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="7" t="s">
         <v>24</v>
       </c>
@@ -2323,7 +2835,7 @@
         <v>0.95</v>
       </c>
       <c r="Q27" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -2341,9 +2853,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22">
       <c r="B28" s="14"/>
-      <c r="C28" s="23"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="7" t="s">
         <v>25</v>
       </c>
@@ -2400,9 +2912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22">
       <c r="B29" s="14"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="7" t="s">
         <v>26</v>
       </c>
@@ -2459,9 +2971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22">
       <c r="B30" s="14"/>
-      <c r="C30" s="23"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="7" t="s">
         <v>27</v>
       </c>
@@ -2518,9 +3030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22">
       <c r="B31" s="14"/>
-      <c r="C31" s="23"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="7" t="s">
         <v>28</v>
       </c>
@@ -2577,9 +3089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22">
       <c r="B32" s="14"/>
-      <c r="C32" s="23"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
@@ -2618,7 +3130,7 @@
         <v>0.95</v>
       </c>
       <c r="Q32" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R32" s="9">
         <v>0</v>
@@ -2636,9 +3148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22">
       <c r="B33" s="14"/>
-      <c r="C33" s="23"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2695,9 +3207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22">
       <c r="B34" s="14"/>
-      <c r="C34" s="23"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="7" t="s">
         <v>31</v>
       </c>
@@ -2754,85 +3266,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22">
       <c r="B35" s="15"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6">
-        <f t="shared" ref="F35:O35" si="27">AVERAGE(F24:F34)</f>
+        <f>AVERAGE(F24:F34)</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="27"/>
-        <v>9.0909090909090922E-3</v>
+        <f>AVERAGE(G24:G34)</f>
+        <v>0.00909090909090909</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="27"/>
-        <v>4.5454545454545456E-2</v>
+        <f>AVERAGE(H24:H34)</f>
+        <v>0.0454545454545455</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="27"/>
-        <v>3.6363636363636369E-2</v>
+        <f>AVERAGE(I24:I34)</f>
+        <v>0.0363636363636364</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="27"/>
-        <v>8.1818181818181804E-2</v>
+        <f>AVERAGE(J24:J34)</f>
+        <v>0.0818181818181818</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.11818181818181818</v>
+        <f>AVERAGE(K24:K34)</f>
+        <v>0.118181818181818</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.19090909090909092</v>
+        <f>AVERAGE(L24:L34)</f>
+        <v>0.190909090909091</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.27272727272727271</v>
+        <f>AVERAGE(M24:M34)</f>
+        <v>0.272727272727273</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.35454545454545455</v>
+        <f>AVERAGE(N24:N34)</f>
+        <v>0.354545454545455</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="27"/>
-        <v>0.43181818181818182</v>
+        <f>AVERAGE(O24:O34)</f>
+        <v>0.431818181818182</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" ref="P35" si="28">AVERAGE(P24:P34)</f>
-        <v>0.43181818181818182</v>
+        <f>AVERAGE(P24:P34)</f>
+        <v>0.431818181818182</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" ref="Q35" si="29">AVERAGE(Q24:Q34)</f>
-        <v>0</v>
+        <f>AVERAGE(Q24:Q34)</f>
+        <v>0.431818181818182</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" ref="R35" si="30">AVERAGE(R24:R34)</f>
+        <f>AVERAGE(R24:R34)</f>
         <v>0</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" ref="S35" si="31">AVERAGE(S24:S34)</f>
+        <f>AVERAGE(S24:S34)</f>
         <v>0</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" ref="T35" si="32">AVERAGE(T24:T34)</f>
+        <f>AVERAGE(T24:T34)</f>
         <v>0</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" ref="U35" si="33">AVERAGE(U24:U34)</f>
+        <f>AVERAGE(U24:U34)</f>
         <v>0</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" ref="V35" si="34">AVERAGE(V24:V34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V24:V34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
       <c r="B36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -2873,7 +3385,7 @@
         <v>0.4</v>
       </c>
       <c r="Q36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="9">
         <v>0</v>
@@ -2891,119 +3403,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22">
       <c r="B37" s="15"/>
-      <c r="C37" s="24"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="7"/>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:O37" si="35">AVERAGE(F36:F36)</f>
+        <f>AVERAGE(F36:F36)</f>
         <v>0.05</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(G36:G36)</f>
         <v>0.05</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(H36:H36)</f>
         <v>0.05</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(I36:I36)</f>
         <v>0.05</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(J36:J36)</f>
         <v>0.08</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(K36:K36)</f>
         <v>0.18</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(L36:L36)</f>
         <v>0.18</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(M36:M36)</f>
         <v>0.18</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(N36:N36)</f>
         <v>0.18</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="35"/>
+        <f>AVERAGE(O36:O36)</f>
         <v>0.4</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" ref="P37" si="36">AVERAGE(P36:P36)</f>
+        <f>AVERAGE(P36:P36)</f>
         <v>0.4</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" ref="Q37" si="37">AVERAGE(Q36:Q36)</f>
-        <v>0</v>
+        <f>AVERAGE(Q36:Q36)</f>
+        <v>1</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" ref="R37" si="38">AVERAGE(R36:R36)</f>
+        <f>AVERAGE(R36:R36)</f>
         <v>0</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" ref="S37" si="39">AVERAGE(S36:S36)</f>
+        <f>AVERAGE(S36:S36)</f>
         <v>0</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" ref="T37" si="40">AVERAGE(T36:T36)</f>
+        <f>AVERAGE(T36:T36)</f>
         <v>0</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" ref="U37" si="41">AVERAGE(U36:U36)</f>
+        <f>AVERAGE(U36:U36)</f>
         <v>0</v>
       </c>
       <c r="V37" s="6">
-        <f t="shared" ref="V37" si="42">AVERAGE(V36:V36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V36:V36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22">
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
@@ -3045,7 +3557,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}</x14:id>
+          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3059,26 +3571,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}</x14:id>
+          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="dataBar" priority="436">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36">
+  <conditionalFormatting sqref="F36:Q36 H36:I36 H36">
     <cfRule type="dataBar" priority="437">
       <dataBar>
         <cfvo type="min"/>
@@ -3087,12 +3585,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}</x14:id>
+          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:V24 H25:V34">
+  <conditionalFormatting sqref="I24:P24 R24:V24 H25:P25 R25:V25 H26:P26 R26:V26 H27:P27 R27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:P31 R31:V31 H32:P32 R32:V32 H33:V34 Q24:Q32 H24:Q24">
     <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="min"/>
@@ -3101,12 +3599,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B747175E-7253-7761-B747-175E72537761}</x14:id>
+          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:V36">
+  <conditionalFormatting sqref="H36:V36 F36 H36:I36 G36:Q36">
     <cfRule type="dataBar" priority="451">
       <dataBar>
         <cfvo type="min"/>
@@ -3115,12 +3613,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}</x14:id>
+          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:V22">
+  <conditionalFormatting sqref="I22:P22 R22:V22 Q22">
     <cfRule type="dataBar" priority="452">
       <dataBar>
         <cfvo type="min"/>
@@ -3129,7 +3627,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}</x14:id>
+          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3143,7 +3641,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}</x14:id>
+          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3157,7 +3655,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174E-6242-6671-1757-174E62426671}</x14:id>
+          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3171,12 +3669,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}</x14:id>
+          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 F8:V12">
+  <conditionalFormatting sqref="F6:G7 F8:P8 R6:S12 T8:V8 F9:P9 R9 T9:V9 F10:P10 R10 T10:V10 F11:P11 R11 T11:V11 F12:P12 R12 T12:V12 Q6:Q12">
     <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="min"/>
@@ -3185,12 +3683,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2F6F3F76-5A79-5849-2F6F-3F765A795849}</x14:id>
+          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:V7">
+  <conditionalFormatting sqref="H6:P6 R6:S12 T6:V6 H7:P7 R7 T7:V7 Q6:Q12">
     <cfRule type="dataBar" priority="444">
       <dataBar>
         <cfvo type="min"/>
@@ -3199,12 +3697,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4727571E-3213-3B21-4727-571E32133B21}</x14:id>
+          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G24:Q24">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3213,21 +3711,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C383D39A-B697-B4A5-C383-D39AB697B4A5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}</x14:id>
+          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3251,12 +3735,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}</x14:id>
+          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:V12">
+  <conditionalFormatting sqref="H9:P9 R6:S12 T9:V9 H10:P10 R10 T10:V10 H11:P11 R11 T11:V11 H12:P12 R12 T12:V12 Q6:Q12">
     <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
@@ -3265,12 +3749,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F14:Q15">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -3279,12 +3763,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15 F15 F16:G20">
+  <conditionalFormatting sqref="F14:Q15 F16:G20">
     <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
@@ -3293,12 +3777,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+          <x14:id>{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:V20">
+  <conditionalFormatting sqref="H14:P14 R14:V14 H15:P15 R15:V15 H16:P16 R16:V16 H17:P17 R17:V17 H18:P18 R18:V18 H19:P19 R19:V19 H20:P20 R20:V20 Q14:Q20 G14:Q15">
     <cfRule type="dataBar" priority="457">
       <dataBar>
         <cfvo type="min"/>
@@ -3307,224 +3791,185 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+          <x14:id>{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6A2A7A33-1F3C-1D1C-6A2A-7A331F3C1D1C}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8BCB9BD2-FEDF-FCED-8BCB-9BD2FEDFFCED}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G25:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F4F1F56-7A5B-7869-2F4F-1F567A5B7869}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83C393DA-F6D7-F4E5-83C3-93DAF6D7F4E5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B747175E-7253-7761-B747-175E72537761}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I24:V24 H25:V34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9BDB8BC2-EECE-ECFD-9BDB-8BC2EECEECFD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36:V36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F5F8F46-6A4A-6879-1F5F-8F466A4A6879}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:V22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93D383CA-E6C6-E4F5-93D3-83CAE6C6E4F5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174E-6242-6671-1757-174E62426671}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ABEBBBF2-DEFD-DCCD-ABEB-BBF2DEFDDCCD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F6F3F76-5A79-5849-2F6F-3F765A795849}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G7 F8:V12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4727571E-3213-3B21-4727-571E32133B21}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:V7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C383D39A-B697-B4A5-C383-D39AB697B4A5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FBF5F16-3A1B-3829-4FBF-5F163A1B3829}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CB8BDB92-BE9F-BCAD-CB8B-DB92BE9FBCAD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H9:V12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G14:G15 F15 F16:G20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
-            <x14:dataBar minLength="0" maxLength="100">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H14:V20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\parkingmate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -149,162 +153,73 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF006100"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -330,187 +245,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -525,6 +267,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -537,6 +280,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -547,6 +291,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -559,377 +304,111 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="10" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="9" builtinId="10"/>
+  <cellStyles count="6">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
-    <cellStyle name="입력" xfId="16" builtinId="20"/>
-    <cellStyle name="제목" xfId="11" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="7" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -1015,6 +494,15 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1280,26 +768,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="22.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="23" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
+    <col min="7" max="22" width="10.625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="9" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -1353,85 +842,85 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F13,F21,F23,F35,F37)</f>
-        <v>0.0614285714285714</v>
+        <f t="shared" ref="F3:V3" si="0">AVERAGE(F13,F21,F23,F35,F37)</f>
+        <v>6.1428571428571423E-2</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G13,G21,G23,G35,G37)</f>
-        <v>0.0923896103896105</v>
+        <f t="shared" si="0"/>
+        <v>9.2389610389610397E-2</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H13,H21,H23,H35,H37)</f>
-        <v>0.115376623376623</v>
+        <f t="shared" si="0"/>
+        <v>0.11537662337662338</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I13,I21,I23,I35,I37)</f>
-        <v>0.167844155844156</v>
+        <f t="shared" si="0"/>
+        <v>0.16784415584415585</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J13,J21,J23,J35,J37)</f>
-        <v>0.253792207792208</v>
+        <f t="shared" si="0"/>
+        <v>0.25379220779220779</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K13,K21,K23,K35,K37)</f>
-        <v>0.316779220779221</v>
+        <f t="shared" si="0"/>
+        <v>0.31677922077922072</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L13,L21,L23,L35,L37)</f>
-        <v>0.38561038961039</v>
+        <f t="shared" si="0"/>
+        <v>0.38561038961038963</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M13,M21,M23,M35,M37)</f>
-        <v>0.439116883116883</v>
+        <f t="shared" si="0"/>
+        <v>0.43911688311688313</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N13,N21,N23,N35,N37)</f>
-        <v>0.514623376623377</v>
+        <f t="shared" si="0"/>
+        <v>0.51462337662337665</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O13,O21,O23,O35,O37)</f>
-        <v>0.617792207792208</v>
+        <f t="shared" si="0"/>
+        <v>0.61779220779220778</v>
       </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P13,P21,P23,P35,P37)</f>
-        <v>0.630649350649351</v>
+        <f t="shared" si="0"/>
+        <v>0.63064935064935068</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q13,Q21,Q23,Q35,Q37)</f>
-        <v>0.769220779220779</v>
+        <f t="shared" si="0"/>
+        <v>0.76922077922077925</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R13,R21,R23,R35,R37)</f>
-        <v>0.18</v>
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
       </c>
       <c r="S3" s="6">
-        <f>AVERAGE(S13,S21,S23,S35,S37)</f>
-        <v>0.181428571428571</v>
+        <f t="shared" si="0"/>
+        <v>0.18142857142857144</v>
       </c>
       <c r="T3" s="6">
-        <f>AVERAGE(T13,T21,T23,T35,T37)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16857142857142857</v>
       </c>
       <c r="U3" s="6">
-        <f>AVERAGE(U13,U21,U23,U35,U37)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="V3" s="6">
-        <f>AVERAGE(V13,V21,V23,V35,V37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="20.100000" customHeight="1">
+    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1492,7 +981,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="16.500000" customHeight="1">
+    <row r="6" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1546,18 +1035,18 @@
         <v>1</v>
       </c>
       <c r="T6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="16.500000" customHeight="1">
+    <row r="7" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
@@ -1614,9 +1103,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="16.150000" customHeight="1">
+    <row r="8" spans="2:22" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1664,18 +1153,18 @@
         <v>1</v>
       </c>
       <c r="T8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1723,18 +1212,18 @@
         <v>0.9</v>
       </c>
       <c r="T9" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="U9" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="V9" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1782,18 +1271,18 @@
         <v>0.95</v>
       </c>
       <c r="T10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1841,16 +1330,16 @@
         <v>0.95</v>
       </c>
       <c r="T11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
         <v>40</v>
@@ -1902,94 +1391,94 @@
         <v>0.95</v>
       </c>
       <c r="T12" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="U12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f>AVERAGE(F6:F12)</f>
-        <v>0.114285714285714</v>
+        <f t="shared" ref="F13:V13" si="1">AVERAGE(F6:F12)</f>
+        <v>0.1142857142857143</v>
       </c>
       <c r="G13" s="6">
-        <f>AVERAGE(G6:G12)</f>
-        <v>0.128571428571429</v>
+        <f t="shared" si="1"/>
+        <v>0.12857142857142859</v>
       </c>
       <c r="H13" s="6">
-        <f>AVERAGE(H6:H12)</f>
-        <v>0.171428571428571</v>
+        <f t="shared" si="1"/>
+        <v>0.17142857142857143</v>
       </c>
       <c r="I13" s="6">
-        <f>AVERAGE(I6:I12)</f>
-        <v>0.371428571428571</v>
+        <f t="shared" si="1"/>
+        <v>0.37142857142857144</v>
       </c>
       <c r="J13" s="6">
-        <f>AVERAGE(J6:J12)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="K13" s="6">
-        <f>AVERAGE(K6:K12)</f>
-        <v>0.614285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.61428571428571421</v>
       </c>
       <c r="L13" s="6">
-        <f>AVERAGE(L6:L12)</f>
-        <v>0.642857142857143</v>
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M13" s="6">
-        <f>AVERAGE(M6:M12)</f>
-        <v>0.714285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N13" s="6">
-        <f>AVERAGE(N6:N12)</f>
-        <v>0.742857142857143</v>
+        <f t="shared" si="1"/>
+        <v>0.74285714285714288</v>
       </c>
       <c r="O13" s="6">
-        <f>AVERAGE(O6:O12)</f>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
       </c>
       <c r="P13" s="6">
-        <f>AVERAGE(P6:P12)</f>
-        <v>0.864285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.86428571428571443</v>
       </c>
       <c r="Q13" s="6">
-        <f>AVERAGE(Q6:Q12)</f>
-        <v>0.864285714285714</v>
+        <f t="shared" si="1"/>
+        <v>0.86428571428571443</v>
       </c>
       <c r="R13" s="6">
-        <f>AVERAGE(R6:R12)</f>
-        <v>0.9</v>
+        <f t="shared" si="1"/>
+        <v>0.90000000000000013</v>
       </c>
       <c r="S13" s="6">
-        <f>AVERAGE(S6:S12)</f>
-        <v>0.907142857142857</v>
+        <f t="shared" si="1"/>
+        <v>0.90714285714285725</v>
       </c>
       <c r="T13" s="6">
-        <f>AVERAGE(T6:T12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.84285714285714286</v>
       </c>
       <c r="U13" s="6">
-        <f>AVERAGE(U6:U12)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.85</v>
       </c>
       <c r="V13" s="6">
-        <f>AVERAGE(V6:V12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="18" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -2048,9 +1537,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
-      <c r="B15" s="19"/>
-      <c r="C15" s="22"/>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="23"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +1569,7 @@
         <v>0.45</v>
       </c>
       <c r="N15" s="9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O15" s="9">
         <v>0.6</v>
@@ -2107,9 +1596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
-      <c r="B16" s="19"/>
-      <c r="C16" s="22"/>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2166,9 +1655,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
-      <c r="B17" s="19"/>
-      <c r="C17" s="22"/>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="23"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2201,13 +1690,13 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P17" s="9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
@@ -2225,9 +1714,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:22">
-      <c r="B18" s="19"/>
-      <c r="C18" s="22"/>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2284,9 +1773,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
-      <c r="B19" s="19"/>
-      <c r="C19" s="22"/>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="23"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
@@ -2343,9 +1832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="19"/>
-      <c r="C20" s="22"/>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="10" t="s">
         <v>19</v>
       </c>
@@ -2402,85 +1891,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="20"/>
-      <c r="C21" s="23"/>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f>AVERAGE(F14:F20)</f>
-        <v>0.0428571428571429</v>
+        <f t="shared" ref="F21:V21" si="2">AVERAGE(F14:F20)</f>
+        <v>4.2857142857142858E-2</v>
       </c>
       <c r="G21" s="6">
-        <f>AVERAGE(G14:G20)</f>
-        <v>0.0742857142857143</v>
+        <f t="shared" si="2"/>
+        <v>7.4285714285714288E-2</v>
       </c>
       <c r="H21" s="6">
-        <f>AVERAGE(H14:H20)</f>
-        <v>0.06</v>
+        <f t="shared" si="2"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="I21" s="6">
-        <f>AVERAGE(I14:I20)</f>
-        <v>0.0814285714285714</v>
+        <f t="shared" si="2"/>
+        <v>8.142857142857142E-2</v>
       </c>
       <c r="J21" s="6">
-        <f>AVERAGE(J14:J20)</f>
-        <v>0.107142857142857</v>
+        <f t="shared" si="2"/>
+        <v>0.10714285714285714</v>
       </c>
       <c r="K21" s="6">
-        <f>AVERAGE(K14:K20)</f>
-        <v>0.171428571428571</v>
+        <f t="shared" si="2"/>
+        <v>0.17142857142857143</v>
       </c>
       <c r="L21" s="6">
-        <f>AVERAGE(L14:L20)</f>
-        <v>0.214285714285714</v>
+        <f t="shared" si="2"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="M21" s="6">
-        <f>AVERAGE(M14:M20)</f>
-        <v>0.228571428571429</v>
+        <f t="shared" si="2"/>
+        <v>0.22857142857142859</v>
       </c>
       <c r="N21" s="6">
-        <f>AVERAGE(N14:N20)</f>
-        <v>0.395714285714286</v>
+        <f t="shared" si="2"/>
+        <v>0.39571428571428574</v>
       </c>
       <c r="O21" s="6">
-        <f>AVERAGE(O14:O20)</f>
-        <v>0.457142857142857</v>
+        <f t="shared" si="2"/>
+        <v>0.45714285714285718</v>
       </c>
       <c r="P21" s="6">
-        <f>AVERAGE(P14:P20)</f>
-        <v>0.457142857142857</v>
+        <f t="shared" si="2"/>
+        <v>0.45714285714285718</v>
       </c>
       <c r="Q21" s="6">
-        <f>AVERAGE(Q14:Q20)</f>
-        <v>0.55</v>
+        <f t="shared" si="2"/>
+        <v>0.54999999999999993</v>
       </c>
       <c r="R21" s="6">
-        <f>AVERAGE(R14:R20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S21" s="6">
-        <f>AVERAGE(S14:S20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T21" s="6">
-        <f>AVERAGE(T14:T20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U21" s="6">
-        <f>AVERAGE(U14:U20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V21" s="6">
-        <f>AVERAGE(V14:V20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2539,81 +2028,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6">
-        <f>AVERAGE(F22:F22)</f>
+        <f t="shared" ref="F23:V23" si="3">AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
       <c r="G23" s="6">
-        <f>AVERAGE(G22:G22)</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H23" s="6">
-        <f>AVERAGE(H22:H22)</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="I23" s="6">
-        <f>AVERAGE(I22:I22)</f>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="J23" s="6">
-        <f>AVERAGE(J22:J22)</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K23" s="6">
-        <f>AVERAGE(K22:K22)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="L23" s="6">
-        <f>AVERAGE(L22:L22)</f>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="M23" s="6">
-        <f>AVERAGE(M22:M22)</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="N23" s="6">
-        <f>AVERAGE(N22:N22)</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="O23" s="6">
-        <f>AVERAGE(O22:O22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P23" s="6">
-        <f>AVERAGE(P22:P22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q23" s="6">
-        <f>AVERAGE(Q22:Q22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R23" s="6">
-        <f>AVERAGE(R22:R22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S23" s="6">
-        <f>AVERAGE(S22:S22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T23" s="6">
-        <f>AVERAGE(T22:T22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U23" s="6">
-        <f>AVERAGE(U22:U22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V23" s="6">
-        <f>AVERAGE(V22:V22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>9</v>
       </c>
@@ -2676,9 +2165,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="14"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
@@ -2735,9 +2224,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
-      <c r="C26" s="22"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
         <v>23</v>
       </c>
@@ -2794,9 +2283,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14"/>
-      <c r="C27" s="22"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="7" t="s">
         <v>24</v>
       </c>
@@ -2853,9 +2342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
         <v>25</v>
       </c>
@@ -2912,9 +2401,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
-      <c r="C29" s="22"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
         <v>26</v>
       </c>
@@ -2971,9 +2460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="14"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="7" t="s">
         <v>27</v>
       </c>
@@ -3030,9 +2519,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="14"/>
-      <c r="C31" s="22"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>28</v>
       </c>
@@ -3089,9 +2578,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
@@ -3148,9 +2637,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:22">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="14"/>
-      <c r="C33" s="22"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -3207,9 +2696,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:22">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="14"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>31</v>
       </c>
@@ -3266,85 +2755,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:22">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
-      <c r="C35" s="23"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6">
-        <f>AVERAGE(F24:F34)</f>
+        <f t="shared" ref="F35:V35" si="4">AVERAGE(F24:F34)</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f>AVERAGE(G24:G34)</f>
-        <v>0.00909090909090909</v>
+        <f t="shared" si="4"/>
+        <v>9.0909090909090922E-3</v>
       </c>
       <c r="H35" s="6">
-        <f>AVERAGE(H24:H34)</f>
-        <v>0.0454545454545455</v>
+        <f t="shared" si="4"/>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="I35" s="6">
-        <f>AVERAGE(I24:I34)</f>
-        <v>0.0363636363636364</v>
+        <f t="shared" si="4"/>
+        <v>3.6363636363636369E-2</v>
       </c>
       <c r="J35" s="6">
-        <f>AVERAGE(J24:J34)</f>
-        <v>0.0818181818181818</v>
+        <f t="shared" si="4"/>
+        <v>8.1818181818181804E-2</v>
       </c>
       <c r="K35" s="6">
-        <f>AVERAGE(K24:K34)</f>
-        <v>0.118181818181818</v>
+        <f t="shared" si="4"/>
+        <v>0.11818181818181818</v>
       </c>
       <c r="L35" s="6">
-        <f>AVERAGE(L24:L34)</f>
-        <v>0.190909090909091</v>
+        <f t="shared" si="4"/>
+        <v>0.19090909090909092</v>
       </c>
       <c r="M35" s="6">
-        <f>AVERAGE(M24:M34)</f>
-        <v>0.272727272727273</v>
+        <f t="shared" si="4"/>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N35" s="6">
-        <f>AVERAGE(N24:N34)</f>
-        <v>0.354545454545455</v>
+        <f t="shared" si="4"/>
+        <v>0.35454545454545455</v>
       </c>
       <c r="O35" s="6">
-        <f>AVERAGE(O24:O34)</f>
-        <v>0.431818181818182</v>
+        <f t="shared" si="4"/>
+        <v>0.43181818181818182</v>
       </c>
       <c r="P35" s="6">
-        <f>AVERAGE(P24:P34)</f>
-        <v>0.431818181818182</v>
+        <f t="shared" si="4"/>
+        <v>0.43181818181818182</v>
       </c>
       <c r="Q35" s="6">
-        <f>AVERAGE(Q24:Q34)</f>
-        <v>0.431818181818182</v>
+        <f t="shared" si="4"/>
+        <v>0.43181818181818182</v>
       </c>
       <c r="R35" s="6">
-        <f>AVERAGE(R24:R34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S35" s="6">
-        <f>AVERAGE(S24:S34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T35" s="6">
-        <f>AVERAGE(T24:T34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U35" s="6">
-        <f>AVERAGE(U24:U34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V35" s="6">
-        <f>AVERAGE(V24:V34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -3403,119 +2892,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:22">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
-      <c r="C37" s="23"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="7"/>
       <c r="F37" s="6">
-        <f>AVERAGE(F36:F36)</f>
+        <f t="shared" ref="F37:V37" si="5">AVERAGE(F36:F36)</f>
         <v>0.05</v>
       </c>
       <c r="G37" s="6">
-        <f>AVERAGE(G36:G36)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="H37" s="6">
-        <f>AVERAGE(H36:H36)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="I37" s="6">
-        <f>AVERAGE(I36:I36)</f>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="J37" s="6">
-        <f>AVERAGE(J36:J36)</f>
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
       <c r="K37" s="6">
-        <f>AVERAGE(K36:K36)</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="L37" s="6">
-        <f>AVERAGE(L36:L36)</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="M37" s="6">
-        <f>AVERAGE(M36:M36)</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="N37" s="6">
-        <f>AVERAGE(N36:N36)</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="O37" s="6">
-        <f>AVERAGE(O36:O36)</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="P37" s="6">
-        <f>AVERAGE(P36:P36)</f>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="Q37" s="6">
-        <f>AVERAGE(Q36:Q36)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R37" s="6">
-        <f>AVERAGE(R36:R36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S37" s="6">
-        <f>AVERAGE(S36:S36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T37" s="6">
-        <f>AVERAGE(T36:T36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U37" s="6">
-        <f>AVERAGE(U36:U36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V37" s="6">
-        <f>AVERAGE(V36:V36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="2:22">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:22">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:22">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:22">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:22">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:22">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="C24:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C14:C21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
@@ -3557,7 +3046,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3571,7 +3060,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3585,7 +3074,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3599,7 +3088,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3613,7 +3102,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
+          <x14:id>{6727773E-1231-1DC1-6727-773E12311DC1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3627,7 +3116,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
+          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3655,7 +3144,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
+          <x14:id>{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3669,7 +3158,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
+          <x14:id>{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3683,7 +3172,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
+          <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3697,7 +3186,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
+          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3711,7 +3200,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
+          <x14:id>{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3735,7 +3224,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
+          <x14:id>{79491956-7C4C-7E6F-7949-19567C4C7E6F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3749,7 +3238,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
+          <x14:id>{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3777,7 +3266,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}</x14:id>
+          <x14:id>{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3791,185 +3280,202 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}</x14:id>
+          <x14:id>{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F24:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G25:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F36:Q36 H36:I36 H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>I24:P24 R24:V24 H25:P25 R25:V25 H26:P26 R26:V26 H27:P27 R27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:P31 R31:V31 H32:P32 R32:V32 H33:V34 Q24:Q32 H24:Q24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H36:V36 F36 H36:I36 G36:Q36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>I22:P22 R22:V22 Q22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F6:G7 F8:P8 R6:S12 T8:V8 F9:P9 R9 T9:V9 F10:P10 R10 T10:V10 F11:P11 R11 T11:V11 F12:P12 R12 T12:V12 Q6:Q12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H6:P6 R6:S12 T6:V6 H7:P7 R7 T7:V7 Q6:Q12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G24:Q24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{79491956-7C4C-7E6F-7949-19567C4C7E6F}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H9:P9 R6:S12 T9:V9 H10:P10 R10 T10:V10 H11:P11 R11 T11:V11 H12:P12 R12 T12:V12 Q6:Q12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F14:Q15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>F14:Q15 F16:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+          <x14:cfRule type="dataBar" id="{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}">
+            <x14:dataBar minLength="0" maxLength="100">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>H14:P14 R14:V14 H15:P15 R15:V15 H16:P16 R16:V16 H17:P17 R17:V17 H18:P18 R18:V18 H19:P19 R19:V19 H20:P20 R20:V20 Q14:Q20 G14:Q15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen5_3600\Desktop\parkingmate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="510" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
@@ -153,73 +156,162 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -245,14 +337,187 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -267,7 +532,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -280,7 +544,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -291,7 +554,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -304,111 +566,386 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="10" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="9" builtinId="10"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="6" builtinId="3"/>
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="입력" xfId="16" builtinId="20"/>
+    <cellStyle name="제목" xfId="11" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="7" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="8" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="4" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -494,15 +1031,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -768,27 +1296,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView topLeftCell="D1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
-    <col min="7" max="22" width="10.625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="4"/>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="22.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="23" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45157</v>
@@ -842,85 +1369,85 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:V3" si="0">AVERAGE(F13,F21,F23,F35,F37)</f>
-        <v>6.1428571428571423E-2</v>
+        <f>AVERAGE(F13,F21,F24,F35,F37)</f>
+        <v>0.0614285714285714</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>9.2389610389610397E-2</v>
+        <f>AVERAGE(G13,G21,G24,G35,G37)</f>
+        <v>0.0925714285714286</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.11537662337662338</v>
+        <f>AVERAGE(H13,H21,H24,H35,H37)</f>
+        <v>0.116285714285714</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16784415584415585</v>
+        <f>AVERAGE(I13,I21,I24,I35,I37)</f>
+        <v>0.168571428571429</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25379220779220779</v>
+        <f>AVERAGE(J13,J21,J24,J35,J37)</f>
+        <v>0.255428571428571</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.31677922077922072</v>
+        <f>AVERAGE(K13,K21,K24,K35,K37)</f>
+        <v>0.319142857142857</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.38561038961038963</v>
+        <f>AVERAGE(L13,L21,L24,L35,L37)</f>
+        <v>0.389428571428571</v>
       </c>
       <c r="M3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.43911688311688313</v>
+        <f>AVERAGE(M13,M21,M24,M35,M37)</f>
+        <v>0.444571428571429</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.51462337662337665</v>
+        <f>AVERAGE(N13,N21,N24,N35,N37)</f>
+        <v>0.521714285714286</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.61779220779220778</v>
+        <f>AVERAGE(O13,O21,O24,O35,O37)</f>
+        <v>0.626428571428572</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.63064935064935068</v>
+        <f>AVERAGE(P13,P21,P24,P35,P37)</f>
+        <v>0.639285714285714</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.76922077922077925</v>
+        <f>AVERAGE(Q13,Q21,Q24,Q35,Q37)</f>
+        <v>0.777857142857143</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18000000000000002</v>
+        <f>AVERAGE(R13,R21,R24,R35,R37)</f>
+        <v>0.820285714285715</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18142857142857144</v>
+        <f>AVERAGE(S13,S21,S24,S35,S37)</f>
+        <v>0.744857142857143</v>
       </c>
       <c r="T3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16857142857142857</v>
+        <f>AVERAGE(T13,T21,T24,T35,T37)</f>
+        <v>0.772857142857143</v>
       </c>
       <c r="U3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16999999999999998</v>
+        <f>AVERAGE(U13,U21,U24,U35,U37)</f>
+        <v>0.814571428571429</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V13,V21,V24,V35,V37)</f>
+        <v>0.841714285714286</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
       <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -981,7 +1508,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" ht="16.500000" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1041,12 +1568,12 @@
         <v>1</v>
       </c>
       <c r="V6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="16.500000" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
@@ -1094,18 +1621,18 @@
         <v>0.6</v>
       </c>
       <c r="T7" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="16.150000" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="20"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
@@ -1159,12 +1686,12 @@
         <v>1</v>
       </c>
       <c r="V8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
       <c r="B9" s="14"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1218,12 +1745,12 @@
         <v>0.95</v>
       </c>
       <c r="V9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
       <c r="B10" s="14"/>
-      <c r="C10" s="20"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1277,12 +1804,12 @@
         <v>1</v>
       </c>
       <c r="V10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
       <c r="B11" s="14"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1336,10 +1863,10 @@
         <v>1</v>
       </c>
       <c r="V11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
         <v>40</v>
@@ -1397,85 +1924,85 @@
         <v>1</v>
       </c>
       <c r="V12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
       <c r="B13" s="15"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:V13" si="1">AVERAGE(F6:F12)</f>
-        <v>0.1142857142857143</v>
+        <f>AVERAGE(F6:F12)</f>
+        <v>0.114285714285714</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.12857142857142859</v>
+        <f>AVERAGE(G6:G12)</f>
+        <v>0.128571428571429</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.17142857142857143</v>
+        <f>AVERAGE(H6:H12)</f>
+        <v>0.171428571428571</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.37142857142857144</v>
+        <f>AVERAGE(I6:I12)</f>
+        <v>0.371428571428571</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(J6:J12)</f>
         <v>0.6</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.61428571428571421</v>
+        <f>AVERAGE(K6:K12)</f>
+        <v>0.614285714285714</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.6428571428571429</v>
+        <f>AVERAGE(L6:L12)</f>
+        <v>0.642857142857143</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <f>AVERAGE(M6:M12)</f>
+        <v>0.714285714285714</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.74285714285714288</v>
+        <f>AVERAGE(N6:N12)</f>
+        <v>0.742857142857143</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.79999999999999993</v>
+        <f>AVERAGE(O6:O12)</f>
+        <v>0.8</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.86428571428571443</v>
+        <f>AVERAGE(P6:P12)</f>
+        <v>0.864285714285714</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.86428571428571443</v>
+        <f>AVERAGE(Q6:Q12)</f>
+        <v>0.864285714285714</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.90000000000000013</v>
+        <f>AVERAGE(R6:R12)</f>
+        <v>0.9</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.90714285714285725</v>
+        <f>AVERAGE(S6:S12)</f>
+        <v>0.907142857142857</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.84285714285714286</v>
+        <f>AVERAGE(T6:T12)</f>
+        <v>0.957142857142857</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.85</v>
+        <f>AVERAGE(U6:U12)</f>
+        <v>0.964285714285714</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+        <f>AVERAGE(V6:V12)</f>
+        <v>0.978571428571429</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -1522,23 +2049,23 @@
         <v>0.6</v>
       </c>
       <c r="R14" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S14" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T14" s="9">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="U14" s="9">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="V14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="22"/>
       <c r="C15" s="17"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1569,7 +2096,7 @@
         <v>0.45</v>
       </c>
       <c r="N15" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="O15" s="9">
         <v>0.6</v>
@@ -1581,23 +2108,23 @@
         <v>0.6</v>
       </c>
       <c r="R15" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S15" s="9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="T15" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U15" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="V15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="22"/>
       <c r="C16" s="17"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
@@ -1640,23 +2167,23 @@
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S16" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T16" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="U16" s="9">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="V16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="22"/>
       <c r="C17" s="17"/>
       <c r="D17" s="10" t="s">
         <v>16</v>
@@ -1690,32 +2217,32 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="P17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="R17" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S17" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="T17" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="U17" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="V17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="22"/>
       <c r="C18" s="17"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
@@ -1758,23 +2285,23 @@
         <v>0.8</v>
       </c>
       <c r="R18" s="9">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="S18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="22"/>
       <c r="C19" s="17"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
@@ -1817,23 +2344,23 @@
         <v>0.5</v>
       </c>
       <c r="R19" s="9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S19" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T19" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="U19" s="9">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="V19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="22"/>
       <c r="C20" s="17"/>
       <c r="D20" s="10" t="s">
         <v>19</v>
@@ -1876,100 +2403,100 @@
         <v>0.8</v>
       </c>
       <c r="R20" s="9">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="23"/>
       <c r="C21" s="18"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
-        <f t="shared" ref="F21:V21" si="2">AVERAGE(F14:F20)</f>
-        <v>4.2857142857142858E-2</v>
+        <f>AVERAGE(F14:F20)</f>
+        <v>0.0428571428571429</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
-        <v>7.4285714285714288E-2</v>
+        <f>AVERAGE(G14:G20)</f>
+        <v>0.0742857142857143</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
-        <v>6.0000000000000005E-2</v>
+        <f>AVERAGE(H14:H20)</f>
+        <v>0.06</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="2"/>
-        <v>8.142857142857142E-2</v>
+        <f>AVERAGE(I14:I20)</f>
+        <v>0.0814285714285714</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.10714285714285714</v>
+        <f>AVERAGE(J14:J20)</f>
+        <v>0.107142857142857</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.17142857142857143</v>
+        <f>AVERAGE(K14:K20)</f>
+        <v>0.171428571428571</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
+        <f>AVERAGE(L14:L20)</f>
+        <v>0.214285714285714</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.22857142857142859</v>
+        <f>AVERAGE(M14:M20)</f>
+        <v>0.228571428571429</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.39571428571428574</v>
+        <f>AVERAGE(N14:N20)</f>
+        <v>0.395714285714286</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.45714285714285718</v>
+        <f>AVERAGE(O14:O20)</f>
+        <v>0.457142857142857</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.45714285714285718</v>
+        <f>AVERAGE(P14:P20)</f>
+        <v>0.457142857142857</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="2"/>
-        <v>0.54999999999999993</v>
+        <f>AVERAGE(Q14:Q20)</f>
+        <v>0.55</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(R14:R20)</f>
+        <v>0.711428571428571</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(S14:S20)</f>
+        <v>0.807142857142857</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(T14:T20)</f>
+        <v>0.897142857142857</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>AVERAGE(U14:U20)</f>
+        <v>0.958571428571429</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V14:V20)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -2013,185 +2540,161 @@
         <v>1</v>
       </c>
       <c r="R22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="14"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="6">
-        <f t="shared" ref="F23:V23" si="3">AVERAGE(F22:F22)</f>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="15"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6">
+        <f>AVERAGE(F22:F22)</f>
         <v>0.1</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="3"/>
+      <c r="G24" s="6">
+        <f>AVERAGE(G22:G22)</f>
         <v>0.2</v>
       </c>
-      <c r="H23" s="6">
-        <f t="shared" si="3"/>
+      <c r="H24" s="6">
+        <f>AVERAGE(H22:H22)</f>
         <v>0.25</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" si="3"/>
+      <c r="I24" s="6">
+        <f>AVERAGE(I22:I22)</f>
         <v>0.3</v>
       </c>
-      <c r="J23" s="6">
-        <f t="shared" si="3"/>
+      <c r="J24" s="6">
+        <f>AVERAGE(J22:J22)</f>
         <v>0.4</v>
       </c>
-      <c r="K23" s="6">
-        <f t="shared" si="3"/>
+      <c r="K24" s="6">
+        <f>AVERAGE(K22:K22)</f>
         <v>0.5</v>
       </c>
-      <c r="L23" s="6">
-        <f t="shared" si="3"/>
+      <c r="L24" s="6">
+        <f>AVERAGE(L22:L22)</f>
         <v>0.7</v>
       </c>
-      <c r="M23" s="6">
-        <f t="shared" si="3"/>
+      <c r="M24" s="6">
+        <f>AVERAGE(M22:M22)</f>
         <v>0.8</v>
       </c>
-      <c r="N23" s="6">
-        <f t="shared" si="3"/>
+      <c r="N24" s="6">
+        <f>AVERAGE(N22:N22)</f>
         <v>0.9</v>
       </c>
-      <c r="O23" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="O24" s="6">
+        <f>AVERAGE(O22:O22)</f>
+        <v>1</v>
+      </c>
+      <c r="P24" s="6">
+        <f>AVERAGE(P22:P22)</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>AVERAGE(Q22:Q22)</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
+        <f>AVERAGE(R22:R22)</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
+        <f>AVERAGE(S22:S23)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T24" s="6">
+        <f>AVERAGE(T22:T23)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U24" s="6">
+        <f>AVERAGE(U22:U23)</f>
+        <v>0.6</v>
+      </c>
+      <c r="V24" s="6">
+        <f>AVERAGE(V22:V23)</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="P24" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <v>0</v>
-      </c>
-      <c r="U24" s="9">
-        <v>0</v>
-      </c>
-      <c r="V24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
         <v>0</v>
       </c>
       <c r="G25" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I25" s="9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J25" s="9">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K25" s="9">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="L25" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="M25" s="9">
         <v>0.9</v>
@@ -2209,26 +2712,26 @@
         <v>0.95</v>
       </c>
       <c r="R25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26" s="14"/>
       <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -2241,22 +2744,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J26" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K26" s="9">
         <v>0.3</v>
       </c>
       <c r="L26" s="9">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M26" s="9">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="N26" s="9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="O26" s="9">
         <v>0.95</v>
@@ -2268,26 +2771,26 @@
         <v>0.95</v>
       </c>
       <c r="R26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27" s="14"/>
       <c r="C27" s="17"/>
       <c r="D27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
@@ -2306,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L27" s="9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M27" s="9">
         <v>0.4</v>
@@ -2327,26 +2830,26 @@
         <v>0.95</v>
       </c>
       <c r="R27" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="S27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
       <c r="B28" s="14"/>
       <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9">
@@ -2368,44 +2871,44 @@
         <v>0</v>
       </c>
       <c r="L28" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M28" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N28" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O28" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="P28" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q28" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R28" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="S28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
       <c r="B29" s="14"/>
       <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
@@ -2460,11 +2963,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22">
       <c r="B30" s="14"/>
       <c r="C30" s="17"/>
       <c r="D30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -2516,14 +3019,14 @@
         <v>0</v>
       </c>
       <c r="V30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
       <c r="B31" s="14"/>
       <c r="C31" s="17"/>
       <c r="D31" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -2578,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22">
       <c r="B32" s="14"/>
       <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
@@ -2622,22 +3125,22 @@
         <v>0.95</v>
       </c>
       <c r="R32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
       <c r="B33" s="14"/>
       <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
@@ -2696,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22">
       <c r="B34" s="14"/>
       <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
@@ -2743,93 +3246,93 @@
         <v>0</v>
       </c>
       <c r="S34" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T34" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U34" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
       <c r="B35" s="15"/>
       <c r="C35" s="18"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="6">
-        <f t="shared" ref="F35:V35" si="4">AVERAGE(F24:F34)</f>
+        <f>AVERAGE(F25:F34)</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="4"/>
-        <v>9.0909090909090922E-3</v>
+        <f>AVERAGE(G25:G34)</f>
+        <v>0.01</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
+        <f>AVERAGE(H25:H34)</f>
+        <v>0.05</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="4"/>
-        <v>3.6363636363636369E-2</v>
+        <f>AVERAGE(I25:I34)</f>
+        <v>0.04</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="4"/>
-        <v>8.1818181818181804E-2</v>
+        <f>AVERAGE(J25:J34)</f>
+        <v>0.09</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.11818181818181818</v>
+        <f>AVERAGE(K25:K34)</f>
+        <v>0.13</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.19090909090909092</v>
+        <f>AVERAGE(L25:L34)</f>
+        <v>0.21</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.27272727272727271</v>
+        <f>AVERAGE(M25:M34)</f>
+        <v>0.3</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.35454545454545455</v>
+        <f>AVERAGE(N25:N34)</f>
+        <v>0.39</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.43181818181818182</v>
+        <f>AVERAGE(O25:O34)</f>
+        <v>0.475</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.43181818181818182</v>
+        <f>AVERAGE(P25:P34)</f>
+        <v>0.475</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="4"/>
-        <v>0.43181818181818182</v>
+        <f>AVERAGE(Q25:Q34)</f>
+        <v>0.475</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>AVERAGE(R25:R34)</f>
+        <v>0.49</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>AVERAGE(S25:S34)</f>
+        <v>0.51</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>AVERAGE(T25:T34)</f>
+        <v>0.51</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>AVERAGE(U25:U34)</f>
+        <v>0.55</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V25:V34)</f>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
       <c r="B36" s="13" t="s">
         <v>10</v>
       </c>
@@ -2877,168 +3380,180 @@
         <v>1</v>
       </c>
       <c r="R36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" s="15"/>
       <c r="C37" s="18"/>
       <c r="D37" s="7"/>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:V37" si="5">AVERAGE(F36:F36)</f>
+        <f>AVERAGE(F36:F36)</f>
         <v>0.05</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(G36:G36)</f>
         <v>0.05</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(H36:H36)</f>
         <v>0.05</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(I36:I36)</f>
         <v>0.05</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(J36:J36)</f>
         <v>0.08</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(K36:K36)</f>
         <v>0.18</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(L36:L36)</f>
         <v>0.18</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(M36:M36)</f>
         <v>0.18</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(N36:N36)</f>
         <v>0.18</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(O36:O36)</f>
         <v>0.4</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(P36:P36)</f>
         <v>0.4</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(Q36:Q36)</f>
         <v>1</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>AVERAGE(R36:R36)</f>
+        <v>1</v>
       </c>
       <c r="S37" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>AVERAGE(S36:S36)</f>
+        <v>1</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>AVERAGE(T36:T36)</f>
+        <v>1</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>AVERAGE(U36:U36)</f>
+        <v>1</v>
       </c>
       <c r="V37" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+        <f>AVERAGE(V36:V36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="2:22">
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22">
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22">
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22">
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22">
       <c r="E44" s="8"/>
       <c r="F44" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
+  <mergeCells count="9">
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C14:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B35"/>
+    <mergeCell ref="C25:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
-    <cfRule type="cellIs" dxfId="7" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D30">
-    <cfRule type="cellIs" dxfId="6" priority="91" operator="equal">
+  <conditionalFormatting sqref="B25:D31">
+    <cfRule type="cellIs" dxfId="6" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:E22">
-    <cfRule type="cellIs" dxfId="5" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:E36">
-    <cfRule type="cellIs" dxfId="4" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D34">
-    <cfRule type="cellIs" dxfId="3" priority="92" operator="equal">
+  <conditionalFormatting sqref="D23 D32:D34">
+    <cfRule type="cellIs" dxfId="3" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="2" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="445" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F34">
-    <cfRule type="dataBar" priority="430">
+  <conditionalFormatting sqref="F25:F34">
+    <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3046,13 +3561,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717478E-22D2-2A31-5717-478E22D22A31}</x14:id>
+          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G34">
-    <cfRule type="dataBar" priority="431">
+  <conditionalFormatting sqref="G26:G34">
+    <cfRule type="dataBar" priority="447">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3060,13 +3575,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D393C38A-A686-A4B5-D393-C38AA686A4B5}</x14:id>
+          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:Q36 H36:I36 H36">
-    <cfRule type="dataBar" priority="437">
+  <conditionalFormatting sqref="F36:V36 H36:I36">
+    <cfRule type="dataBar" priority="455">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3074,12 +3589,162 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}</x14:id>
+          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:P24 R24:V24 H25:P25 R25:V25 H26:P26 R26:V26 H27:P27 R27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:P31 R31:V31 H32:P32 R32:V32 H33:V34 Q24:Q32 H24:Q24">
+  <conditionalFormatting sqref="H25:P25 Q25:Q31 R25:S25 T25:V28 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:S28 U28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:P31 R31:V31 H32:V34">
+    <cfRule type="dataBar" priority="474">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:V36 H36:V36">
+    <cfRule type="dataBar" priority="477">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:V22 R23:V23">
+    <cfRule type="dataBar" priority="478">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G7 Q6:S12 V6:V12 F8:P8 T8:U8 F9:P9 R9 T9:U9 F10:P10 R10 T10:U10 F11:P11 R11 T11:U11 F12:P12 R12 T12:U12">
+    <cfRule type="dataBar" priority="456">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:P6 Q6:S12 T6:U6 V6:V12 H7:P7 R7 T7:U7">
+    <cfRule type="dataBar" priority="458">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:Q25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10 E9:E10">
+    <cfRule type="cellIs" dxfId="1" priority="185" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D12">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G12">
+    <cfRule type="dataBar" priority="396">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:S12 V6:V12 H9:P9 T9:U9 H10:P10 R10 T10:U10 H11:P11 R11 T11:U11 H12:P12 R12 T12:U12">
     <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="min"/>
@@ -3088,162 +3753,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:V36 F36 H36:I36 G36:Q36">
-    <cfRule type="dataBar" priority="451">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773E-1231-1DC1-6727-773E12311DC1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:P22 R22:V22 Q22">
-    <cfRule type="dataBar" priority="452">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 F8:P8 R6:S12 T8:V8 F9:P9 R9 T9:V9 F10:P10 R10 T10:V10 F11:P11 R11 T11:V11 F12:P12 R12 T12:V12 Q6:Q12">
-    <cfRule type="dataBar" priority="443">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:P6 R6:S12 T6:V6 H7:P7 R7 T7:V7 Q6:Q12">
-    <cfRule type="dataBar" priority="444">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1411158-7444-7667-E141-115874447667}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:Q24">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10 E9:E10">
-    <cfRule type="cellIs" dxfId="1" priority="181" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D12">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G12">
-    <cfRule type="dataBar" priority="394">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79491956-7C4C-7E6F-7949-19567C4C7E6F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:P9 R6:S12 T9:V9 H10:P10 R10 T10:V10 H11:P11 R11 T11:V11 H12:P12 R12 T12:V12 Q6:Q12">
-    <cfRule type="dataBar" priority="446">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:Q15">
+  <conditionalFormatting sqref="F14:Q15 R14:V20">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -3252,12 +3767,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:Q15 F16:G20">
+  <conditionalFormatting sqref="F14:Q15 R14:V20 F16:G20">
     <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
@@ -3266,12 +3781,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}</x14:id>
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:P14 R14:V14 H15:P15 R15:V15 H16:P16 R16:V16 H17:P17 R17:V17 H18:P18 R18:V18 H19:P19 R19:V19 H20:P20 R20:V20 Q14:Q20 G14:Q15">
+  <conditionalFormatting sqref="G14:Q15 H14:P14 Q14:V20 S14:V14 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19 H20:P20 S20:V20">
     <cfRule type="dataBar" priority="457">
       <dataBar>
         <cfvo type="min"/>
@@ -3280,202 +3795,186 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}</x14:id>
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717478E-22D2-2A31-5717-478E22D22A31}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F24:F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D393C38A-A686-A4B5-D393-C38AA686A4B5}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G25:G34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5F1F4F16-2A4A-2839-5F1F-4F162A4A2839}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F36:Q36 H36:I36 H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB9BCB82-AE8E-ACBD-DB9B-CB82AE8EACBD}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I24:P24 R24:V24 H25:P25 R25:V25 H26:P26 R26:V26 H27:P27 R27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:P31 R31:V31 H32:P32 R32:V32 H33:V34 Q24:Q32 H24:Q24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773E-1231-1DC1-6727-773E12311DC1}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H36:V36 F36 H36:I36 G36:Q36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E3A3F3BA-96B5-9485-E3A3-F3BA96B59485}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:P22 R22:V22 Q22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95D585CC-E3D1-E2F3-95D5-85CCE3D1E2F3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1959D947-6C5D-6E7F-1959-D9476C5D6E7F}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9DDD8DC4-E8D9-EAFB-9DDD-8DC4E8D9EAFB}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G7 F8:P8 R6:S12 T8:V8 F9:P9 R9 T9:V9 F10:P10 R10 T10:V10 F11:P11 R11 T11:V11 F12:P12 R12 T12:V12 Q6:Q12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:P6 R6:S12 T6:V6 H7:P7 R7 T7:V7 Q6:Q12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G24:Q24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79491956-7C4C-7E6F-7949-19567C4C7E6F}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G9:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8DCD9DD4-F8C8-FAEB-8DCD-9DD4F8C8FAEB}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H9:P9 R6:S12 T9:V9 H10:P10 R10 T10:V10 H11:P11 R11 T11:V11 H12:P12 R12 T12:V12 Q6:Q12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F14:Q15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5F5A5EC-C5F3-C2D3-B5F5-A5ECC5F3C2D3}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F14:Q15 F16:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD9DCD84-A899-AABB-DD9D-CD84A899AABB}">
-            <x14:dataBar minLength="0" maxLength="100">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H14:P14 R14:V14 H15:P15 R15:V15 H16:P16 R16:V16 H17:P17 R17:V17 H18:P18 R18:V18 H19:P19 R19:V19 H20:P20 R20:V20 Q14:Q20 G14:Q15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -772,7 +772,7 @@
   <dimension ref="B2:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -904,15 +904,15 @@
       </c>
       <c r="T3" s="6">
         <f t="shared" si="0"/>
-        <v>0.16857142857142857</v>
+        <v>0.19142857142857145</v>
       </c>
       <c r="U3" s="6">
         <f t="shared" si="0"/>
-        <v>0.16999999999999998</v>
+        <v>0.19714285714285715</v>
       </c>
       <c r="V3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19714285714285715</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1094,13 +1094,13 @@
         <v>0.6</v>
       </c>
       <c r="T7" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>0.95</v>
       </c>
       <c r="V9" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
@@ -1463,15 +1463,15 @@
       </c>
       <c r="T13" s="6">
         <f t="shared" si="1"/>
-        <v>0.84285714285714286</v>
+        <v>0.95714285714285718</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="1"/>
-        <v>0.85</v>
+        <v>0.98571428571428577</v>
       </c>
       <c r="V13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.98571428571428577</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
@@ -3163,7 +3163,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:G7 F8:P8 R6:S12 T8:V8 F9:P9 R9 T9:V9 F10:P10 R10 T10:V10 F11:P11 R11 T11:V11 F12:P12 R12 T12:V12 Q6:Q12">
+  <conditionalFormatting sqref="F6:G7 F8:P12 Q6:S12 T8:V12">
     <cfRule type="dataBar" priority="443">
       <dataBar>
         <cfvo type="min"/>
@@ -3177,7 +3177,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:P6 R6:S12 T6:V6 H7:P7 R7 T7:V7 Q6:Q12">
+  <conditionalFormatting sqref="H6:P7 Q6:S12 T6:V7">
     <cfRule type="dataBar" priority="444">
       <dataBar>
         <cfvo type="min"/>
@@ -3229,7 +3229,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:P9 R6:S12 T9:V9 H10:P10 R10 T10:V10 H11:P11 R11 T11:V11 H12:P12 R12 T12:V12 Q6:Q12">
+  <conditionalFormatting sqref="H9:P12 Q6:S12 T9:V12">
     <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
@@ -3398,7 +3398,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F6:G7 F8:P8 R6:S12 T8:V8 F9:P9 R9 T9:V9 F10:P10 R10 T10:V10 F11:P11 R11 T11:V11 F12:P12 R12 T12:V12 Q6:Q12</xm:sqref>
+          <xm:sqref>F6:G7 F8:P12 Q6:S12 T8:V12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E1411158-7444-7667-E141-115874447667}">
@@ -3409,7 +3409,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:P6 R6:S12 T6:V6 H7:P7 R7 T7:V7 Q6:Q12</xm:sqref>
+          <xm:sqref>H6:P7 Q6:S12 T6:V7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{85C595DC-F2C7-F2E3-85C5-95DCF2C7F2E3}">
@@ -3442,7 +3442,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H9:P9 R6:S12 T9:V9 H10:P10 R10 T10:V10 H11:P11 R11 T11:V11 H12:P12 R12 T12:V12 Q6:Q12</xm:sqref>
+          <xm:sqref>H9:P12 Q6:S12 T9:V12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1297,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V45"/>
+  <dimension ref="B1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="A7" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -1310,8 +1310,9 @@
     <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="1" width="22.37999916" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="21" style="4" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
     <col min="23" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -1374,72 +1375,72 @@
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>AVERAGE(F13,F21,F24,F35,F37)</f>
-        <v>0.0614285714285714</v>
+        <f>AVERAGE(F13,F20,F23,F34,F36)</f>
+        <v>0.0628571428571428</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G13,G21,G24,G35,G37)</f>
-        <v>0.0925714285714286</v>
+        <f>AVERAGE(G13,G20,G23,G34,G36)</f>
+        <v>0.0950476190476191</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H13,H21,H24,H35,H37)</f>
-        <v>0.116285714285714</v>
+        <f>AVERAGE(H13,H20,H23,H34,H36)</f>
+        <v>0.118285714285714</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I13,I21,I24,I35,I37)</f>
-        <v>0.168571428571429</v>
+        <f>AVERAGE(I13,I20,I23,I34,I36)</f>
+        <v>0.171285714285714</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J13,J21,J24,J35,J37)</f>
-        <v>0.255428571428571</v>
+        <f>AVERAGE(J13,J20,J23,J34,J36)</f>
+        <v>0.259</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K13,K21,K24,K35,K37)</f>
-        <v>0.319142857142857</v>
+        <f>AVERAGE(K13,K20,K23,K34,K36)</f>
+        <v>0.314857142857143</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L13,L21,L24,L35,L37)</f>
-        <v>0.389428571428571</v>
+        <f>AVERAGE(L13,L20,L23,L34,L36)</f>
+        <v>0.386571428571429</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M13,M21,M24,M35,M37)</f>
-        <v>0.444571428571429</v>
+        <f>AVERAGE(M13,M20,M23,M34,M36)</f>
+        <v>0.442190476190476</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N13,N21,N24,N35,N37)</f>
-        <v>0.521714285714286</v>
+        <f>AVERAGE(N13,N20,N23,N34,N36)</f>
+        <v>0.518238095238095</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O13,O21,O24,O35,O37)</f>
-        <v>0.626428571428572</v>
+        <f>AVERAGE(O13,O20,O23,O34,O36)</f>
+        <v>0.623333333333333</v>
       </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P13,P21,P24,P35,P37)</f>
-        <v>0.639285714285714</v>
+        <f>AVERAGE(P13,P20,P23,P34,P36)</f>
+        <v>0.636190476190476</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q13,Q21,Q24,Q35,Q37)</f>
+        <f>AVERAGE(Q13,Q20,Q23,Q34,Q36)</f>
         <v>0.777857142857143</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R13,R21,R24,R35,R37)</f>
-        <v>0.820285714285715</v>
+        <f>AVERAGE(R13,R20,R23,R34,R36)</f>
+        <v>0.820666666666667</v>
       </c>
       <c r="S3" s="6">
-        <f>AVERAGE(S13,S21,S24,S35,S37)</f>
-        <v>0.744857142857143</v>
+        <f>AVERAGE(S13,S20,S23,S34,S36)</f>
+        <v>0.743428571428572</v>
       </c>
       <c r="T3" s="6">
-        <f>AVERAGE(T13,T21,T24,T35,T37)</f>
-        <v>0.772857142857143</v>
+        <f>AVERAGE(T13,T20,T23,T34,T36)</f>
+        <v>0.772761904761905</v>
       </c>
       <c r="U3" s="6">
-        <f>AVERAGE(U13,U21,U24,U35,U37)</f>
-        <v>0.814571428571429</v>
+        <f>AVERAGE(U13,U20,U23,U34,U36)</f>
+        <v>0.817714285714286</v>
       </c>
       <c r="V3" s="6">
-        <f>AVERAGE(V13,V21,V24,V35,V37)</f>
-        <v>0.841714285714286</v>
+        <f>AVERAGE(V13,V20,V23,V34,V36)</f>
+        <v>0.854571428571429</v>
       </c>
     </row>
     <row r="4" spans="2:22">
@@ -1624,10 +1625,10 @@
         <v>0.8</v>
       </c>
       <c r="U7" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="V7" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="16.150000" customHeight="1">
@@ -1994,11 +1995,11 @@
       </c>
       <c r="U13" s="6">
         <f>AVERAGE(U6:U12)</f>
-        <v>0.964285714285714</v>
+        <v>0.978571428571429</v>
       </c>
       <c r="V13" s="6">
         <f>AVERAGE(V6:V12)</f>
-        <v>0.978571428571429</v>
+        <v>0.992857142857143</v>
       </c>
     </row>
     <row r="14" spans="2:22">
@@ -2061,7 +2062,7 @@
         <v>0.96</v>
       </c>
       <c r="V14" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22">
@@ -2120,7 +2121,7 @@
         <v>0.95</v>
       </c>
       <c r="V15" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:22">
@@ -2179,14 +2180,14 @@
         <v>0.92</v>
       </c>
       <c r="V16" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="22"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="10" t="s">
-        <v>16</v>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9">
@@ -2205,47 +2206,47 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="N17" s="9">
         <v>0.3</v>
       </c>
-      <c r="L17" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0.5</v>
-      </c>
       <c r="O17" s="9">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="P17" s="9">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="R17" s="9">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="S17" s="9">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="T17" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="U17" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="V17" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="22"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="7" t="s">
-        <v>17</v>
+      <c r="D18" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9">
@@ -2267,44 +2268,44 @@
         <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="O18" s="9">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P18" s="9">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q18" s="9">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R18" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="U18" s="9">
         <v>0.93</v>
       </c>
-      <c r="S18" s="9">
-        <v>1</v>
-      </c>
-      <c r="T18" s="9">
-        <v>1</v>
-      </c>
-      <c r="U18" s="9">
-        <v>1</v>
-      </c>
       <c r="V18" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="22"/>
       <c r="C19" s="17"/>
       <c r="D19" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -2329,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="9">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="O19" s="9">
         <v>0.5</v>
@@ -2341,360 +2342,360 @@
         <v>0.5</v>
       </c>
       <c r="Q19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="T19" s="9">
+        <v>1</v>
+      </c>
+      <c r="U19" s="9">
+        <v>1</v>
+      </c>
+      <c r="V19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="23"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6">
+        <f>AVERAGE(F14:F19)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="6">
+        <f>AVERAGE(G14:G19)</f>
+        <v>0.0866666666666667</v>
+      </c>
+      <c r="H20" s="6">
+        <f>AVERAGE(H14:H19)</f>
+        <v>0.07</v>
+      </c>
+      <c r="I20" s="6">
+        <f>AVERAGE(I14:I19)</f>
+        <v>0.095</v>
+      </c>
+      <c r="J20" s="6">
+        <f>AVERAGE(J14:J19)</f>
+        <v>0.125</v>
+      </c>
+      <c r="K20" s="6">
+        <f>AVERAGE(K14:K19)</f>
+        <v>0.15</v>
+      </c>
+      <c r="L20" s="6">
+        <f>AVERAGE(L14:L19)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="6">
+        <f>AVERAGE(M14:M19)</f>
+        <v>0.216666666666667</v>
+      </c>
+      <c r="N20" s="6">
+        <f>AVERAGE(N14:N19)</f>
+        <v>0.378333333333333</v>
+      </c>
+      <c r="O20" s="6">
+        <f>AVERAGE(O14:O19)</f>
+        <v>0.441666666666667</v>
+      </c>
+      <c r="P20" s="6">
+        <f>AVERAGE(P14:P19)</f>
+        <v>0.441666666666667</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>AVERAGE(Q14:Q19)</f>
+        <v>0.55</v>
+      </c>
+      <c r="R20" s="6">
+        <f>AVERAGE(R14:R19)</f>
+        <v>0.713333333333333</v>
+      </c>
+      <c r="S20" s="6">
+        <f>AVERAGE(S14:S19)</f>
+        <v>0.8</v>
+      </c>
+      <c r="T20" s="6">
+        <f>AVERAGE(T14:T19)</f>
+        <v>0.896666666666667</v>
+      </c>
+      <c r="U20" s="6">
+        <f>AVERAGE(U14:U19)</f>
+        <v>0.96</v>
+      </c>
+      <c r="V20" s="6">
+        <f>AVERAGE(V14:V19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K21" s="9">
         <v>0.5</v>
       </c>
-      <c r="R19" s="9">
+      <c r="L21" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>1</v>
+      </c>
+      <c r="R21" s="9">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9">
+        <v>1</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+      <c r="U21" s="9">
+        <v>1</v>
+      </c>
+      <c r="V21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="14"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="15"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6">
+        <f>AVERAGE(F21:F21)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="6">
+        <f>AVERAGE(G21:G21)</f>
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="6">
+        <f>AVERAGE(H21:H21)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="6">
+        <f>AVERAGE(I21:I21)</f>
+        <v>0.3</v>
+      </c>
+      <c r="J23" s="6">
+        <f>AVERAGE(J21:J21)</f>
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="6">
+        <f>AVERAGE(K21:K21)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="6">
+        <f>AVERAGE(L21:L21)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M23" s="6">
+        <f>AVERAGE(M21:M21)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N23" s="6">
+        <f>AVERAGE(N21:N21)</f>
+        <v>0.9</v>
+      </c>
+      <c r="O23" s="6">
+        <f>AVERAGE(O21:O21)</f>
+        <v>1</v>
+      </c>
+      <c r="P23" s="6">
+        <f>AVERAGE(P21:P21)</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>AVERAGE(Q21:Q21)</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="6">
+        <f>AVERAGE(R21:R21)</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="6">
+        <f>AVERAGE(S21:S22)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T23" s="6">
+        <f>AVERAGE(T21:T22)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U23" s="6">
+        <f>AVERAGE(U21:U22)</f>
         <v>0.6</v>
       </c>
-      <c r="S19" s="9">
+      <c r="V23" s="6">
+        <f>AVERAGE(V21:V22)</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="K24" s="9">
         <v>0.7</v>
       </c>
-      <c r="T19" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="V19" s="9">
+      <c r="L24" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="O24" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="22"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="P20" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="R20" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="S20" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="T20" s="9">
-        <v>1</v>
-      </c>
-      <c r="U20" s="9">
-        <v>1</v>
-      </c>
-      <c r="V20" s="9">
+      <c r="P24" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="23"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6">
-        <f>AVERAGE(F14:F20)</f>
-        <v>0.0428571428571429</v>
-      </c>
-      <c r="G21" s="6">
-        <f>AVERAGE(G14:G20)</f>
-        <v>0.0742857142857143</v>
-      </c>
-      <c r="H21" s="6">
-        <f>AVERAGE(H14:H20)</f>
-        <v>0.06</v>
-      </c>
-      <c r="I21" s="6">
-        <f>AVERAGE(I14:I20)</f>
-        <v>0.0814285714285714</v>
-      </c>
-      <c r="J21" s="6">
-        <f>AVERAGE(J14:J20)</f>
-        <v>0.107142857142857</v>
-      </c>
-      <c r="K21" s="6">
-        <f>AVERAGE(K14:K20)</f>
-        <v>0.171428571428571</v>
-      </c>
-      <c r="L21" s="6">
-        <f>AVERAGE(L14:L20)</f>
-        <v>0.214285714285714</v>
-      </c>
-      <c r="M21" s="6">
-        <f>AVERAGE(M14:M20)</f>
-        <v>0.228571428571429</v>
-      </c>
-      <c r="N21" s="6">
-        <f>AVERAGE(N14:N20)</f>
-        <v>0.395714285714286</v>
-      </c>
-      <c r="O21" s="6">
-        <f>AVERAGE(O14:O20)</f>
-        <v>0.457142857142857</v>
-      </c>
-      <c r="P21" s="6">
-        <f>AVERAGE(P14:P20)</f>
-        <v>0.457142857142857</v>
-      </c>
-      <c r="Q21" s="6">
-        <f>AVERAGE(Q14:Q20)</f>
-        <v>0.55</v>
-      </c>
-      <c r="R21" s="6">
-        <f>AVERAGE(R14:R20)</f>
-        <v>0.711428571428571</v>
-      </c>
-      <c r="S21" s="6">
-        <f>AVERAGE(S14:S20)</f>
-        <v>0.807142857142857</v>
-      </c>
-      <c r="T21" s="6">
-        <f>AVERAGE(T14:T20)</f>
-        <v>0.897142857142857</v>
-      </c>
-      <c r="U21" s="6">
-        <f>AVERAGE(U14:U20)</f>
-        <v>0.958571428571429</v>
-      </c>
-      <c r="V21" s="6">
-        <f>AVERAGE(V14:V20)</f>
+      <c r="Q24" s="9">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="22" spans="2:22">
-      <c r="B22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="O22" s="9">
-        <v>1</v>
-      </c>
-      <c r="P22" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>1</v>
-      </c>
-      <c r="R22" s="9">
-        <v>1</v>
-      </c>
-      <c r="S22" s="9">
-        <v>1</v>
-      </c>
-      <c r="T22" s="9">
-        <v>1</v>
-      </c>
-      <c r="U22" s="9">
-        <v>1</v>
-      </c>
-      <c r="V22" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="14"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9">
-        <v>0</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <v>0</v>
-      </c>
-      <c r="U23" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="V23" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22">
-      <c r="B24" s="15"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6">
-        <f>AVERAGE(F22:F22)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="6">
-        <f>AVERAGE(G22:G22)</f>
-        <v>0.2</v>
-      </c>
-      <c r="H24" s="6">
-        <f>AVERAGE(H22:H22)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I24" s="6">
-        <f>AVERAGE(I22:I22)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J24" s="6">
-        <f>AVERAGE(J22:J22)</f>
-        <v>0.4</v>
-      </c>
-      <c r="K24" s="6">
-        <f>AVERAGE(K22:K22)</f>
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="6">
-        <f>AVERAGE(L22:L22)</f>
-        <v>0.7</v>
-      </c>
-      <c r="M24" s="6">
-        <f>AVERAGE(M22:M22)</f>
-        <v>0.8</v>
-      </c>
-      <c r="N24" s="6">
-        <f>AVERAGE(N22:N22)</f>
-        <v>0.9</v>
-      </c>
-      <c r="O24" s="6">
-        <f>AVERAGE(O22:O22)</f>
-        <v>1</v>
-      </c>
-      <c r="P24" s="6">
-        <f>AVERAGE(P22:P22)</f>
-        <v>1</v>
-      </c>
-      <c r="Q24" s="6">
-        <f>AVERAGE(Q22:Q22)</f>
-        <v>1</v>
-      </c>
-      <c r="R24" s="6">
-        <f>AVERAGE(R22:R22)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="6">
-        <f>AVERAGE(S22:S23)</f>
-        <v>0.5</v>
-      </c>
-      <c r="T24" s="6">
-        <f>AVERAGE(T22:T23)</f>
-        <v>0.5</v>
-      </c>
-      <c r="U24" s="6">
-        <f>AVERAGE(U22:U23)</f>
-        <v>0.6</v>
-      </c>
-      <c r="V24" s="6">
-        <f>AVERAGE(V22:V23)</f>
-        <v>0.65</v>
+      <c r="R24" s="9">
+        <v>1</v>
+      </c>
+      <c r="S24" s="9">
+        <v>1</v>
+      </c>
+      <c r="T24" s="9">
+        <v>1</v>
+      </c>
+      <c r="U24" s="9">
+        <v>1</v>
+      </c>
+      <c r="V24" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9">
         <v>0</v>
       </c>
       <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
         <v>0.1</v>
       </c>
-      <c r="H25" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="J25" s="9">
         <v>0.3</v>
       </c>
-      <c r="J25" s="9">
-        <v>0.6</v>
-      </c>
       <c r="K25" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L25" s="9">
         <v>0.7</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0.9</v>
       </c>
       <c r="M25" s="9">
         <v>0.9</v>
@@ -2731,7 +2732,7 @@
       <c r="B26" s="14"/>
       <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9">
@@ -2744,22 +2745,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="9">
         <v>0.3</v>
       </c>
       <c r="L26" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="N26" s="9">
         <v>0.7</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0.9</v>
       </c>
       <c r="O26" s="9">
         <v>0.95</v>
@@ -2771,7 +2772,7 @@
         <v>0.95</v>
       </c>
       <c r="R26" s="9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="S26" s="9">
         <v>1</v>
@@ -2790,7 +2791,7 @@
       <c r="B27" s="14"/>
       <c r="C27" s="17"/>
       <c r="D27" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9">
@@ -2809,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L27" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="M27" s="9">
         <v>0.4</v>
@@ -2849,7 +2850,7 @@
       <c r="B28" s="14"/>
       <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9">
@@ -2871,44 +2872,44 @@
         <v>0</v>
       </c>
       <c r="L28" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N28" s="9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O28" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="P28" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="R28" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="S28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="14"/>
       <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9">
@@ -2960,14 +2961,14 @@
         <v>0</v>
       </c>
       <c r="V29" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="14"/>
       <c r="C30" s="17"/>
       <c r="D30" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9">
@@ -3019,14 +3020,14 @@
         <v>0</v>
       </c>
       <c r="V30" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="14"/>
       <c r="C31" s="17"/>
       <c r="D31" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9">
@@ -3048,44 +3049,44 @@
         <v>0</v>
       </c>
       <c r="L31" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M31" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N31" s="9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O31" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="P31" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q31" s="9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="R31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="14"/>
       <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9">
@@ -3107,44 +3108,44 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N32" s="9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="P32" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="R32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="14"/>
       <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9">
@@ -3187,303 +3188,254 @@
         <v>0</v>
       </c>
       <c r="S33" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T33" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U33" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V33" s="9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="14"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <v>0</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="T34" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="U34" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="V34" s="9">
-        <v>0.8</v>
+      <c r="F34" s="6">
+        <f>AVERAGE(F24:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <f>AVERAGE(G24:G33)</f>
+        <v>0.01</v>
+      </c>
+      <c r="H34" s="6">
+        <f>AVERAGE(H24:H33)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="6">
+        <f>AVERAGE(I24:I33)</f>
+        <v>0.04</v>
+      </c>
+      <c r="J34" s="6">
+        <f>AVERAGE(J24:J33)</f>
+        <v>0.09</v>
+      </c>
+      <c r="K34" s="6">
+        <f>AVERAGE(K24:K33)</f>
+        <v>0.13</v>
+      </c>
+      <c r="L34" s="6">
+        <f>AVERAGE(L24:L33)</f>
+        <v>0.21</v>
+      </c>
+      <c r="M34" s="6">
+        <f>AVERAGE(M24:M33)</f>
+        <v>0.3</v>
+      </c>
+      <c r="N34" s="6">
+        <f>AVERAGE(N24:N33)</f>
+        <v>0.39</v>
+      </c>
+      <c r="O34" s="6">
+        <f>AVERAGE(O24:O33)</f>
+        <v>0.475</v>
+      </c>
+      <c r="P34" s="6">
+        <f>AVERAGE(P24:P33)</f>
+        <v>0.475</v>
+      </c>
+      <c r="Q34" s="6">
+        <f>AVERAGE(Q24:Q33)</f>
+        <v>0.475</v>
+      </c>
+      <c r="R34" s="6">
+        <f>AVERAGE(R24:R33)</f>
+        <v>0.49</v>
+      </c>
+      <c r="S34" s="6">
+        <f>AVERAGE(S24:S33)</f>
+        <v>0.51</v>
+      </c>
+      <c r="T34" s="6">
+        <f>AVERAGE(T24:T33)</f>
+        <v>0.51</v>
+      </c>
+      <c r="U34" s="6">
+        <f>AVERAGE(U24:U33)</f>
+        <v>0.55</v>
+      </c>
+      <c r="V34" s="6">
+        <f>AVERAGE(V24:V33)</f>
+        <v>0.63</v>
       </c>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="15"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="7"/>
+      <c r="B35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="6">
-        <f>AVERAGE(F25:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <f>AVERAGE(G25:G34)</f>
-        <v>0.01</v>
-      </c>
-      <c r="H35" s="6">
-        <f>AVERAGE(H25:H34)</f>
+      <c r="F35" s="9">
         <v>0.05</v>
       </c>
-      <c r="I35" s="6">
-        <f>AVERAGE(I25:I34)</f>
-        <v>0.04</v>
-      </c>
-      <c r="J35" s="6">
-        <f>AVERAGE(J25:J34)</f>
-        <v>0.09</v>
-      </c>
-      <c r="K35" s="6">
-        <f>AVERAGE(K25:K34)</f>
-        <v>0.13</v>
-      </c>
-      <c r="L35" s="6">
-        <f>AVERAGE(L25:L34)</f>
-        <v>0.21</v>
-      </c>
-      <c r="M35" s="6">
-        <f>AVERAGE(M25:M34)</f>
-        <v>0.3</v>
-      </c>
-      <c r="N35" s="6">
-        <f>AVERAGE(N25:N34)</f>
-        <v>0.39</v>
-      </c>
-      <c r="O35" s="6">
-        <f>AVERAGE(O25:O34)</f>
-        <v>0.475</v>
-      </c>
-      <c r="P35" s="6">
-        <f>AVERAGE(P25:P34)</f>
-        <v>0.475</v>
-      </c>
-      <c r="Q35" s="6">
-        <f>AVERAGE(Q25:Q34)</f>
-        <v>0.475</v>
-      </c>
-      <c r="R35" s="6">
-        <f>AVERAGE(R25:R34)</f>
-        <v>0.49</v>
-      </c>
-      <c r="S35" s="6">
-        <f>AVERAGE(S25:S34)</f>
-        <v>0.51</v>
-      </c>
-      <c r="T35" s="6">
-        <f>AVERAGE(T25:T34)</f>
-        <v>0.51</v>
-      </c>
-      <c r="U35" s="6">
-        <f>AVERAGE(U25:U34)</f>
-        <v>0.55</v>
-      </c>
-      <c r="V35" s="6">
-        <f>AVERAGE(V25:V34)</f>
-        <v>0.63</v>
+      <c r="G35" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>1</v>
+      </c>
+      <c r="R35" s="9">
+        <v>1</v>
+      </c>
+      <c r="S35" s="9">
+        <v>1</v>
+      </c>
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+      <c r="U35" s="9">
+        <v>1</v>
+      </c>
+      <c r="V35" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9">
+      <c r="B36" s="15"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="7"/>
+      <c r="F36" s="6">
+        <f>AVERAGE(F35:F35)</f>
         <v>0.05</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
+        <f>AVERAGE(G35:G35)</f>
         <v>0.05</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="6">
+        <f>AVERAGE(H35:H35)</f>
         <v>0.05</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="6">
+        <f>AVERAGE(I35:I35)</f>
         <v>0.05</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="6">
+        <f>AVERAGE(J35:J35)</f>
         <v>0.08</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="6">
+        <f>AVERAGE(K35:K35)</f>
         <v>0.18</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="6">
+        <f>AVERAGE(L35:L35)</f>
         <v>0.18</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="6">
+        <f>AVERAGE(M35:M35)</f>
         <v>0.18</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="6">
+        <f>AVERAGE(N35:N35)</f>
         <v>0.18</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="6">
+        <f>AVERAGE(O35:O35)</f>
         <v>0.4</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="6">
+        <f>AVERAGE(P35:P35)</f>
         <v>0.4</v>
       </c>
-      <c r="Q36" s="9">
-        <v>1</v>
-      </c>
-      <c r="R36" s="9">
-        <v>1</v>
-      </c>
-      <c r="S36" s="9">
-        <v>1</v>
-      </c>
-      <c r="T36" s="9">
-        <v>1</v>
-      </c>
-      <c r="U36" s="9">
-        <v>1</v>
-      </c>
-      <c r="V36" s="9">
+      <c r="Q36" s="6">
+        <f>AVERAGE(Q35:Q35)</f>
+        <v>1</v>
+      </c>
+      <c r="R36" s="6">
+        <f>AVERAGE(R35:R35)</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="6">
+        <f>AVERAGE(S35:S35)</f>
+        <v>1</v>
+      </c>
+      <c r="T36" s="6">
+        <f>AVERAGE(T35:T35)</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="6">
+        <f>AVERAGE(U35:U35)</f>
+        <v>1</v>
+      </c>
+      <c r="V36" s="6">
+        <f>AVERAGE(V35:V35)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="15"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="7"/>
-      <c r="F37" s="6">
-        <f>AVERAGE(F36:F36)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G37" s="6">
-        <f>AVERAGE(G36:G36)</f>
-        <v>0.05</v>
-      </c>
-      <c r="H37" s="6">
-        <f>AVERAGE(H36:H36)</f>
-        <v>0.05</v>
-      </c>
-      <c r="I37" s="6">
-        <f>AVERAGE(I36:I36)</f>
-        <v>0.05</v>
-      </c>
-      <c r="J37" s="6">
-        <f>AVERAGE(J36:J36)</f>
-        <v>0.08</v>
-      </c>
-      <c r="K37" s="6">
-        <f>AVERAGE(K36:K36)</f>
-        <v>0.18</v>
-      </c>
-      <c r="L37" s="6">
-        <f>AVERAGE(L36:L36)</f>
-        <v>0.18</v>
-      </c>
-      <c r="M37" s="6">
-        <f>AVERAGE(M36:M36)</f>
-        <v>0.18</v>
-      </c>
-      <c r="N37" s="6">
-        <f>AVERAGE(N36:N36)</f>
-        <v>0.18</v>
-      </c>
-      <c r="O37" s="6">
-        <f>AVERAGE(O36:O36)</f>
-        <v>0.4</v>
-      </c>
-      <c r="P37" s="6">
-        <f>AVERAGE(P36:P36)</f>
-        <v>0.4</v>
-      </c>
-      <c r="Q37" s="6">
-        <f>AVERAGE(Q36:Q36)</f>
-        <v>1</v>
-      </c>
-      <c r="R37" s="6">
-        <f>AVERAGE(R36:R36)</f>
-        <v>1</v>
-      </c>
-      <c r="S37" s="6">
-        <f>AVERAGE(S36:S36)</f>
-        <v>1</v>
-      </c>
-      <c r="T37" s="6">
-        <f>AVERAGE(T36:T36)</f>
-        <v>1</v>
-      </c>
-      <c r="U37" s="6">
-        <f>AVERAGE(U36:U36)</f>
-        <v>1</v>
-      </c>
-      <c r="V37" s="6">
-        <f>AVERAGE(V36:V36)</f>
-        <v>1</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
     </row>
     <row r="38" spans="2:22">
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
     </row>
     <row r="39" spans="2:22">
       <c r="E39" s="8"/>
@@ -3506,43 +3458,43 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:22">
-      <c r="E44" s="8"/>
-      <c r="F44" s="4"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B35"/>
-    <mergeCell ref="C25:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B14:C14 E14 B15:E20 B36">
+  <conditionalFormatting sqref="B14:C14 E14 B15:E19 B35">
     <cfRule type="cellIs" dxfId="7" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:D31">
+  <conditionalFormatting sqref="B24:D30">
     <cfRule type="cellIs" dxfId="6" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:E22">
+  <conditionalFormatting sqref="B21:E21">
     <cfRule type="cellIs" dxfId="5" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:E36">
+  <conditionalFormatting sqref="C35:E35">
     <cfRule type="cellIs" dxfId="4" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23 D32:D34">
+  <conditionalFormatting sqref="D22 D31:D33">
     <cfRule type="cellIs" dxfId="3" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -3552,7 +3504,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F34">
+  <conditionalFormatting sqref="F24:F33">
     <cfRule type="dataBar" priority="446">
       <dataBar>
         <cfvo type="min"/>
@@ -3561,12 +3513,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
+          <x14:id>{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G34">
+  <conditionalFormatting sqref="G25:G33">
     <cfRule type="dataBar" priority="447">
       <dataBar>
         <cfvo type="min"/>
@@ -3575,12 +3527,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
+          <x14:id>{d595c58c-af91-a2b3-d595-c58caf91a2b3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:V36 H36:I36">
+  <conditionalFormatting sqref="F35:V35 H35:I35">
     <cfRule type="dataBar" priority="455">
       <dataBar>
         <cfvo type="min"/>
@@ -3589,12 +3541,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
+          <x14:id>{511141d8-2415-2637-5111-41d824152637}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:P25 Q25:Q31 R25:S25 T25:V28 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:S28 U28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:P31 R31:V31 H32:V34">
+  <conditionalFormatting sqref="H24:P24 Q24:Q30 R24:S24 T24:V27 U24:V24 H25:P25 R25:S25 U25:V25 H26:P26 R26:S26 U26:V26 H27:P27 R27:S27 U27:V27 H28:P28 R28:V28 H29:P29 R29:V29 H30:P30 R30:V30 H31:V33">
     <cfRule type="dataBar" priority="474">
       <dataBar>
         <cfvo type="min"/>
@@ -3603,12 +3555,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
+          <x14:id>{cd8ddd94-b888-baab-cd8d-dd94b888baab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:V36 H36:V36">
+  <conditionalFormatting sqref="F35:V35 H35:V35">
     <cfRule type="dataBar" priority="477">
       <dataBar>
         <cfvo type="min"/>
@@ -3617,12 +3569,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
+          <x14:id>{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:V22 R23:V23">
+  <conditionalFormatting sqref="I21:V21 R22:V22">
     <cfRule type="dataBar" priority="478">
       <dataBar>
         <cfvo type="min"/>
@@ -3631,12 +3583,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+          <x14:id>{c585d59c-be87-b2a3-c585-d59cbe87b2a3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="F21">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -3645,12 +3597,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
+          <x14:id>{41715118-3424-3627-4171-511834243627}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G21">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -3659,12 +3611,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
+          <x14:id>{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H21">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -3673,7 +3625,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
+          <x14:id>{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3687,7 +3639,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
+          <x14:id>{98d888c1-eddc-effe-98d8-88c1eddceffe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3701,12 +3653,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+          <x14:id>{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:Q25">
+  <conditionalFormatting sqref="G24:Q24">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3715,7 +3667,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+          <x14:id>{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3739,7 +3691,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+          <x14:id>{1454044d-6157-6372-1454-044d61576372}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3753,12 +3705,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
+          <x14:id>{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:Q15 R14:V20">
+  <conditionalFormatting sqref="F14:Q15 R14:V19">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
@@ -3767,12 +3719,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
+          <x14:id>{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:Q15 R14:V20 F16:G20">
+  <conditionalFormatting sqref="F14:Q15 R14:V16 F16:G19 R17:V19">
     <cfRule type="dataBar" priority="454">
       <dataBar>
         <cfvo type="min"/>
@@ -3781,12 +3733,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+          <x14:id>{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:Q15 H14:P14 Q14:V20 S14:V14 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19 H20:P20 S20:V20">
+  <conditionalFormatting sqref="G14:Q15 H14:P14 Q14:V16 S14:V14 H15:P15 S15:V15 H16:P16 S16:V16 H17:P17 Q17:V19 S17:V17 H18:P18 S18:V18 H19:P19 S19:V19">
     <cfRule type="dataBar" priority="457">
       <dataBar>
         <cfvo type="min"/>
@@ -3795,7 +3747,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+          <x14:id>{a444145d-7141-7362-a444-145d71417362}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3807,7 +3759,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+          <x14:cfRule type="dataBar" id="{5919494b-2c1d-2e3f-5919-494b2c1d2e3f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3817,7 +3769,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+          <x14:cfRule type="dataBar" id="{d595c58c-af91-a2b3-d595-c58caf91a2b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3827,7 +3779,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+          <x14:cfRule type="dataBar" id="{511141d8-2415-2637-5111-41d824152637}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3837,7 +3789,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+          <x14:cfRule type="dataBar" id="{cd8ddd94-b888-baab-cd8d-dd94b888baab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3847,7 +3799,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+          <x14:cfRule type="dataBar" id="{49e9591a-3cbc-3e2f-49e9-591a3cbc3e2f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3857,7 +3809,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{c585d59c-be87-b2a3-c585-d59cbe87b2a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3867,7 +3819,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+          <x14:cfRule type="dataBar" id="{41715118-3424-3627-4171-511834243627}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3877,7 +3829,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+          <x14:cfRule type="dataBar" id="{fdbdeda4-88bb-8a9b-fdbd-eda488bb8a9b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3887,7 +3839,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+          <x14:cfRule type="dataBar" id="{7939692d-cc3f-3e1f-7939-692dcc3f3e1f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3897,7 +3849,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+          <x14:cfRule type="dataBar" id="{98d888c1-eddc-effe-98d8-88c1eddceffe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3907,7 +3859,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+          <x14:cfRule type="dataBar" id="{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3917,7 +3869,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+          <x14:cfRule type="dataBar" id="{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3927,7 +3879,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+          <x14:cfRule type="dataBar" id="{1454044d-6157-6372-1454-044d61576372}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3937,7 +3889,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+          <x14:cfRule type="dataBar" id="{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3947,7 +3899,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
+          <x14:cfRule type="dataBar" id="{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3957,7 +3909,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3967,7 +3919,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{a444145d-7141-7362-a444-145d71417362}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:W44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView topLeftCell="A22" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="W3" s="6">
         <f>AVERAGE(W13,W21,W23,W34,W36)</f>
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:23">
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:23">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="W34" s="6">
         <f>AVERAGE(W24:W33)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:23">
@@ -3511,27 +3511,8 @@
       </c>
     </row>
     <row r="37" spans="2:23">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
     </row>
     <row r="38" spans="2:23">
       <c r="E38" s="8"/>
@@ -3556,10 +3537,6 @@
     <row r="43" spans="2:23">
       <c r="E43" s="8"/>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:23">
-      <c r="E44" s="1"/>
-      <c r="F44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.165.50235"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="퍼블리싱" sheetId="1" r:id="rId1"/>
+    <sheet name="백앤드" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -21,8 +22,15 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>페이지</t>
   </si>
@@ -151,6 +159,13 @@
   </si>
   <si>
     <t>쿠폰함</t>
+  </si>
+  <si>
+    <t>최예니</t>
+  </si>
+  <si>
+    <t>내위치
+공지사항</t>
   </si>
 </sst>
 </file>
@@ -815,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +910,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:W44"/>
+  <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -1308,11 +1335,10 @@
     <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="1" width="22.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="24.37999916" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="8" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="21" style="4" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="22" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="22" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
     <col min="23" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -3590,7 +3616,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d494c48d-a182-b3a3-d494-c48da182b3a3}</x14:id>
+          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3604,7 +3630,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{581848d9-2506-3727-5818-48d925063727}</x14:id>
+          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3618,7 +3644,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}</x14:id>
+          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3632,7 +3658,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58184841-2d1e-3f2f-5818-48412d1e3f2f}</x14:id>
+          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3646,7 +3672,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c484d49d-b182-a3b3-c484-d49db182a3b3}</x14:id>
+          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3660,7 +3686,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49795919-3526-2737-4979-591935262737}</x14:id>
+          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3674,7 +3700,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}</x14:id>
+          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3688,7 +3714,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}</x14:id>
+          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3702,7 +3728,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4b4e4ad-8182-9383-f4b4-e4ad81829383}</x14:id>
+          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3716,7 +3742,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e29-5506-17e7-7e3e-6e29550617e7}</x14:id>
+          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3730,7 +3756,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3744,7 +3770,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3768,7 +3794,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3782,7 +3808,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
+          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3796,7 +3822,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
+          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3810,7 +3836,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+          <x14:id>{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3824,7 +3850,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+          <x14:id>{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3836,7 +3862,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d494c48d-a182-b3a3-d494-c48da182b3a3}">
+          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3846,7 +3872,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{581848d9-2506-3727-5818-48d925063727}">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3856,7 +3882,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc9ccc85-a98a-bbab-dc9c-cc85a98abbab}">
+          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3866,7 +3892,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58184841-2d1e-3f2f-5818-48412d1e3f2f}">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3876,7 +3902,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c484d49d-b182-a3b3-c484-d49db182a3b3}">
+          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3886,7 +3912,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49795919-3526-2737-4979-591935262737}">
+          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3896,7 +3922,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cc8cdc95-b98a-abbb-cc8c-dc95b98aabbb}">
+          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3906,7 +3932,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{48e85811-3d3e-2f3f-48e8-58113d3e2f3f}">
+          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3916,7 +3942,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f4b4e4ad-8182-9383-f4b4-e4ad81829383}">
+          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3926,7 +3952,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e29-5506-17e7-7e3e-6e29550617e7}">
+          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3936,7 +3962,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3946,7 +3972,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3956,7 +3982,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3966,7 +3992,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3976,7 +4002,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
+          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3986,7 +4012,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{b5f5a5ec-c5f3-c2d3-b5f5-a5ecc5f3c2d3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3996,7 +4022,2802 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{dd9dcd84-a899-aabb-dd9d-cd84a899aabb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:U50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" style="4" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="20.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="24.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="16381" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="16382" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3">
+        <v>45190</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45191</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45192</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45193</v>
+      </c>
+      <c r="K2" s="3">
+        <v>45194</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45195</v>
+      </c>
+      <c r="M2" s="3">
+        <v>45196</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45197</v>
+      </c>
+      <c r="O2" s="3">
+        <v>45198</v>
+      </c>
+      <c r="P2" s="3">
+        <v>45199</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45200</v>
+      </c>
+      <c r="R2" s="3">
+        <v>45201</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45202</v>
+      </c>
+      <c r="T2" s="3">
+        <v>45203</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <f>AVERAGE(G16,G24,G30,G41,G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>AVERAGE(H16,H24,H30,H41,H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>AVERAGE(I16,I24,I30,I41,I43)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>AVERAGE(J16,J24,J30,J41,J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <f>AVERAGE(K16,K24,K30,K41,K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <f>AVERAGE(L16,L24,L30,L41,L43)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f>AVERAGE(M16,M24,M30,M41,M43)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGE(N16,N24,N30,N41,N43)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGE(O16,O24,O30,O41,O43)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f>AVERAGE(P16,P24,P30,P41,P43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>AVERAGE(Q16,Q24,Q30,Q41,Q43)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f>AVERAGE(R16,R24,R30,R41,R43)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f>AVERAGE(S16,S24,S30,S41,S43)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6">
+        <f>AVERAGE(T16,T24,T30,T41,T43)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(U16,U24,U30,U41,U43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:21" ht="20.100000" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45190</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45191</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45192</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45193</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45194</v>
+      </c>
+      <c r="L5" s="3">
+        <v>45195</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45196</v>
+      </c>
+      <c r="N5" s="3">
+        <v>45197</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45198</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45199</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>45200</v>
+      </c>
+      <c r="R5" s="3">
+        <v>45201</v>
+      </c>
+      <c r="S5" s="3">
+        <v>45202</v>
+      </c>
+      <c r="T5" s="3">
+        <v>45203</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="16.500000" customHeight="1">
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="16.500000" customHeight="1">
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="16.150000" customHeight="1">
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="15"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6">
+        <f>AVERAGE(G6:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <f>AVERAGE(H6:H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <f>AVERAGE(I6:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <f>AVERAGE(J6:J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <f>AVERAGE(K6:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <f>AVERAGE(L6:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f>AVERAGE(M6:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f>AVERAGE(N6:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <f>AVERAGE(O6:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <f>AVERAGE(P6:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>AVERAGE(Q6:Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <f>AVERAGE(R6:R15)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <f>AVERAGE(S6:S15)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <f>AVERAGE(T6:T15)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <f>AVERAGE(U6:U15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="22"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="22"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="22"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="22"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="22"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="22"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="23"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6">
+        <f>AVERAGE(G17:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <f>AVERAGE(H17:H22)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f>AVERAGE(I17:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <f>AVERAGE(J17:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <f>AVERAGE(K17:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <f>AVERAGE(L17:L22)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <f>AVERAGE(M17:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <f>AVERAGE(N17:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <f>AVERAGE(O17:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <f>AVERAGE(P17:P22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>AVERAGE(Q17:Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <f>AVERAGE(R17:R22)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <f>AVERAGE(S17:S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <f>AVERAGE(T17:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="6">
+        <f>AVERAGE(U17:U22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="22"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="22"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="22"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="15"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6">
+        <f>AVERAGE(G29:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <f>AVERAGE(H29:H29)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <f>AVERAGE(I29:I29)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <f>AVERAGE(J29:J29)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <f>AVERAGE(K29:K29)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <f>AVERAGE(L29:L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <f>AVERAGE(M29:M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <f>AVERAGE(N29:N29)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <f>AVERAGE(O29:O29)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <f>AVERAGE(P29:P29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="6">
+        <f>AVERAGE(Q29:Q29)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <f>AVERAGE(R29:R29)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="6">
+        <f>AVERAGE(S29:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="6">
+        <f>AVERAGE(T29:T29)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="6">
+        <f>AVERAGE(U29:U29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="14"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="14"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>0</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0</v>
+      </c>
+      <c r="U35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>0</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0</v>
+      </c>
+      <c r="U37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="14"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+      <c r="U38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9">
+        <v>0</v>
+      </c>
+      <c r="U39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9">
+        <v>0</v>
+      </c>
+      <c r="U40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="15"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="6">
+        <f>AVERAGE(G31:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <f>AVERAGE(H31:H40)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <f>AVERAGE(I31:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <f>AVERAGE(J31:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <f>AVERAGE(K31:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <f>AVERAGE(L31:L40)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <f>AVERAGE(M31:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <f>AVERAGE(N31:N40)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <f>AVERAGE(O31:O40)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="6">
+        <f>AVERAGE(P31:P40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="6">
+        <f>AVERAGE(Q31:Q40)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="6">
+        <f>AVERAGE(R31:R40)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="6">
+        <f>AVERAGE(S31:S40)</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="6">
+        <f>AVERAGE(T31:T40)</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="6">
+        <f>AVERAGE(U31:U40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="13"/>
+      <c r="C42" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>0</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <v>0</v>
+      </c>
+      <c r="U42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="15"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="7"/>
+      <c r="G43" s="6">
+        <f>AVERAGE(G42:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <f>AVERAGE(H42:H42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <f>AVERAGE(I42:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <f>AVERAGE(J42:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f>AVERAGE(K42:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <f>AVERAGE(L42:L42)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <f>AVERAGE(M42:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <f>AVERAGE(N42:N42)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <f>AVERAGE(O42:O42)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <f>AVERAGE(P42:P42)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6">
+        <f>AVERAGE(Q42:Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <f>AVERAGE(R42:R42)</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="6">
+        <f>AVERAGE(S42:S42)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="6">
+        <f>AVERAGE(T42:T42)</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="6">
+        <f>AVERAGE(U42:U42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="F44" s="8"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="F45" s="8"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="F46" s="8"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="F47" s="8"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="F48" s="8"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" s="8"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" s="8"/>
+      <c r="G50" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:C41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B17:C17 F17 B18:F22 B42">
+    <cfRule type="cellIs" dxfId="7" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:E37">
+    <cfRule type="cellIs" dxfId="6" priority="126" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F29">
+    <cfRule type="cellIs" dxfId="5" priority="140" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:F42">
+    <cfRule type="cellIs" dxfId="4" priority="171" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23 E38:E40">
+    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="cellIs" dxfId="2" priority="489" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G40">
+    <cfRule type="dataBar" priority="491">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H40">
+    <cfRule type="dataBar" priority="494">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5717478e-22d2-2a31-5717-478e22d22a31}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:J42">
+    <cfRule type="dataBar" priority="507">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:Q31 R31:R37 S31:T31 U31:U34 I32:Q32 S32:T32 I33:Q33 S33:T33 I34:Q34 S34:T34 I35:Q35 S35:U35 I36:Q36 S36:U36 I37:Q37 S37:U37 I38:U40">
+    <cfRule type="dataBar" priority="526">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:U42">
+    <cfRule type="dataBar" priority="529">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:U29 J29:U29">
+    <cfRule type="dataBar" priority="530">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:U29">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:U29">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H7 R6:T12 G8:Q8 U8 G9:Q9 U9 G10:Q10 U10 G11:Q11 U11 R13:T14 G15:S15 U15">
+    <cfRule type="dataBar" priority="488">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:Q6 R6:T12 U6 I7:Q7 U7 R13:T15">
+    <cfRule type="dataBar" priority="490">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:R31">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10 F9:F10">
+    <cfRule type="cellIs" dxfId="1" priority="193" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E15">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H15">
+    <cfRule type="dataBar" priority="400">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:T12 I9:Q9 U9 I10:Q10 U10 I11:Q11 U11 R13:T14 I15:S15 U15">
+    <cfRule type="dataBar" priority="452">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:R18 S17:U22">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:R18 S17:U19 G19:H22 S20:U22">
+    <cfRule type="dataBar" priority="454">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:R18 I17:Q17 R17:U19 T17:U17 I18:Q18 T18:U18 I19:Q19 T19:U19 I20:Q20 R20:U22 T20:U20 I21:Q21 T21:U21 I22:Q22 T22:U22">
+    <cfRule type="dataBar" priority="457">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D15">
+    <cfRule type="cellIs" dxfId="6" priority="126" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="5" priority="140" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D29">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D36">
+    <cfRule type="cellIs" dxfId="7" priority="233" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5717478e-22d2-2a31-5717-478e22d22a31}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/3팀보고.xlsx
+++ b/3팀보고.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>페이지</t>
   </si>
@@ -166,6 +166,39 @@
   <si>
     <t>내위치
 공지사항</t>
+  </si>
+  <si>
+    <t>박민수 예약하기, 이벤트</t>
+  </si>
+  <si>
+    <t>김홍준 메인 페이지</t>
+  </si>
+  <si>
+    <t>김영채 마이 페이지</t>
+  </si>
+  <si>
+    <t>최예니 주차장 업로드, 회원가입, 로그인</t>
+  </si>
+  <si>
+    <t>쿠폰받기</t>
+  </si>
+  <si>
+    <t>내 쿠폰함</t>
+  </si>
+  <si>
+    <t>결제하기</t>
+  </si>
+  <si>
+    <t>이벤트
+결제하기</t>
+  </si>
+  <si>
+    <t>메인페이지</t>
+  </si>
+  <si>
+    <t>주차 업로드
+회원가입
+로그인</t>
   </si>
 </sst>
 </file>
@@ -830,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4039,10 +4075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U50"/>
+  <dimension ref="B1:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -4051,200 +4087,195 @@
     <col min="2" max="2" style="1" width="8.63000011" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="1" width="13.38000011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="1" width="20.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="1" width="24.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="21" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="22" max="16381" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="16382" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="26.37999916" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="8" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="20" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="16383" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="16384" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
-      <c r="F2" s="2"/>
+    <row r="2" spans="2:20">
+      <c r="E2" s="2"/>
+      <c r="F2" s="3">
+        <v>45196</v>
+      </c>
       <c r="G2" s="3">
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="H2" s="3">
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="I2" s="3">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="J2" s="3">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="K2" s="3">
-        <v>45194</v>
+        <v>45201</v>
       </c>
       <c r="L2" s="3">
-        <v>45195</v>
+        <v>45202</v>
       </c>
       <c r="M2" s="3">
-        <v>45196</v>
+        <v>45203</v>
       </c>
       <c r="N2" s="3">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="O2" s="3">
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="P2" s="3">
-        <v>45199</v>
+        <v>45206</v>
       </c>
       <c r="Q2" s="3">
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="R2" s="3">
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="S2" s="3">
-        <v>45202</v>
+        <v>45209</v>
       </c>
       <c r="T2" s="3">
-        <v>45203</v>
-      </c>
-      <c r="U2" s="3">
-        <v>45204</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>AVERAGE(F16,F24,F30,F39)</f>
+        <v>0</v>
       </c>
       <c r="G3" s="6">
-        <f>AVERAGE(G16,G24,G30,G41,G43)</f>
+        <f>AVERAGE(G16,G24,G30,G39)</f>
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H16,H24,H30,H41,H43)</f>
+        <f>AVERAGE(H16,H24,H30,H39)</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>AVERAGE(I16,I24,I30,I41,I43)</f>
+        <f>AVERAGE(I16,I24,I30,I39)</f>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>AVERAGE(J16,J24,J30,J41,J43)</f>
+        <f>AVERAGE(J16,J24,J30,J39)</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>AVERAGE(K16,K24,K30,K41,K43)</f>
+        <f>AVERAGE(K16,K24,K30,K39)</f>
         <v>0</v>
       </c>
       <c r="L3" s="6">
-        <f>AVERAGE(L16,L24,L30,L41,L43)</f>
+        <f>AVERAGE(L16,L24,L30,L39)</f>
         <v>0</v>
       </c>
       <c r="M3" s="6">
-        <f>AVERAGE(M16,M24,M30,M41,M43)</f>
+        <f>AVERAGE(M16,M24,M30,M39)</f>
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <f>AVERAGE(N16,N24,N30,N41,N43)</f>
+        <f>AVERAGE(N16,N24,N30,N39)</f>
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <f>AVERAGE(O16,O24,O30,O41,O43)</f>
+        <f>AVERAGE(O16,O24,O30,O39)</f>
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <f>AVERAGE(P16,P24,P30,P41,P43)</f>
+        <f>AVERAGE(P16,P24,P30,P39)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f>AVERAGE(Q16,Q24,Q30,Q41,Q43)</f>
+        <f>AVERAGE(Q16,Q24,Q30,Q39)</f>
         <v>0</v>
       </c>
       <c r="R3" s="6">
-        <f>AVERAGE(R16,R24,R30,R41,R43)</f>
+        <f>AVERAGE(R16,R24,R30,R39)</f>
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f>AVERAGE(S16,S24,S30,S41,S43)</f>
+        <f>AVERAGE(S16,S24,S30,S39)</f>
         <v>0</v>
       </c>
       <c r="T3" s="6">
-        <f>AVERAGE(T16,T24,T30,T41,T43)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <f>AVERAGE(U16,U24,U30,U41,U43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21">
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:21" ht="20.100000" customHeight="1">
+        <f>AVERAGE(T16,T24,T30,T39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="F5" s="3">
+        <v>45190</v>
+      </c>
       <c r="G5" s="3">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="H5" s="3">
-        <v>45191</v>
+        <v>45192</v>
       </c>
       <c r="I5" s="3">
-        <v>45192</v>
+        <v>45193</v>
       </c>
       <c r="J5" s="3">
-        <v>45193</v>
+        <v>45194</v>
       </c>
       <c r="K5" s="3">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="L5" s="3">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="M5" s="3">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="N5" s="3">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="O5" s="3">
-        <v>45198</v>
+        <v>45199</v>
       </c>
       <c r="P5" s="3">
-        <v>45199</v>
+        <v>45200</v>
       </c>
       <c r="Q5" s="3">
-        <v>45200</v>
+        <v>45201</v>
       </c>
       <c r="R5" s="3">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="S5" s="3">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="T5" s="3">
-        <v>45203</v>
-      </c>
-      <c r="U5" s="3">
         <v>45204</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="16.500000" customHeight="1">
+    <row r="6" spans="2:20" ht="16.500000" customHeight="1">
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
@@ -4287,20 +4318,17 @@
       <c r="T6" s="9">
         <v>0</v>
       </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="16.500000" customHeight="1">
+    </row>
+    <row r="7" spans="2:20" ht="16.500000" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="11"/>
       <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
@@ -4343,20 +4371,17 @@
       <c r="T7" s="9">
         <v>0</v>
       </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" ht="16.150000" customHeight="1">
+    </row>
+    <row r="8" spans="2:20" ht="16.150000" customHeight="1">
       <c r="B8" s="14"/>
       <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
@@ -4399,20 +4424,17 @@
       <c r="T8" s="9">
         <v>0</v>
       </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21">
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9" s="14"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
@@ -4455,20 +4477,15 @@
       <c r="T9" s="9">
         <v>0</v>
       </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21">
+    </row>
+    <row r="10" spans="2:20">
       <c r="B10" s="14"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
       <c r="G10" s="9">
         <v>0</v>
       </c>
@@ -4511,20 +4528,15 @@
       <c r="T10" s="9">
         <v>0</v>
       </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
+    </row>
+    <row r="11" spans="2:20">
       <c r="B11" s="14"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
       <c r="G11" s="9">
         <v>0</v>
       </c>
@@ -4567,20 +4579,13 @@
       <c r="T11" s="9">
         <v>0</v>
       </c>
-      <c r="U11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
+    </row>
+    <row r="12" spans="2:20">
       <c r="B12" s="14"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -4595,14 +4600,13 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="2:21">
+    </row>
+    <row r="13" spans="2:20">
       <c r="B13" s="14"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -4617,14 +4621,13 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="2:21">
+    </row>
+    <row r="14" spans="2:20">
       <c r="B14" s="14"/>
       <c r="C14" s="11"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -4639,18 +4642,15 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="2:21">
+    </row>
+    <row r="15" spans="2:20">
       <c r="B15" s="14"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
       <c r="G15" s="9">
         <v>0</v>
       </c>
@@ -4693,16 +4693,16 @@
       <c r="T15" s="9">
         <v>0</v>
       </c>
-      <c r="U15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21">
+    </row>
+    <row r="16" spans="2:20">
       <c r="B16" s="15"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6">
+        <f>AVERAGE(F6:F15)</f>
+        <v>0</v>
+      </c>
       <c r="G16" s="6">
         <f>AVERAGE(G6:G15)</f>
         <v>0</v>
@@ -4759,25 +4759,21 @@
         <f>AVERAGE(T6:T15)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="6">
-        <f>AVERAGE(U6:U15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
+    </row>
+    <row r="17" spans="2:20">
       <c r="B17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
       <c r="G17" s="9">
         <v>0</v>
       </c>
@@ -4820,20 +4816,17 @@
       <c r="T17" s="9">
         <v>0</v>
       </c>
-      <c r="U17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
+    </row>
+    <row r="18" spans="2:20">
       <c r="B18" s="22"/>
       <c r="C18" s="17"/>
       <c r="D18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
@@ -4876,18 +4869,15 @@
       <c r="T18" s="9">
         <v>0</v>
       </c>
-      <c r="U18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" s="22"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
@@ -4930,18 +4920,15 @@
       <c r="T19" s="9">
         <v>0</v>
       </c>
-      <c r="U19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21">
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20" s="22"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
       <c r="G20" s="9">
         <v>0</v>
       </c>
@@ -4984,18 +4971,15 @@
       <c r="T20" s="9">
         <v>0</v>
       </c>
-      <c r="U20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21">
+    </row>
+    <row r="21" spans="2:20">
       <c r="B21" s="22"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
       <c r="G21" s="9">
         <v>0</v>
       </c>
@@ -5038,18 +5022,15 @@
       <c r="T21" s="9">
         <v>0</v>
       </c>
-      <c r="U21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
+    </row>
+    <row r="22" spans="2:20">
       <c r="B22" s="22"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
       <c r="G22" s="9">
         <v>0</v>
       </c>
@@ -5092,18 +5073,15 @@
       <c r="T22" s="9">
         <v>0</v>
       </c>
-      <c r="U22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
+    </row>
+    <row r="23" spans="2:20">
       <c r="B23" s="22"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
       <c r="G23" s="9">
         <v>0</v>
       </c>
@@ -5146,16 +5124,16 @@
       <c r="T23" s="9">
         <v>0</v>
       </c>
-      <c r="U23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
+    </row>
+    <row r="24" spans="2:20">
       <c r="B24" s="23"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6">
+        <f>AVERAGE(F17:F22)</f>
+        <v>0</v>
+      </c>
       <c r="G24" s="6">
         <f>AVERAGE(G17:G22)</f>
         <v>0</v>
@@ -5212,23 +5190,21 @@
         <f>AVERAGE(T17:T22)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="6">
-        <f>AVERAGE(U17:U22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
+    </row>
+    <row r="25" spans="2:20">
       <c r="B25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>11</v>
+      <c r="C25" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
       <c r="G25" s="9">
         <v>0</v>
       </c>
@@ -5271,18 +5247,17 @@
       <c r="T25" s="9">
         <v>0</v>
       </c>
-      <c r="U25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21">
+    </row>
+    <row r="26" spans="2:20">
       <c r="B26" s="22"/>
       <c r="C26" s="17"/>
       <c r="D26" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
       <c r="G26" s="9">
         <v>0</v>
       </c>
@@ -5325,18 +5300,17 @@
       <c r="T26" s="9">
         <v>0</v>
       </c>
-      <c r="U26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21">
+    </row>
+    <row r="27" spans="2:20">
       <c r="B27" s="22"/>
       <c r="C27" s="17"/>
       <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
       <c r="G27" s="9">
         <v>0</v>
       </c>
@@ -5379,18 +5353,17 @@
       <c r="T27" s="9">
         <v>0</v>
       </c>
-      <c r="U27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21">
+    </row>
+    <row r="28" spans="2:20">
       <c r="B28" s="22"/>
       <c r="C28" s="17"/>
       <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
       <c r="G28" s="9">
         <v>0</v>
       </c>
@@ -5433,20 +5406,17 @@
       <c r="T28" s="9">
         <v>0</v>
       </c>
-      <c r="U28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21">
+    </row>
+    <row r="29" spans="2:20">
       <c r="B29" s="14"/>
       <c r="C29" s="17"/>
       <c r="D29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
       <c r="G29" s="9">
         <v>0</v>
       </c>
@@ -5489,16 +5459,16 @@
       <c r="T29" s="9">
         <v>0</v>
       </c>
-      <c r="U29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21">
+    </row>
+    <row r="30" spans="2:20">
       <c r="B30" s="15"/>
       <c r="C30" s="18"/>
       <c r="D30" s="26"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="6">
+        <f>AVERAGE(F29:F29)</f>
+        <v>0</v>
+      </c>
       <c r="G30" s="6">
         <f>AVERAGE(G29:G29)</f>
         <v>0</v>
@@ -5555,25 +5525,21 @@
         <f>AVERAGE(T29:T29)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="6">
-        <f>AVERAGE(U29:U29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21">
+    </row>
+    <row r="31" spans="2:20">
       <c r="B31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
       <c r="G31" s="9">
         <v>0</v>
       </c>
@@ -5616,20 +5582,17 @@
       <c r="T31" s="9">
         <v>0</v>
       </c>
-      <c r="U31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21">
+    </row>
+    <row r="32" spans="2:20">
       <c r="B32" s="14"/>
       <c r="C32" s="17"/>
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
       <c r="G32" s="9">
         <v>0</v>
       </c>
@@ -5672,20 +5635,17 @@
       <c r="T32" s="9">
         <v>0</v>
       </c>
-      <c r="U32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21">
+    </row>
+    <row r="33" spans="2:20">
       <c r="B33" s="14"/>
       <c r="C33" s="17"/>
       <c r="D33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
       <c r="G33" s="9">
         <v>0</v>
       </c>
@@ -5728,20 +5688,17 @@
       <c r="T33" s="9">
         <v>0</v>
       </c>
-      <c r="U33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21">
+    </row>
+    <row r="34" spans="2:20">
       <c r="B34" s="14"/>
       <c r="C34" s="17"/>
       <c r="D34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
       <c r="G34" s="9">
         <v>0</v>
       </c>
@@ -5784,20 +5741,17 @@
       <c r="T34" s="9">
         <v>0</v>
       </c>
-      <c r="U34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21">
+    </row>
+    <row r="35" spans="2:20">
       <c r="B35" s="14"/>
       <c r="C35" s="17"/>
       <c r="D35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
       <c r="G35" s="9">
         <v>0</v>
       </c>
@@ -5840,20 +5794,17 @@
       <c r="T35" s="9">
         <v>0</v>
       </c>
-      <c r="U35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21">
+    </row>
+    <row r="36" spans="2:20">
       <c r="B36" s="14"/>
       <c r="C36" s="17"/>
       <c r="D36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
       <c r="G36" s="9">
         <v>0</v>
       </c>
@@ -5896,20 +5847,17 @@
       <c r="T36" s="9">
         <v>0</v>
       </c>
-      <c r="U36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21">
+    </row>
+    <row r="37" spans="2:20">
       <c r="B37" s="14"/>
       <c r="C37" s="17"/>
       <c r="D37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
       <c r="G37" s="9">
         <v>0</v>
       </c>
@@ -5952,18 +5900,17 @@
       <c r="T37" s="9">
         <v>0</v>
       </c>
-      <c r="U37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:21">
+    </row>
+    <row r="38" spans="2:20">
       <c r="B38" s="14"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
       <c r="G38" s="9">
         <v>0</v>
       </c>
@@ -6006,383 +5953,257 @@
       <c r="T38" s="9">
         <v>0</v>
       </c>
-      <c r="U38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21">
-      <c r="B39" s="14"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-      <c r="P39" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>0</v>
-      </c>
-      <c r="R39" s="9">
-        <v>0</v>
-      </c>
-      <c r="S39" s="9">
-        <v>0</v>
-      </c>
-      <c r="T39" s="9">
-        <v>0</v>
-      </c>
-      <c r="U39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21">
-      <c r="B40" s="14"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9">
-        <v>0</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-      <c r="P40" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>0</v>
-      </c>
-      <c r="R40" s="9">
-        <v>0</v>
-      </c>
-      <c r="S40" s="9">
-        <v>0</v>
-      </c>
-      <c r="T40" s="9">
-        <v>0</v>
-      </c>
-      <c r="U40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21">
-      <c r="B41" s="15"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="6">
-        <f>AVERAGE(G31:G40)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <f>AVERAGE(H31:H40)</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <f>AVERAGE(I31:I40)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <f>AVERAGE(J31:J40)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <f>AVERAGE(K31:K40)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <f>AVERAGE(L31:L40)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <f>AVERAGE(M31:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <f>AVERAGE(N31:N40)</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <f>AVERAGE(O31:O40)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="6">
-        <f>AVERAGE(P31:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="6">
-        <f>AVERAGE(Q31:Q40)</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="6">
-        <f>AVERAGE(R31:R40)</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="6">
-        <f>AVERAGE(S31:S40)</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="6">
-        <f>AVERAGE(T31:T40)</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="6">
-        <f>AVERAGE(U31:U40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21">
-      <c r="B42" s="13"/>
-      <c r="C42" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
-        <v>0</v>
-      </c>
-      <c r="N42" s="9">
-        <v>0</v>
-      </c>
-      <c r="O42" s="9">
-        <v>0</v>
-      </c>
-      <c r="P42" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>0</v>
-      </c>
-      <c r="R42" s="9">
-        <v>0</v>
-      </c>
-      <c r="S42" s="9">
-        <v>0</v>
-      </c>
-      <c r="T42" s="9">
-        <v>0</v>
-      </c>
-      <c r="U42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21">
-      <c r="B43" s="15"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="7"/>
-      <c r="G43" s="6">
-        <f>AVERAGE(G42:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <f>AVERAGE(H42:H42)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <f>AVERAGE(I42:I42)</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <f>AVERAGE(J42:J42)</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <f>AVERAGE(K42:K42)</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <f>AVERAGE(L42:L42)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <f>AVERAGE(M42:M42)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <f>AVERAGE(N42:N42)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <f>AVERAGE(O42:O42)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="6">
-        <f>AVERAGE(P42:P42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="6">
-        <f>AVERAGE(Q42:Q42)</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="6">
-        <f>AVERAGE(R42:R42)</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="6">
-        <f>AVERAGE(S42:S42)</f>
-        <v>0</v>
-      </c>
-      <c r="T43" s="6">
-        <f>AVERAGE(T42:T42)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="6">
-        <f>AVERAGE(U42:U42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21">
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="2:21">
-      <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="2:21">
-      <c r="F46" s="8"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="2:21">
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="15"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6">
+        <f>AVERAGE(F31:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <f>AVERAGE(G31:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <f>AVERAGE(H31:H38)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <f>AVERAGE(I31:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <f>AVERAGE(J31:J38)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <f>AVERAGE(K31:K38)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <f>AVERAGE(L31:L38)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <f>AVERAGE(M31:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <f>AVERAGE(N31:N38)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <f>AVERAGE(O31:O38)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="6">
+        <f>AVERAGE(P31:P38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6">
+        <f>AVERAGE(Q31:Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="6">
+        <f>AVERAGE(R31:R38)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="6">
+        <f>AVERAGE(S31:S38)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="6">
+        <f>AVERAGE(T31:T38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="D43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="D44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="E45" s="8"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="E46" s="8"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="E47" s="1"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="2:21">
+    </row>
+    <row r="48" spans="2:20">
+      <c r="E48" s="1"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="6:7">
-      <c r="F49" s="8"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="6:7">
-      <c r="F50" s="8"/>
-      <c r="G50" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="B6:B16"/>
     <mergeCell ref="C6:C16"/>
     <mergeCell ref="B17:B24"/>
     <mergeCell ref="C17:C24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:C41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B17:C17 F17 B18:F22 B42">
-    <cfRule type="cellIs" dxfId="7" priority="233" operator="equal">
+  <conditionalFormatting sqref="B17:C17 E17 B18:E22">
+    <cfRule type="cellIs" dxfId="7" priority="271" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:E37">
-    <cfRule type="cellIs" dxfId="6" priority="126" operator="equal">
+  <conditionalFormatting sqref="B31:D37">
+    <cfRule type="cellIs" dxfId="6" priority="151" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:F29">
-    <cfRule type="cellIs" dxfId="5" priority="140" operator="equal">
+  <conditionalFormatting sqref="B29:E29">
+    <cfRule type="cellIs" dxfId="5" priority="168" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:F42">
-    <cfRule type="cellIs" dxfId="4" priority="171" operator="equal">
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="cellIs" dxfId="2" priority="531" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23 E38:E40">
-    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="F31:F38">
+    <cfRule type="dataBar" priority="533">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="cellIs" dxfId="2" priority="489" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="G32:G38">
+    <cfRule type="dataBar" priority="536">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
-    <cfRule type="dataBar" priority="491">
+  <conditionalFormatting sqref="H31:P31 Q31:Q37 R31:S31 T31:T34 H32:P32 R32:S32 H33:P33 R33:S33 H34:P34 R34:S34 H35:P35 R35:T35 H36:P36 R36:T36 H37:P37 R37:T37 H38:T38">
+    <cfRule type="dataBar" priority="568">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4727571e-3213-3b21-4727-571e32133b21}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:T29 I29:T29">
+    <cfRule type="dataBar" priority="572">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c383d39a-b697-b4a5-c383-d39ab697b4a5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:T29">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:T29">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6395,8 +6216,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H40">
-    <cfRule type="dataBar" priority="494">
+  <conditionalFormatting sqref="F6:G7 Q6:S12 F8:P8 T8 F9:P9 T9 F10:P10 T10 F11:P11 T11 Q13:S14 F15:R15 T15">
+    <cfRule type="dataBar" priority="522">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6409,8 +6230,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:J42">
-    <cfRule type="dataBar" priority="507">
+  <conditionalFormatting sqref="H6:P6 Q6:S12 T6 H7:P7 T7 Q13:S15">
+    <cfRule type="dataBar" priority="524">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6423,8 +6244,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:Q31 R31:R37 S31:T31 U31:U34 I32:Q32 S32:T32 I33:Q33 S33:T33 I34:Q34 S34:T34 I35:Q35 S35:U35 I36:Q36 S36:U36 I37:Q37 S37:U37 I38:U40">
-    <cfRule type="dataBar" priority="526">
+  <conditionalFormatting sqref="G31:Q31">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6437,8 +6258,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:U42">
-    <cfRule type="dataBar" priority="529">
+  <conditionalFormatting sqref="B9:B10 E9:E10">
+    <cfRule type="cellIs" dxfId="1" priority="213" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G15">
+    <cfRule type="dataBar" priority="420">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6451,8 +6277,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:U29 J29:U29">
-    <cfRule type="dataBar" priority="530">
+  <conditionalFormatting sqref="Q6:S12 H9:P9 T9 H10:P10 T10 H11:P11 T11 Q13:S14 H15:R15 T15">
+    <cfRule type="dataBar" priority="473">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6465,8 +6291,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:U29">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="F17:Q18 R17:T22">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6479,8 +6305,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:U29">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="F17:Q18 R17:T19 F19:G22 R20:T22">
+    <cfRule type="dataBar" priority="472">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6493,8 +6319,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H7 R6:T12 G8:Q8 U8 G9:Q9 U9 G10:Q10 U10 G11:Q11 U11 R13:T14 G15:S15 U15">
-    <cfRule type="dataBar" priority="488">
+  <conditionalFormatting sqref="G17:Q18 H17:P17 Q17:T19 S17:T17 H18:P18 S18:T18 H19:P19 S19:T19 H20:P20 Q20:T22 S20:T20 H21:P21 S21:T21 H22:P22 S22:T22">
+    <cfRule type="dataBar" priority="475">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6507,151 +6333,38 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:Q6 R6:T12 U6 I7:Q7 U7 R13:T15">
-    <cfRule type="dataBar" priority="490">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:R31">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10 F9:F10">
-    <cfRule type="cellIs" dxfId="1" priority="193" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E15">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H15">
-    <cfRule type="dataBar" priority="400">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1411158-7444-7667-e141-115874447667}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:T12 I9:Q9 U9 I10:Q10 U10 I11:Q11 U11 R13:T14 I15:S15 U15">
-    <cfRule type="dataBar" priority="452">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:R18 S17:U22">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79491956-7c4c-7e6f-7949-19567c4c7e6f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:R18 S17:U19 G19:H22 S20:U22">
-    <cfRule type="dataBar" priority="454">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:R18 I17:Q17 R17:U19 T17:U17 I18:Q18 T18:U18 I19:Q19 T19:U19 I20:Q20 R20:U22 T20:U20 I21:Q21 T21:U21 I22:Q22 T22:U22">
-    <cfRule type="dataBar" priority="457">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31712168-4477-4657-3171-216844774657}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D6:D15">
-    <cfRule type="cellIs" dxfId="6" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="136" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="137" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="3" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="5" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D29">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
+  <conditionalFormatting sqref="D38">
     <cfRule type="cellIs" dxfId="0" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D36">
-    <cfRule type="cellIs" dxfId="7" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="235" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6666,6 +6379,56 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4727571e-3213-3b21-4727-571e32133b21}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c383d39a-b697-b4a5-c383-d39ab697b4a5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4fbf5f16-3a1b-3829-4fbf-5f163a1b3829}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{cb8bdb92-be9f-bcad-cb8b-db92be9fbcad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="1">
@@ -6756,76 +6519,6 @@
             </x14:dataBar>
           </x14:cfRule>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1959d947-6c5d-6e7f-1959-d9476c5d6e7f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ddd8dc4-e8d9-eafb-9ddd-8dc4e8d9eafb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e1411158-7444-7667-e141-115874447667}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85c595dc-f2c7-f2e3-85c5-95dcf2c7f2e3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{79491956-7c4c-7e6f-7949-19567c4c7e6f}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8dcd9dd4-f8c8-faeb-8dcd-9dd4f8c8faeb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4477-4657-3171-216844774657}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="1">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
